--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/github/raw-d-man-mutual-funds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACF2BF-49B4-C645-9A1C-76E744927625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BD17C-FD44-EF4F-8DA5-9BFDD1653CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="216">
   <si>
     <t>مشترک کارگزاری کارآفرین</t>
   </si>
@@ -679,6 +679,12 @@
   <si>
     <t>1397-03-31</t>
   </si>
+  <si>
+    <t>137*</t>
+  </si>
+  <si>
+    <t>1397-05-31</t>
+  </si>
 </sst>
 </file>
 
@@ -688,7 +694,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_-;\(#,##0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -778,6 +784,17 @@
       <color theme="0"/>
       <name val="B Nazanin"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Zar"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -846,7 +863,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -912,6 +929,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -1230,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06670460-8E5C-4344-986B-9D7823F7222F}">
-  <dimension ref="A1:D691"/>
+  <dimension ref="A1:D856"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="D354" sqref="D354"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="D856" sqref="D856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6492,8 +6515,8 @@
       </c>
     </row>
     <row r="377" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
-        <v>28</v>
+      <c r="A377" s="1">
+        <v>29</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>29</v>
@@ -10883,6 +10906,2308 @@
       </c>
       <c r="D691" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>1</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C692" s="9">
+        <v>8863934.8767109998</v>
+      </c>
+      <c r="D692" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>2</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C693" s="10">
+        <v>16972990.539074998</v>
+      </c>
+      <c r="D693" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>3</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C694" s="9">
+        <v>101326.112392</v>
+      </c>
+      <c r="D694" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A695" s="3">
+        <v>4</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C695" s="10">
+        <v>252340.87683299999</v>
+      </c>
+      <c r="D695" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>5</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C696" s="9">
+        <v>76095581.771169007</v>
+      </c>
+      <c r="D696" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>6</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C697" s="10">
+        <v>2602330.2498019999</v>
+      </c>
+      <c r="D697" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>7</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" s="9">
+        <v>1430427.816173</v>
+      </c>
+      <c r="D698" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A699" s="3">
+        <v>8</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" s="10">
+        <v>193180186.73435301</v>
+      </c>
+      <c r="D699" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>9</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C700" s="9">
+        <v>8771471.6407069992</v>
+      </c>
+      <c r="D700" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A701" s="3">
+        <v>10</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C701" s="10">
+        <v>9027350.1640160009</v>
+      </c>
+      <c r="D701" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>11</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C702" s="9">
+        <v>841082</v>
+      </c>
+      <c r="D702" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>12</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C703" s="10">
+        <v>301542219.85758501</v>
+      </c>
+      <c r="D703" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>13</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C704" s="9">
+        <v>51015218.465464003</v>
+      </c>
+      <c r="D704" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>14</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C705" s="10">
+        <v>211459.66395099999</v>
+      </c>
+      <c r="D705" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>15</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C706" s="9">
+        <v>1093636.7519449999</v>
+      </c>
+      <c r="D706" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A707" s="3">
+        <v>16</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" s="10">
+        <v>48189873.045584001</v>
+      </c>
+      <c r="D707" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>17</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C708" s="9">
+        <v>287701.92202699999</v>
+      </c>
+      <c r="D708" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A709" s="3">
+        <v>18</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C709" s="10">
+        <v>33064638.363540001</v>
+      </c>
+      <c r="D709" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>19</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C710" s="9">
+        <v>9041086</v>
+      </c>
+      <c r="D710" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A711" s="3">
+        <v>20</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C711" s="10">
+        <v>6821409.8976710001</v>
+      </c>
+      <c r="D711" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>21</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C712" s="9">
+        <v>15551907</v>
+      </c>
+      <c r="D712" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>22</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C713" s="10">
+        <v>35164277</v>
+      </c>
+      <c r="D713" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>23</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C714" s="9">
+        <v>123395489.406994</v>
+      </c>
+      <c r="D714" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>24</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C715" s="10">
+        <v>150909236.05044901</v>
+      </c>
+      <c r="D715" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>25</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C716" s="9">
+        <v>31328219.59448</v>
+      </c>
+      <c r="D716" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A717" s="3">
+        <v>26</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C717" s="10">
+        <v>5412617.3106509997</v>
+      </c>
+      <c r="D717" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>27</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C718" s="9">
+        <v>9162418.5483669993</v>
+      </c>
+      <c r="D718" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>28</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C719" s="10">
+        <v>21378437.266378</v>
+      </c>
+      <c r="D719" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C720" s="9">
+        <v>6122</v>
+      </c>
+      <c r="D720" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A721" s="3">
+        <v>30</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C721" s="10">
+        <v>3912099.0764950002</v>
+      </c>
+      <c r="D721" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>31</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C722" s="9">
+        <v>7551.2376610000001</v>
+      </c>
+      <c r="D722" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A723" s="3">
+        <v>32</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C723" s="10">
+        <v>2430772.8155999999</v>
+      </c>
+      <c r="D723" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>33</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C724" s="9">
+        <v>49287.853338000001</v>
+      </c>
+      <c r="D724" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A725" s="3">
+        <v>34</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C725" s="10">
+        <v>549125.74845299998</v>
+      </c>
+      <c r="D725" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>35</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C726" s="9">
+        <v>31379706</v>
+      </c>
+      <c r="D726" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A727" s="3">
+        <v>36</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C727" s="10">
+        <v>9085459.7548670005</v>
+      </c>
+      <c r="D727" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>37</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C728" s="9">
+        <v>7781643.2540960005</v>
+      </c>
+      <c r="D728" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A729" s="3">
+        <v>38</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C729" s="10">
+        <v>26907238.139222998</v>
+      </c>
+      <c r="D729" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>39</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C730" s="9">
+        <v>75772.166429999997</v>
+      </c>
+      <c r="D730" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>40</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C731" s="10">
+        <v>515893.18034299999</v>
+      </c>
+      <c r="D731" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>41</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C732" s="9">
+        <v>18481.537457999999</v>
+      </c>
+      <c r="D732" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>42</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C733" s="10">
+        <v>1015862.4</v>
+      </c>
+      <c r="D733" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>43</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C734" s="9">
+        <v>72774962.078153998</v>
+      </c>
+      <c r="D734" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A735" s="3">
+        <v>44</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C735" s="10">
+        <v>25160686.832538001</v>
+      </c>
+      <c r="D735" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>45</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C736" s="9">
+        <v>37482855.561411001</v>
+      </c>
+      <c r="D736" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>46</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C737" s="10">
+        <v>249912.53738600001</v>
+      </c>
+      <c r="D737" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>47</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C738" s="9">
+        <v>55147.423417999998</v>
+      </c>
+      <c r="D738" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A739" s="3">
+        <v>48</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C739" s="10">
+        <v>1702323.3909</v>
+      </c>
+      <c r="D739" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>49</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C740" s="9">
+        <v>8877566</v>
+      </c>
+      <c r="D740" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A741" s="3">
+        <v>50</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C741" s="10">
+        <v>446761</v>
+      </c>
+      <c r="D741" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>51</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C742" s="9">
+        <v>1255570.8567069999</v>
+      </c>
+      <c r="D742" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>52</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C743" s="10">
+        <v>236212.083824</v>
+      </c>
+      <c r="D743" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>53</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C744" s="9">
+        <v>3996333.563689</v>
+      </c>
+      <c r="D744" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>54</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C745" s="10">
+        <v>351348.93455900002</v>
+      </c>
+      <c r="D745" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>55</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C746" s="9">
+        <v>93390.5049</v>
+      </c>
+      <c r="D746" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A747" s="3">
+        <v>56</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C747" s="10">
+        <v>21413.404202000002</v>
+      </c>
+      <c r="D747" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>57</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C748" s="9">
+        <v>4698926.9629020002</v>
+      </c>
+      <c r="D748" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>58</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C749" s="10">
+        <v>468519.08065299998</v>
+      </c>
+      <c r="D749" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>59</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C750" s="9">
+        <v>88943.051940999998</v>
+      </c>
+      <c r="D750" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>60</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C751" s="10">
+        <v>863885.59997900005</v>
+      </c>
+      <c r="D751" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>61</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C752" s="9">
+        <v>3561994.85</v>
+      </c>
+      <c r="D752" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A753" s="3">
+        <v>62</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C753" s="10">
+        <v>163374.68069000001</v>
+      </c>
+      <c r="D753" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>63</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C754" s="9">
+        <v>1773486.003277</v>
+      </c>
+      <c r="D754" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A755" s="3">
+        <v>64</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C755" s="10">
+        <v>169425.147861</v>
+      </c>
+      <c r="D755" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>65</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C756" s="9">
+        <v>4813808.4936819999</v>
+      </c>
+      <c r="D756" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A757" s="3">
+        <v>66</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C757" s="10">
+        <v>2374687.2715500002</v>
+      </c>
+      <c r="D757" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>67</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C758" s="9">
+        <v>424146.58591899998</v>
+      </c>
+      <c r="D758" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>68</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C759" s="10">
+        <v>2368791.6831789999</v>
+      </c>
+      <c r="D759" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>69</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C760" s="9">
+        <v>230061.24357200001</v>
+      </c>
+      <c r="D760" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A761" s="3">
+        <v>70</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C761" s="10">
+        <v>224579.48024199999</v>
+      </c>
+      <c r="D761" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>71</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C762" s="9">
+        <v>502560.33</v>
+      </c>
+      <c r="D762" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A763" s="1"/>
+      <c r="B763" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C763" s="11">
+        <v>1420875558.7274153</v>
+      </c>
+      <c r="D763" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>72</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C764" s="9">
+        <v>129741.636849</v>
+      </c>
+      <c r="D764" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A765" s="3">
+        <v>73</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C765" s="10">
+        <v>380183.92262700002</v>
+      </c>
+      <c r="D765" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>74</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C766" s="9">
+        <v>112475.8355</v>
+      </c>
+      <c r="D766" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A767" s="3">
+        <v>75</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C767" s="10">
+        <v>4678258.1744069997</v>
+      </c>
+      <c r="D767" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>76</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C768" s="9">
+        <v>136444.43162700001</v>
+      </c>
+      <c r="D768" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A769" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C769" s="10">
+        <v>17491.50592</v>
+      </c>
+      <c r="D769" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C770" s="9">
+        <v>7608.9510019999998</v>
+      </c>
+      <c r="D770" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A771" s="3">
+        <v>79</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C771" s="10">
+        <v>107012.137812</v>
+      </c>
+      <c r="D771" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>80</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C772" s="9">
+        <v>112404.572958</v>
+      </c>
+      <c r="D772" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A773" s="3">
+        <v>81</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C773" s="10">
+        <v>119652.91712</v>
+      </c>
+      <c r="D773" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>82</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C774" s="9">
+        <v>243824.53077700001</v>
+      </c>
+      <c r="D774" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A775" s="3">
+        <v>83</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C775" s="10">
+        <v>287083.71934399998</v>
+      </c>
+      <c r="D775" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>84</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C776" s="9">
+        <v>115006.130512</v>
+      </c>
+      <c r="D776" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A777" s="3">
+        <v>85</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C777" s="10">
+        <v>98950.823338999995</v>
+      </c>
+      <c r="D777" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>86</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C778" s="9">
+        <v>239973.836736</v>
+      </c>
+      <c r="D778" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A779" s="3">
+        <v>87</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C779" s="10">
+        <v>101494.511847</v>
+      </c>
+      <c r="D779" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>88</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C780" s="9">
+        <v>126222.879808</v>
+      </c>
+      <c r="D780" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A781" s="3">
+        <v>89</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C781" s="10">
+        <v>132372.80045400001</v>
+      </c>
+      <c r="D781" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>90</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C782" s="9">
+        <v>613974.54231299995</v>
+      </c>
+      <c r="D782" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A783" s="3">
+        <v>91</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C783" s="10">
+        <v>294424.60625100002</v>
+      </c>
+      <c r="D783" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A784" s="23"/>
+      <c r="B784" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C784" s="11">
+        <v>8054602.4672030015</v>
+      </c>
+      <c r="D784" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>92</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C785" s="9">
+        <v>131888.03883599999</v>
+      </c>
+      <c r="D785" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A786" s="3">
+        <v>93</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C786" s="10">
+        <v>111733.43652</v>
+      </c>
+      <c r="D786" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>94</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C787" s="9">
+        <v>305851.56170999998</v>
+      </c>
+      <c r="D787" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A788" s="3">
+        <v>95</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C788" s="10">
+        <v>363237.71274300001</v>
+      </c>
+      <c r="D788" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>96</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C789" s="9">
+        <v>239106.86318799999</v>
+      </c>
+      <c r="D789" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A790" s="3">
+        <v>97</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C790" s="10">
+        <v>33028.02074</v>
+      </c>
+      <c r="D790" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>98</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C791" s="9">
+        <v>95562.218747000006</v>
+      </c>
+      <c r="D791" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A792" s="3">
+        <v>99</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C792" s="10">
+        <v>1354647.7367509999</v>
+      </c>
+      <c r="D792" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A793" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C793" s="9">
+        <v>25315.187948999999</v>
+      </c>
+      <c r="D793" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A794" s="3">
+        <v>101</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C794" s="10">
+        <v>203657.10279199999</v>
+      </c>
+      <c r="D794" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>102</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C795" s="9">
+        <v>91236.041947999998</v>
+      </c>
+      <c r="D795" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A796" s="3">
+        <v>103</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C796" s="10">
+        <v>130282.160208</v>
+      </c>
+      <c r="D796" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>104</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C797" s="9">
+        <v>158241.80812500001</v>
+      </c>
+      <c r="D797" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A798" s="3">
+        <v>105</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C798" s="10">
+        <v>258316.00362900001</v>
+      </c>
+      <c r="D798" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>106</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C799" s="9">
+        <v>147820.39963299999</v>
+      </c>
+      <c r="D799" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A800" s="3">
+        <v>107</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C800" s="10">
+        <v>15026.098894000001</v>
+      </c>
+      <c r="D800" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>108</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C801" s="9">
+        <v>187276.10045100001</v>
+      </c>
+      <c r="D801" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A802" s="3">
+        <v>109</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C802" s="10">
+        <v>343566.28218500002</v>
+      </c>
+      <c r="D802" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>110</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C803" s="9">
+        <v>120564.249234</v>
+      </c>
+      <c r="D803" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A804" s="3">
+        <v>111</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C804" s="10">
+        <v>168414.69278000001</v>
+      </c>
+      <c r="D804" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>112</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C805" s="9">
+        <v>110314.619062</v>
+      </c>
+      <c r="D805" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A806" s="3">
+        <v>113</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C806" s="10">
+        <v>133734.71275899999</v>
+      </c>
+      <c r="D806" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>114</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C807" s="9">
+        <v>143238.586109</v>
+      </c>
+      <c r="D807" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A808" s="3">
+        <v>115</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C808" s="10">
+        <v>224797.018098</v>
+      </c>
+      <c r="D808" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>116</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C809" s="9">
+        <v>668693.33876800002</v>
+      </c>
+      <c r="D809" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A810" s="3">
+        <v>117</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C810" s="10">
+        <v>305900.09366000001</v>
+      </c>
+      <c r="D810" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>118</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C811" s="9">
+        <v>63651.654303000003</v>
+      </c>
+      <c r="D811" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A812" s="3">
+        <v>119</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C812" s="10">
+        <v>82308.326979000005</v>
+      </c>
+      <c r="D812" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>120</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C813" s="9">
+        <v>250600.44208499999</v>
+      </c>
+      <c r="D813" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A814" s="3">
+        <v>121</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C814" s="10">
+        <v>222875.11747500001</v>
+      </c>
+      <c r="D814" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>122</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C815" s="9">
+        <v>135761.907282</v>
+      </c>
+      <c r="D815" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A816" s="3">
+        <v>123</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C816" s="10">
+        <v>79597.764022999996</v>
+      </c>
+      <c r="D816" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>124</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C817" s="9">
+        <v>174546.669781</v>
+      </c>
+      <c r="D817" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A818" s="3">
+        <v>125</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C818" s="10">
+        <v>638115.32175999996</v>
+      </c>
+      <c r="D818" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>126</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C819" s="9">
+        <v>143080.39640999999</v>
+      </c>
+      <c r="D819" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A820" s="3">
+        <v>127</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C820" s="10">
+        <v>60349.006627000002</v>
+      </c>
+      <c r="D820" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>128</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C821" s="9">
+        <v>18377.427584000001</v>
+      </c>
+      <c r="D821" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A822" s="3">
+        <v>129</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C822" s="10">
+        <v>44321.930784999997</v>
+      </c>
+      <c r="D822" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>130</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C823" s="9">
+        <v>11587.782297</v>
+      </c>
+      <c r="D823" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A824" s="3">
+        <v>131</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C824" s="10">
+        <v>135107.206435</v>
+      </c>
+      <c r="D824" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>132</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C825" s="9">
+        <v>309631.02050500002</v>
+      </c>
+      <c r="D825" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A826" s="3">
+        <v>133</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C826" s="10">
+        <v>127051.845747</v>
+      </c>
+      <c r="D826" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>134</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C827" s="9">
+        <v>162632.93178499999</v>
+      </c>
+      <c r="D827" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A828" s="3">
+        <v>135</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C828" s="10">
+        <v>110028.106848</v>
+      </c>
+      <c r="D828" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>136</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C829" s="9">
+        <v>232605.642544</v>
+      </c>
+      <c r="D829" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A830" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C830" s="10">
+        <v>123440.292865</v>
+      </c>
+      <c r="D830" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>138</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C831" s="9">
+        <v>140534.674462</v>
+      </c>
+      <c r="D831" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A832" s="3">
+        <v>139</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C832" s="10">
+        <v>130495.787428</v>
+      </c>
+      <c r="D832" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>140</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C833" s="9">
+        <v>143827.02272400001</v>
+      </c>
+      <c r="D833" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A834" s="3">
+        <v>141</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C834" s="10">
+        <v>58731.072301</v>
+      </c>
+      <c r="D834" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>142</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C835" s="9">
+        <v>117520.216093</v>
+      </c>
+      <c r="D835" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A836" s="3">
+        <v>143</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C836" s="10">
+        <v>143138.78906099999</v>
+      </c>
+      <c r="D836" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>144</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C837" s="9">
+        <v>269898.51792200003</v>
+      </c>
+      <c r="D837" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A838" s="3">
+        <v>145</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C838" s="10">
+        <v>110897.33996300001</v>
+      </c>
+      <c r="D838" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>146</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C839" s="9">
+        <v>508088.68367400003</v>
+      </c>
+      <c r="D839" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A840" s="3">
+        <v>147</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C840" s="10">
+        <v>14917.625212999999</v>
+      </c>
+      <c r="D840" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>148</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C841" s="9">
+        <v>190703.95256000001</v>
+      </c>
+      <c r="D841" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A842" s="3">
+        <v>149</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C842" s="10">
+        <v>8108.2005300000001</v>
+      </c>
+      <c r="D842" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>150</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C843" s="9">
+        <v>230723.57978999999</v>
+      </c>
+      <c r="D843" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A844" s="3">
+        <v>151</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C844" s="10">
+        <v>34469.422584</v>
+      </c>
+      <c r="D844" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>152</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C845" s="9">
+        <v>68706.600089</v>
+      </c>
+      <c r="D845" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A846" s="3">
+        <v>153</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C846" s="10">
+        <v>49246.659875999998</v>
+      </c>
+      <c r="D846" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>154</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C847" s="9">
+        <v>122805.56061099999</v>
+      </c>
+      <c r="D847" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A848" s="3">
+        <v>155</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C848" s="10">
+        <v>188672.469136</v>
+      </c>
+      <c r="D848" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>156</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C849" s="9">
+        <v>1746.966617</v>
+      </c>
+      <c r="D849" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A850" s="3">
+        <v>157</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C850" s="10">
+        <v>66353.810832000003</v>
+      </c>
+      <c r="D850" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>158</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C851" s="9">
+        <v>26869.790148</v>
+      </c>
+      <c r="D851" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A852" s="3">
+        <v>159</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C852" s="10">
+        <v>57814.888082999998</v>
+      </c>
+      <c r="D852" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>160</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C853" s="9">
+        <v>27852.761299999998</v>
+      </c>
+      <c r="D853" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A854" s="3">
+        <v>161</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C854" s="10">
+        <v>615963.15439000004</v>
+      </c>
+      <c r="D854" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="A855" s="24"/>
+      <c r="B855" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C855" s="11">
+        <v>12525208.425026</v>
+      </c>
+      <c r="D855" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A856" s="8"/>
+      <c r="B856" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C856" s="12">
+        <v>1441455369.6196444</v>
+      </c>
+      <c r="D856" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/github/raw-d-man-mutual-funds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BD17C-FD44-EF4F-8DA5-9BFDD1653CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D9D41-42BF-5946-BF8C-CB70BBEF8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="217">
   <si>
     <t>مشترک کارگزاری کارآفرین</t>
   </si>
@@ -671,6 +671,9 @@
     <t>1397-04</t>
   </si>
   <si>
+    <t>1397-05</t>
+  </si>
+  <si>
     <t>1307-01-31</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -922,20 +925,17 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06670460-8E5C-4344-986B-9D7823F7222F}">
   <dimension ref="A1:D856"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="D856" sqref="D856"/>
+    <sheetView rightToLeft="1" topLeftCell="A844" workbookViewId="0">
+      <selection activeCell="A856" sqref="A856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1291,7 @@
         <v>8829000.0029639993</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>20161311.568891</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>101845.50125</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>241784.052845</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>82869511.618502006</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>3499836.584365</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
         <v>1003566.606712</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
         <v>184817910.29683301</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>8978300.6610330008</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
         <v>17746041.514245</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>362037.31535599998</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1445,7 +1445,7 @@
         <v>302087462.73075199</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>51870953.646650001</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>132723.10986900001</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1487,7 +1487,7 @@
         <v>1616652.095587</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>56742154.815917999</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>286476.19038799999</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>29307660.629623</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>8314908</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>6741362.4173750002</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>11899879</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>37531218</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1599,7 +1599,7 @@
         <v>156132663.99921599</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1613,7 +1613,7 @@
         <v>145648923.36728001</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>23222878.139874998</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>5592404.111974</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>6813924</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>15261608.131961999</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>6122</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>3598515.4275019998</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1711,7 +1711,7 @@
         <v>7551.2376610000001</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>3009462.0299530001</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>49244.682849999997</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1753,7 +1753,7 @@
         <v>829765.23264099995</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1767,7 +1767,7 @@
         <v>38898550</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>8534638.0929140002</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1795,7 +1795,7 @@
         <v>7079164.2640530001</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>24155746.945317</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>51396.144100999998</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>491999.54013500002</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1851,7 +1851,7 @@
         <v>19947.991644000002</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1865,7 +1865,7 @@
         <v>1020602</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>90804225</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>24441944.672665</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>28237958.221473001</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1921,7 +1921,7 @@
         <v>236976.60115500001</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1935,7 +1935,7 @@
         <v>1902401.0537380001</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
         <v>8193181.3665699996</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>583707</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1977,7 +1977,7 @@
         <v>1957141.050729</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>464773.547876</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>7174039.8015989996</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>338754.70363</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2033,7 +2033,7 @@
         <v>93723.894719999997</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>27991.625733000001</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>4785152.2652690001</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2075,7 +2075,7 @@
         <v>1163488.446669</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>83540.774587000007</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2103,7 +2103,7 @@
         <v>1287435.779871</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>3500994.85</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>288900.08258400002</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>3172096.032102</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
         <v>276662.19189000002</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2173,7 +2173,7 @@
         <v>3993408.2615499999</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>2677603.3967650002</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>518552.69893000001</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>3018982.1460879999</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>331122.86897499999</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
         <v>175203.30523900001</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2257,7 +2257,7 @@
         <v>265058.12</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>1465562723.4586422</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
         <v>102944.751088</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
         <v>135578.055636</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>6690052.639831</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2325,7 +2325,7 @@
         <v>92606.651996999994</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2339,7 +2339,7 @@
         <v>17491.50592</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
         <v>7608.9510019999998</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2367,7 +2367,7 @@
         <v>7634.1334079999997</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>90342.294049999997</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>123312.465885</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
         <v>98004.6158</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
         <v>156096.09205000001</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>249173.39558899999</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>106166.39488000001</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2465,7 +2465,7 @@
         <v>102172.136402</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>177713.49170300001</v>
       </c>
       <c r="D87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>108639.259993</v>
       </c>
       <c r="D88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2507,7 +2507,7 @@
         <v>109644.174824</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2521,7 +2521,7 @@
         <v>209453.18275000001</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
         <v>81675.792593999999</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
         <v>253900.58757100001</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>8920210.5729729999</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>96299.981878999999</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>96421.247455999997</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2603,7 +2603,7 @@
         <v>103800.251538</v>
       </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>177167.32500000001</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2631,7 +2631,7 @@
         <v>116438.860665</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>28512.822639999999</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>78160.272920999996</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
         <v>1025502.590097</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2687,7 +2687,7 @@
         <v>25315.187948999999</v>
       </c>
       <c r="D102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>106510.76008199999</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>238257.08978400001</v>
       </c>
       <c r="D104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <v>102701.47517999999</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2743,7 +2743,7 @@
         <v>105070.962411</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
         <v>129880.996138</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>162361.707444</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2785,7 +2785,7 @@
         <v>95802.38609</v>
       </c>
       <c r="D109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>16542.371304</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>14642.625457</v>
       </c>
       <c r="D111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2827,7 +2827,7 @@
         <v>125810.02855800001</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>211168.91814600001</v>
       </c>
       <c r="D113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2855,7 +2855,7 @@
         <v>82698.462847000003</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2869,7 +2869,7 @@
         <v>45264.523334999998</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
         <v>5016.2910650000003</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>88873.601389999996</v>
       </c>
       <c r="D117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>97342.369657000003</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
         <v>7441</v>
       </c>
       <c r="D119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2939,7 +2939,7 @@
         <v>102300.071188</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>144594.47921699999</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2967,7 +2967,7 @@
         <v>327367.49821400002</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>8231</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2995,7 +2995,7 @@
         <v>238277.29171699999</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3009,7 +3009,7 @@
         <v>61887.976993999997</v>
       </c>
       <c r="D125" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3023,7 +3023,7 @@
         <v>75003.829524999994</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>194175.320787</v>
       </c>
       <c r="D127" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>129567.77074199999</v>
       </c>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3065,7 +3065,7 @@
         <v>92379.419450999994</v>
       </c>
       <c r="D129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3079,7 +3079,7 @@
         <v>94468.679793999996</v>
       </c>
       <c r="D130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
         <v>41625.004345000001</v>
       </c>
       <c r="D131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3107,7 +3107,7 @@
         <v>205085.07041499999</v>
       </c>
       <c r="D132" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3121,7 +3121,7 @@
         <v>20047</v>
       </c>
       <c r="D133" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>112000.09703400001</v>
       </c>
       <c r="D134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
         <v>40928.238813000004</v>
       </c>
       <c r="D135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>15103.959717</v>
       </c>
       <c r="D136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>62619.121122999997</v>
       </c>
       <c r="D137" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3191,7 +3191,7 @@
         <v>3241.782076</v>
       </c>
       <c r="D138" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3205,7 +3205,7 @@
         <v>99283.650884000002</v>
       </c>
       <c r="D139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>61969.115646999999</v>
       </c>
       <c r="D140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>81467.435744000002</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3247,7 +3247,7 @@
         <v>150915.74014000001</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>130913.588248</v>
       </c>
       <c r="D143" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>108193.86004</v>
       </c>
       <c r="D144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3289,7 +3289,7 @@
         <v>57958.776752999998</v>
       </c>
       <c r="D145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3303,7 +3303,7 @@
         <v>112194.975986</v>
       </c>
       <c r="D146" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3317,7 +3317,7 @@
         <v>147899.37678799999</v>
       </c>
       <c r="D147" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>12032.677051999999</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
         <v>101608.001411</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
         <v>5047.6789760000001</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
         <v>53867.739860000001</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3387,7 +3387,7 @@
         <v>73094.079903000005</v>
       </c>
       <c r="D152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>115676.95916</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
         <v>130497.168449</v>
       </c>
       <c r="D154" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>65393.226866999998</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3443,7 +3443,7 @@
         <v>14142.925144000001</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3457,7 +3457,7 @@
         <v>136176.59866399999</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>12841.948079</v>
       </c>
       <c r="D158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3485,7 +3485,7 @@
         <v>146710.60371600001</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3499,7 +3499,7 @@
         <v>5640.7600620000003</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3513,7 +3513,7 @@
         <v>166504.61316499999</v>
       </c>
       <c r="D161" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3527,7 +3527,7 @@
         <v>94742.962174</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3541,7 +3541,7 @@
         <v>50216.277949000003</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>14513.591279</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>23432.133855</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>81762.570022999993</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
         <v>54510.476873</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3611,7 +3611,7 @@
         <v>125808.994616</v>
       </c>
       <c r="D168" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3625,7 +3625,7 @@
         <v>21278.698220999999</v>
       </c>
       <c r="D169" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>44490.982788000001</v>
       </c>
       <c r="D170" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3653,7 +3653,7 @@
         <v>34889.346268000001</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>44022.483219000002</v>
       </c>
       <c r="D172" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>21191.876649999998</v>
       </c>
       <c r="D173" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>161535.20616</v>
       </c>
       <c r="D174" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3707,7 +3707,7 @@
         <v>8114334.8209980009</v>
       </c>
       <c r="D175" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>1482597268.8526132</v>
       </c>
       <c r="D176" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3733,7 +3733,7 @@
         <v>8829000.0029639993</v>
       </c>
       <c r="D177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
         <v>20161311.568891</v>
       </c>
       <c r="D178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>103568.25235</v>
       </c>
       <c r="D179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>241784.052845</v>
       </c>
       <c r="D180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>82869511.618502006</v>
       </c>
       <c r="D181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3803,7 +3803,7 @@
         <v>3253894.3304519998</v>
       </c>
       <c r="D182" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>1003566.606712</v>
       </c>
       <c r="D183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>184817910.29683301</v>
       </c>
       <c r="D184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3845,7 +3845,7 @@
         <v>8978300.6610330008</v>
       </c>
       <c r="D185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3859,7 +3859,7 @@
         <v>17746041.514245</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>866779.69153499999</v>
       </c>
       <c r="D187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>302087462.73075199</v>
       </c>
       <c r="D188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>51870953.646650001</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>132723.10986900001</v>
       </c>
       <c r="D190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>1616652.095587</v>
       </c>
       <c r="D191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>56742154.815917999</v>
       </c>
       <c r="D192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3957,7 +3957,7 @@
         <v>286476.19038799999</v>
       </c>
       <c r="D193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
         <v>29307660.629623</v>
       </c>
       <c r="D194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>8361180</v>
       </c>
       <c r="D195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>6741362.4173750002</v>
       </c>
       <c r="D196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
         <v>12414208</v>
       </c>
       <c r="D197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
         <v>38067603</v>
       </c>
       <c r="D198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>156132663.99921599</v>
       </c>
       <c r="D199" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>145648923.36728001</v>
       </c>
       <c r="D200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4069,7 +4069,7 @@
         <v>23222878.139874998</v>
       </c>
       <c r="D201" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4083,7 +4083,7 @@
         <v>5592404.111974</v>
       </c>
       <c r="D202" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>6150467</v>
       </c>
       <c r="D203" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>15261608.131961999</v>
       </c>
       <c r="D204" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4125,7 +4125,7 @@
         <v>6122</v>
       </c>
       <c r="D205" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
         <v>3598515.4275019998</v>
       </c>
       <c r="D206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>7551.2376610000001</v>
       </c>
       <c r="D207" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>2927450.1039240002</v>
       </c>
       <c r="D208" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4181,7 +4181,7 @@
         <v>49244.682849999997</v>
       </c>
       <c r="D209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>829765.23264099995</v>
       </c>
       <c r="D210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>37796716</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>8534638.0929140002</v>
       </c>
       <c r="D212" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4237,7 +4237,7 @@
         <v>7079164.2640530001</v>
       </c>
       <c r="D213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4251,7 +4251,7 @@
         <v>24213333.020624999</v>
       </c>
       <c r="D214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4265,7 +4265,7 @@
         <v>51396.144100999998</v>
       </c>
       <c r="D215" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>491999.54013500002</v>
       </c>
       <c r="D216" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4293,7 +4293,7 @@
         <v>19803.719880000001</v>
       </c>
       <c r="D217" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>1015760.9</v>
       </c>
       <c r="D218" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4321,7 +4321,7 @@
         <v>90740479</v>
       </c>
       <c r="D219" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>24441944.672665</v>
       </c>
       <c r="D220" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4349,7 +4349,7 @@
         <v>31328423.81772</v>
       </c>
       <c r="D221" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
         <v>236976.60115500001</v>
       </c>
       <c r="D222" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>54078.386100999996</v>
       </c>
       <c r="D223" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>1902401.0537380001</v>
       </c>
       <c r="D224" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4405,7 +4405,7 @@
         <v>8495364.6706460007</v>
       </c>
       <c r="D225" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>491329</v>
       </c>
       <c r="D226" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>1957141.050729</v>
       </c>
       <c r="D227" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>464872.550552</v>
       </c>
       <c r="D228" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4461,7 +4461,7 @@
         <v>7174039.8015989996</v>
       </c>
       <c r="D229" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
         <v>338754.70363</v>
       </c>
       <c r="D230" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4489,7 +4489,7 @@
         <v>93723.894719999997</v>
       </c>
       <c r="D231" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>27991.625733000001</v>
       </c>
       <c r="D232" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>4785152.2652690001</v>
       </c>
       <c r="D233" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>1163488.446669</v>
       </c>
       <c r="D234" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>83540.774587000007</v>
       </c>
       <c r="D235" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>1287435.779871</v>
       </c>
       <c r="D236" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4573,7 +4573,7 @@
         <v>3510994.85</v>
       </c>
       <c r="D237" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4587,7 +4587,7 @@
         <v>288900.08258400002</v>
       </c>
       <c r="D238" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>3172096.032102</v>
       </c>
       <c r="D239" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>181794.66209</v>
       </c>
       <c r="D240" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4629,7 +4629,7 @@
         <v>3993408.2615499999</v>
       </c>
       <c r="D241" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4643,7 +4643,7 @@
         <v>2677726.1897559999</v>
       </c>
       <c r="D242" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>518552.69893000001</v>
       </c>
       <c r="D243" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>3018982.1460879999</v>
       </c>
       <c r="D244" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4685,7 +4685,7 @@
         <v>331122.86897499999</v>
       </c>
       <c r="D245" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4699,7 +4699,7 @@
         <v>175203.30523900001</v>
       </c>
       <c r="D246" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
         <v>487664.27</v>
       </c>
       <c r="D247" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>1468554093.8118145</v>
       </c>
       <c r="D248" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4739,7 +4739,7 @@
         <v>102944.751088</v>
       </c>
       <c r="D249" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>135578.055636</v>
       </c>
       <c r="D250" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>6690052.639831</v>
       </c>
       <c r="D251" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4781,7 +4781,7 @@
         <v>92606.651996999994</v>
       </c>
       <c r="D252" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4795,7 +4795,7 @@
         <v>17491.50592</v>
       </c>
       <c r="D253" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>7608.9510019999998</v>
       </c>
       <c r="D254" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>5849.7023680000002</v>
       </c>
       <c r="D255" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4837,7 +4837,7 @@
         <v>92607.828124000007</v>
       </c>
       <c r="D256" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
         <v>119979.36841</v>
       </c>
       <c r="D257" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>93922.167119999998</v>
       </c>
       <c r="D258" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>156096.09205000001</v>
       </c>
       <c r="D259" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4893,7 +4893,7 @@
         <v>249173.39558899999</v>
       </c>
       <c r="D260" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4907,7 +4907,7 @@
         <v>109579.22684800001</v>
       </c>
       <c r="D261" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>102172.136402</v>
       </c>
       <c r="D262" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>177713.49170300001</v>
       </c>
       <c r="D263" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4949,7 +4949,7 @@
         <v>108639.259993</v>
       </c>
       <c r="D264" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4963,7 +4963,7 @@
         <v>109580.57055</v>
       </c>
       <c r="D265" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>209453.18275000001</v>
       </c>
       <c r="D266" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>81675.792593999999</v>
       </c>
       <c r="D267" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5005,7 +5005,7 @@
         <v>253900.58757100001</v>
       </c>
       <c r="D268" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5017,7 +5017,7 @@
         <v>8916625.3575459998</v>
       </c>
       <c r="D269" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>96299.981878999999</v>
       </c>
       <c r="D270" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5045,7 +5045,7 @@
         <v>96421.247455999997</v>
       </c>
       <c r="D271" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5059,7 +5059,7 @@
         <v>103800.251538</v>
       </c>
       <c r="D272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>173308.64830299999</v>
       </c>
       <c r="D273" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>116438.860665</v>
       </c>
       <c r="D274" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5101,7 +5101,7 @@
         <v>27650.11952</v>
       </c>
       <c r="D275" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
         <v>78160.272920999996</v>
       </c>
       <c r="D276" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>1025502.590097</v>
       </c>
       <c r="D277" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>25315.187948999999</v>
       </c>
       <c r="D278" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5157,7 +5157,7 @@
         <v>106510.76008199999</v>
       </c>
       <c r="D279" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5171,7 +5171,7 @@
         <v>228684.784132</v>
       </c>
       <c r="D280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5185,7 +5185,7 @@
         <v>103040.009844</v>
       </c>
       <c r="D281" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>105070.962411</v>
       </c>
       <c r="D282" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5213,7 +5213,7 @@
         <v>136377.6525</v>
       </c>
       <c r="D283" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5227,7 +5227,7 @@
         <v>162476.22634600001</v>
       </c>
       <c r="D284" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
         <v>95802.38609</v>
       </c>
       <c r="D285" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>16542.371304</v>
       </c>
       <c r="D286" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>14642.625457</v>
       </c>
       <c r="D287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
         <v>126523.739331</v>
       </c>
       <c r="D288" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>183634.50761999999</v>
       </c>
       <c r="D289" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>100427.622241</v>
       </c>
       <c r="D290" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5325,7 +5325,7 @@
         <v>5016.2910650000003</v>
       </c>
       <c r="D291" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5339,7 +5339,7 @@
         <v>45264.523334999998</v>
       </c>
       <c r="D292" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>88873.601389999996</v>
       </c>
       <c r="D293" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>97342.369657000003</v>
       </c>
       <c r="D294" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5381,7 +5381,7 @@
         <v>102300.071188</v>
       </c>
       <c r="D295" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5395,7 +5395,7 @@
         <v>144594.47921699999</v>
       </c>
       <c r="D296" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>324830.94433799997</v>
       </c>
       <c r="D297" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>238277.29171699999</v>
       </c>
       <c r="D298" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5437,7 +5437,7 @@
         <v>61887.976993999997</v>
       </c>
       <c r="D299" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
         <v>75003.829524999994</v>
       </c>
       <c r="D300" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>194175.320787</v>
       </c>
       <c r="D301" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>129567.77074199999</v>
       </c>
       <c r="D302" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
         <v>91366.094435000006</v>
       </c>
       <c r="D303" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
         <v>86413.550247000006</v>
       </c>
       <c r="D304" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>41625.004345000001</v>
       </c>
       <c r="D305" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>205085.07041499999</v>
       </c>
       <c r="D306" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5549,7 +5549,7 @@
         <v>20047</v>
       </c>
       <c r="D307" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5563,7 +5563,7 @@
         <v>109395.4375</v>
       </c>
       <c r="D308" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
         <v>39803.236451999997</v>
       </c>
       <c r="D309" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>15103.959717</v>
       </c>
       <c r="D310" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5605,7 +5605,7 @@
         <v>63280.391669999997</v>
       </c>
       <c r="D311" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5619,7 +5619,7 @@
         <v>3241.782076</v>
       </c>
       <c r="D312" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>99283.650884000002</v>
       </c>
       <c r="D313" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>61969.115646999999</v>
       </c>
       <c r="D314" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5661,7 +5661,7 @@
         <v>81467.435744000002</v>
       </c>
       <c r="D315" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5675,7 +5675,7 @@
         <v>150915.74014000001</v>
       </c>
       <c r="D316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
         <v>126538.63432</v>
       </c>
       <c r="D317" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>75165.454979999995</v>
       </c>
       <c r="D318" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5717,7 +5717,7 @@
         <v>57958.776752999998</v>
       </c>
       <c r="D319" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5731,7 +5731,7 @@
         <v>112194.975986</v>
       </c>
       <c r="D320" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>147899.37678799999</v>
       </c>
       <c r="D321" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>101608.001411</v>
       </c>
       <c r="D322" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>5047.6789760000001</v>
       </c>
       <c r="D323" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
         <v>53867.739860000001</v>
       </c>
       <c r="D324" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>73094.079903000005</v>
       </c>
       <c r="D325" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>115676.95916</v>
       </c>
       <c r="D326" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5829,7 +5829,7 @@
         <v>130497.168449</v>
       </c>
       <c r="D327" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5843,7 +5843,7 @@
         <v>65393.226866999998</v>
       </c>
       <c r="D328" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>14142.925144000001</v>
       </c>
       <c r="D329" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>136176.59866399999</v>
       </c>
       <c r="D330" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
         <v>9845.4206940000004</v>
       </c>
       <c r="D331" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5899,7 +5899,7 @@
         <v>139622.55292399999</v>
       </c>
       <c r="D332" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>5612.3089650000002</v>
       </c>
       <c r="D333" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>164439.279565</v>
       </c>
       <c r="D334" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
         <v>40858.040504999997</v>
       </c>
       <c r="D335" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5955,7 +5955,7 @@
         <v>50216.277949000003</v>
       </c>
       <c r="D336" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>14879.854149000001</v>
       </c>
       <c r="D337" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>23189.104834999998</v>
       </c>
       <c r="D338" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -5997,7 +5997,7 @@
         <v>81762.570022999993</v>
       </c>
       <c r="D339" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6011,7 +6011,7 @@
         <v>125808.994616</v>
       </c>
       <c r="D340" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
         <v>21278.698220999999</v>
       </c>
       <c r="D341" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>48228.591809999998</v>
       </c>
       <c r="D342" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6053,7 +6053,7 @@
         <v>34889.346268000001</v>
       </c>
       <c r="D343" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6067,7 +6067,7 @@
         <v>44022.483219000002</v>
       </c>
       <c r="D344" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
         <v>21501.977699999999</v>
       </c>
       <c r="D345" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>161535.20616</v>
       </c>
       <c r="D346" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6107,7 +6107,7 @@
         <v>7901715.0517769987</v>
       </c>
       <c r="D347" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>1485372434.2211375</v>
       </c>
       <c r="D348" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6133,7 +6133,7 @@
         <v>8617211.944782</v>
       </c>
       <c r="D349" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6147,7 +6147,7 @@
         <v>18966063.069848001</v>
       </c>
       <c r="D350" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6161,7 +6161,7 @@
         <v>104981.670396</v>
       </c>
       <c r="D351" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>235303.17816000001</v>
       </c>
       <c r="D352" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6189,7 +6189,7 @@
         <v>79999806.748938993</v>
       </c>
       <c r="D353" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6203,7 +6203,7 @@
         <v>2809494.89047</v>
       </c>
       <c r="D354" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>1166819.4104210001</v>
       </c>
       <c r="D355" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>189913040.886722</v>
       </c>
       <c r="D356" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6245,7 +6245,7 @@
         <v>8556549.7571109999</v>
       </c>
       <c r="D357" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
         <v>10956906.437830999</v>
       </c>
       <c r="D358" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
         <v>841571</v>
       </c>
       <c r="D359" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>303442056.73513299</v>
       </c>
       <c r="D360" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6301,7 +6301,7 @@
         <v>49822173.524765998</v>
       </c>
       <c r="D361" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6315,7 +6315,7 @@
         <v>155519.838552</v>
       </c>
       <c r="D362" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>1179916.8435819999</v>
       </c>
       <c r="D363" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>48079002.154514</v>
       </c>
       <c r="D364" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
         <v>279224.89033700002</v>
       </c>
       <c r="D365" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6371,7 +6371,7 @@
         <v>31845945.583760001</v>
       </c>
       <c r="D366" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>8536465</v>
       </c>
       <c r="D367" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>7339923.7008069996</v>
       </c>
       <c r="D368" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6413,7 +6413,7 @@
         <v>12994434</v>
       </c>
       <c r="D369" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6427,7 +6427,7 @@
         <v>38149887</v>
       </c>
       <c r="D370" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>152634940.78036299</v>
       </c>
       <c r="D371" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>143502772.46555999</v>
       </c>
       <c r="D372" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6469,7 +6469,7 @@
         <v>28624335.341311</v>
       </c>
       <c r="D373" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6483,7 +6483,7 @@
         <v>5619082.1306539997</v>
       </c>
       <c r="D374" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6497,7 +6497,7 @@
         <v>6635204.6995620001</v>
       </c>
       <c r="D375" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>25300822.181214001</v>
       </c>
       <c r="D376" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6525,7 +6525,7 @@
         <v>6122</v>
       </c>
       <c r="D377" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6539,7 +6539,7 @@
         <v>3485748.7221679999</v>
       </c>
       <c r="D378" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6553,7 +6553,7 @@
         <v>7551.2376610000001</v>
       </c>
       <c r="D379" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>2473620.984135</v>
       </c>
       <c r="D380" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6581,7 +6581,7 @@
         <v>51204.528061999998</v>
       </c>
       <c r="D381" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>323583.02237800002</v>
       </c>
       <c r="D382" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
         <v>35768229</v>
       </c>
       <c r="D383" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>8832177.1027770005</v>
       </c>
       <c r="D384" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6637,7 +6637,7 @@
         <v>7544444.8400919996</v>
       </c>
       <c r="D385" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6651,7 +6651,7 @@
         <v>23804393.720015999</v>
       </c>
       <c r="D386" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6665,7 +6665,7 @@
         <v>56041.923585999997</v>
       </c>
       <c r="D387" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>513676.274783</v>
       </c>
       <c r="D388" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6693,7 +6693,7 @@
         <v>20019.438830999999</v>
       </c>
       <c r="D389" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6707,7 +6707,7 @@
         <v>1016668.8</v>
       </c>
       <c r="D390" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6721,7 +6721,7 @@
         <v>85015874</v>
       </c>
       <c r="D391" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>25227338.465479001</v>
       </c>
       <c r="D392" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6749,7 +6749,7 @@
         <v>35007650.532603003</v>
       </c>
       <c r="D393" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6763,7 +6763,7 @@
         <v>248122.13813000001</v>
       </c>
       <c r="D394" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>55435.873010000003</v>
       </c>
       <c r="D395" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>1664050.687654</v>
       </c>
       <c r="D396" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6805,7 +6805,7 @@
         <v>8988125.4394070003</v>
       </c>
       <c r="D397" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6819,7 +6819,7 @@
         <v>456931</v>
       </c>
       <c r="D398" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>1632799.394299</v>
       </c>
       <c r="D399" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>269231.544765</v>
       </c>
       <c r="D400" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6861,7 +6861,7 @@
         <v>6849496.3532130001</v>
       </c>
       <c r="D401" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6875,7 +6875,7 @@
         <v>316964.55910399999</v>
       </c>
       <c r="D402" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>96252.801026999994</v>
       </c>
       <c r="D403" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>25392.915067999998</v>
       </c>
       <c r="D404" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6917,7 +6917,7 @@
         <v>4760049.1524900002</v>
       </c>
       <c r="D405" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6931,7 +6931,7 @@
         <v>572666.77277100005</v>
       </c>
       <c r="D406" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6945,7 +6945,7 @@
         <v>83758.856620999999</v>
       </c>
       <c r="D407" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>1044210.862473</v>
       </c>
       <c r="D408" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6973,7 +6973,7 @@
         <v>3561994.85</v>
       </c>
       <c r="D409" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -6987,7 +6987,7 @@
         <v>256489.717359</v>
       </c>
       <c r="D410" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7001,7 +7001,7 @@
         <v>2715434.5015739999</v>
       </c>
       <c r="D411" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>186394.025891</v>
       </c>
       <c r="D412" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7029,7 +7029,7 @@
         <v>3776370.781833</v>
       </c>
       <c r="D413" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7043,7 +7043,7 @@
         <v>2756857.4398050001</v>
       </c>
       <c r="D414" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
         <v>523687.93239700003</v>
       </c>
       <c r="D415" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>2661983.773918</v>
       </c>
       <c r="D416" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7085,7 +7085,7 @@
         <v>237292.90524699999</v>
       </c>
       <c r="D417" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7099,7 +7099,7 @@
         <v>183037.918385</v>
       </c>
       <c r="D418" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7113,7 +7113,7 @@
         <v>642495.32999999996</v>
       </c>
       <c r="D419" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -7125,7 +7125,7 @@
         <v>1460029327.9838064</v>
       </c>
       <c r="D420" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7139,7 +7139,7 @@
         <v>111807.137195</v>
       </c>
       <c r="D421" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7153,7 +7153,7 @@
         <v>264523.71308000002</v>
       </c>
       <c r="D422" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>148264.37401199999</v>
       </c>
       <c r="D423" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7181,7 +7181,7 @@
         <v>6690052.639831</v>
       </c>
       <c r="D424" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7195,7 +7195,7 @@
         <v>110415.847546</v>
       </c>
       <c r="D425" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,7 @@
         <v>17491.50592</v>
       </c>
       <c r="D426" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>7608.9510019999998</v>
       </c>
       <c r="D427" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7237,7 +7237,7 @@
         <v>5874.1693679999998</v>
       </c>
       <c r="D428" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7251,7 +7251,7 @@
         <v>97522.034488000005</v>
       </c>
       <c r="D429" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>128428.47809999999</v>
       </c>
       <c r="D430" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>105254.90601999999</v>
       </c>
       <c r="D431" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7293,7 +7293,7 @@
         <v>175130.483343</v>
       </c>
       <c r="D432" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>270258.09001799999</v>
       </c>
       <c r="D433" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7321,7 +7321,7 @@
         <v>115807.002584</v>
       </c>
       <c r="D434" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>106137.174268</v>
       </c>
       <c r="D435" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7349,7 +7349,7 @@
         <v>203381.28653300001</v>
       </c>
       <c r="D436" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7363,7 +7363,7 @@
         <v>109089.118531</v>
       </c>
       <c r="D437" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>117192.37951699999</v>
       </c>
       <c r="D438" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>150950.230507</v>
       </c>
       <c r="D439" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7405,7 +7405,7 @@
         <v>198510.87360399999</v>
       </c>
       <c r="D440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
         <v>272158.60485800001</v>
       </c>
       <c r="D441" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>9405859.0003249999</v>
       </c>
       <c r="D442" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7445,7 +7445,7 @@
         <v>106892.008021</v>
       </c>
       <c r="D443" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7459,7 +7459,7 @@
         <v>105438.10020099999</v>
       </c>
       <c r="D444" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7473,7 +7473,7 @@
         <v>162776.49224399999</v>
       </c>
       <c r="D445" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>216685.73721600001</v>
       </c>
       <c r="D446" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7501,7 +7501,7 @@
         <v>149579.814636</v>
       </c>
       <c r="D447" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7515,7 +7515,7 @@
         <v>30537.96903</v>
       </c>
       <c r="D448" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>97987.086765</v>
       </c>
       <c r="D449" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>1227714.402185</v>
       </c>
       <c r="D450" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7557,7 +7557,7 @@
         <v>25315.187948999999</v>
       </c>
       <c r="D451" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>130376.555379</v>
       </c>
       <c r="D452" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7585,7 +7585,7 @@
         <v>103643.714655</v>
       </c>
       <c r="D453" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>118803.164815</v>
       </c>
       <c r="D454" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7613,7 +7613,7 @@
         <v>153002.63587500001</v>
       </c>
       <c r="D455" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7627,7 +7627,7 @@
         <v>192029.69669800001</v>
       </c>
       <c r="D456" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7641,7 +7641,7 @@
         <v>113816.69389</v>
       </c>
       <c r="D457" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>16542.371304</v>
       </c>
       <c r="D458" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7669,7 +7669,7 @@
         <v>17526.592930999999</v>
       </c>
       <c r="D459" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7683,7 +7683,7 @@
         <v>147963.2138</v>
       </c>
       <c r="D460" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7697,7 +7697,7 @@
         <v>189305.136</v>
       </c>
       <c r="D461" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7711,7 +7711,7 @@
         <v>97434.054472999997</v>
       </c>
       <c r="D462" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>5016.2910650000003</v>
       </c>
       <c r="D463" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7739,7 +7739,7 @@
         <v>61497.945876999998</v>
       </c>
       <c r="D464" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7753,7 +7753,7 @@
         <v>94974.615699999995</v>
       </c>
       <c r="D465" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7767,7 +7767,7 @@
         <v>112042.47461400001</v>
       </c>
       <c r="D466" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7781,7 +7781,7 @@
         <v>129157.705673</v>
       </c>
       <c r="D467" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7795,7 +7795,7 @@
         <v>176855.65599699999</v>
       </c>
       <c r="D468" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7809,7 +7809,7 @@
         <v>397040.33695700002</v>
       </c>
       <c r="D469" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7823,7 +7823,7 @@
         <v>272343.29299699998</v>
       </c>
       <c r="D470" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7837,7 +7837,7 @@
         <v>60274.597898</v>
       </c>
       <c r="D471" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7851,7 +7851,7 @@
         <v>82588.158798000004</v>
       </c>
       <c r="D472" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7865,7 +7865,7 @@
         <v>214214.72415600001</v>
       </c>
       <c r="D473" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7879,7 +7879,7 @@
         <v>159041.073951</v>
       </c>
       <c r="D474" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7893,7 +7893,7 @@
         <v>107429.116599</v>
       </c>
       <c r="D475" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7907,7 +7907,7 @@
         <v>102856.118094</v>
       </c>
       <c r="D476" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7921,7 +7921,7 @@
         <v>77852.778552000003</v>
       </c>
       <c r="D477" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7935,7 +7935,7 @@
         <v>392879.40618799999</v>
       </c>
       <c r="D478" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7949,7 +7949,7 @@
         <v>20047</v>
       </c>
       <c r="D479" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7963,7 +7963,7 @@
         <v>123448.312896</v>
       </c>
       <c r="D480" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
         <v>53933.732913</v>
       </c>
       <c r="D481" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -7991,7 +7991,7 @@
         <v>15827.217682</v>
       </c>
       <c r="D482" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8005,7 +8005,7 @@
         <v>37742.922064999999</v>
       </c>
       <c r="D483" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
         <v>3843.5940879999998</v>
       </c>
       <c r="D484" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8033,7 +8033,7 @@
         <v>99283.650884000002</v>
       </c>
       <c r="D485" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8047,7 +8047,7 @@
         <v>92176.293623000005</v>
       </c>
       <c r="D486" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
         <v>106873.52368</v>
       </c>
       <c r="D487" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8075,7 +8075,7 @@
         <v>167969.62773899999</v>
       </c>
       <c r="D488" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8089,7 +8089,7 @@
         <v>120855.575744</v>
       </c>
       <c r="D489" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>83375.858684000006</v>
       </c>
       <c r="D490" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8117,7 +8117,7 @@
         <v>107454.081937</v>
       </c>
       <c r="D491" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8131,7 +8131,7 @@
         <v>125422.99772299999</v>
       </c>
       <c r="D492" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
         <v>143778.16080000001</v>
       </c>
       <c r="D493" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8159,7 +8159,7 @@
         <v>110479.76681</v>
       </c>
       <c r="D494" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8173,7 +8173,7 @@
         <v>5048</v>
       </c>
       <c r="D495" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
         <v>53868</v>
       </c>
       <c r="D496" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8201,7 +8201,7 @@
         <v>106009.72773499999</v>
       </c>
       <c r="D497" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8215,7 +8215,7 @@
         <v>123321.012799</v>
       </c>
       <c r="D498" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8229,7 +8229,7 @@
         <v>185541.66597199999</v>
       </c>
       <c r="D499" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8243,7 +8243,7 @@
         <v>106548.32576000001</v>
       </c>
       <c r="D500" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8257,7 +8257,7 @@
         <v>14142.925144000001</v>
       </c>
       <c r="D501" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8271,7 +8271,7 @@
         <v>239207.30270999999</v>
       </c>
       <c r="D502" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8285,7 +8285,7 @@
         <v>9845.4206940000004</v>
       </c>
       <c r="D503" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8299,7 +8299,7 @@
         <v>155105.23209999999</v>
       </c>
       <c r="D504" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8313,7 +8313,7 @@
         <v>6291.9319679999999</v>
       </c>
       <c r="D505" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8327,7 +8327,7 @@
         <v>188642.40768999999</v>
       </c>
       <c r="D506" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8341,7 +8341,7 @@
         <v>43841.646135000003</v>
       </c>
       <c r="D507" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8355,7 +8355,7 @@
         <v>54959.541131999998</v>
       </c>
       <c r="D508" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8369,7 +8369,7 @@
         <v>14879.854149000001</v>
       </c>
       <c r="D509" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8383,7 +8383,7 @@
         <v>31842.657223999999</v>
       </c>
       <c r="D510" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8397,7 +8397,7 @@
         <v>95239.272158000007</v>
       </c>
       <c r="D511" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8411,7 +8411,7 @@
         <v>150965.60088499999</v>
       </c>
       <c r="D512" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8425,7 +8425,7 @@
         <v>17047.537097</v>
       </c>
       <c r="D513" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8439,7 +8439,7 @@
         <v>54980.827775999998</v>
       </c>
       <c r="D514" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8453,7 +8453,7 @@
         <v>16379.948842</v>
       </c>
       <c r="D515" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8467,7 +8467,7 @@
         <v>49666.680566000003</v>
       </c>
       <c r="D516" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
         <v>23216.8776</v>
       </c>
       <c r="D517" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8495,7 +8495,7 @@
         <v>262297.41256199998</v>
       </c>
       <c r="D518" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8507,7 +8507,7 @@
         <v>9270837.0471490007</v>
       </c>
       <c r="D519" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -8519,7 +8519,7 @@
         <v>1478706024.0312803</v>
       </c>
       <c r="D520" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
         <v>8863934.8767109998</v>
       </c>
       <c r="D692" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10933,7 +10933,7 @@
         <v>16972990.539074998</v>
       </c>
       <c r="D693" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10947,7 +10947,7 @@
         <v>101326.112392</v>
       </c>
       <c r="D694" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10961,7 +10961,7 @@
         <v>252340.87683299999</v>
       </c>
       <c r="D695" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10975,7 +10975,7 @@
         <v>76095581.771169007</v>
       </c>
       <c r="D696" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="697" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>2602330.2498019999</v>
       </c>
       <c r="D697" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="698" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11003,7 +11003,7 @@
         <v>1430427.816173</v>
       </c>
       <c r="D698" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="699" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11017,7 +11017,7 @@
         <v>193180186.73435301</v>
       </c>
       <c r="D699" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11031,7 +11031,7 @@
         <v>8771471.6407069992</v>
       </c>
       <c r="D700" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="701" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11045,7 +11045,7 @@
         <v>9027350.1640160009</v>
       </c>
       <c r="D701" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11059,7 +11059,7 @@
         <v>841082</v>
       </c>
       <c r="D702" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11073,7 +11073,7 @@
         <v>301542219.85758501</v>
       </c>
       <c r="D703" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11087,7 +11087,7 @@
         <v>51015218.465464003</v>
       </c>
       <c r="D704" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11101,7 +11101,7 @@
         <v>211459.66395099999</v>
       </c>
       <c r="D705" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="706" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11115,7 +11115,7 @@
         <v>1093636.7519449999</v>
       </c>
       <c r="D706" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="707" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11129,7 +11129,7 @@
         <v>48189873.045584001</v>
       </c>
       <c r="D707" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="708" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11143,7 +11143,7 @@
         <v>287701.92202699999</v>
       </c>
       <c r="D708" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11157,7 +11157,7 @@
         <v>33064638.363540001</v>
       </c>
       <c r="D709" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="710" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11171,7 +11171,7 @@
         <v>9041086</v>
       </c>
       <c r="D710" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="711" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
         <v>6821409.8976710001</v>
       </c>
       <c r="D711" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="712" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11199,7 +11199,7 @@
         <v>15551907</v>
       </c>
       <c r="D712" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="713" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11213,7 +11213,7 @@
         <v>35164277</v>
       </c>
       <c r="D713" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="714" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11227,7 +11227,7 @@
         <v>123395489.406994</v>
       </c>
       <c r="D714" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="715" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11241,7 +11241,7 @@
         <v>150909236.05044901</v>
       </c>
       <c r="D715" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="716" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11255,7 +11255,7 @@
         <v>31328219.59448</v>
       </c>
       <c r="D716" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="717" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11269,7 +11269,7 @@
         <v>5412617.3106509997</v>
       </c>
       <c r="D717" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="718" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11283,7 +11283,7 @@
         <v>9162418.5483669993</v>
       </c>
       <c r="D718" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="719" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11297,7 +11297,7 @@
         <v>21378437.266378</v>
       </c>
       <c r="D719" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="720" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11311,7 +11311,7 @@
         <v>6122</v>
       </c>
       <c r="D720" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="721" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11325,7 +11325,7 @@
         <v>3912099.0764950002</v>
       </c>
       <c r="D721" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="722" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11339,7 +11339,7 @@
         <v>7551.2376610000001</v>
       </c>
       <c r="D722" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="723" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11353,7 +11353,7 @@
         <v>2430772.8155999999</v>
       </c>
       <c r="D723" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="724" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11367,7 +11367,7 @@
         <v>49287.853338000001</v>
       </c>
       <c r="D724" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="725" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11381,7 +11381,7 @@
         <v>549125.74845299998</v>
       </c>
       <c r="D725" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="726" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11395,7 +11395,7 @@
         <v>31379706</v>
       </c>
       <c r="D726" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="727" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11409,7 +11409,7 @@
         <v>9085459.7548670005</v>
       </c>
       <c r="D727" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="728" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
         <v>7781643.2540960005</v>
       </c>
       <c r="D728" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="729" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11437,7 +11437,7 @@
         <v>26907238.139222998</v>
       </c>
       <c r="D729" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="730" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11451,7 +11451,7 @@
         <v>75772.166429999997</v>
       </c>
       <c r="D730" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="731" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11465,7 +11465,7 @@
         <v>515893.18034299999</v>
       </c>
       <c r="D731" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="732" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11479,7 +11479,7 @@
         <v>18481.537457999999</v>
       </c>
       <c r="D732" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="733" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11493,7 +11493,7 @@
         <v>1015862.4</v>
       </c>
       <c r="D733" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="734" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11507,7 +11507,7 @@
         <v>72774962.078153998</v>
       </c>
       <c r="D734" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="735" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11521,7 +11521,7 @@
         <v>25160686.832538001</v>
       </c>
       <c r="D735" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="736" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11535,7 +11535,7 @@
         <v>37482855.561411001</v>
       </c>
       <c r="D736" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="737" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
         <v>249912.53738600001</v>
       </c>
       <c r="D737" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="738" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11563,7 +11563,7 @@
         <v>55147.423417999998</v>
       </c>
       <c r="D738" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="739" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
         <v>1702323.3909</v>
       </c>
       <c r="D739" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="740" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11591,7 +11591,7 @@
         <v>8877566</v>
       </c>
       <c r="D740" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="741" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11605,7 +11605,7 @@
         <v>446761</v>
       </c>
       <c r="D741" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="742" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11619,7 +11619,7 @@
         <v>1255570.8567069999</v>
       </c>
       <c r="D742" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="743" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11633,7 +11633,7 @@
         <v>236212.083824</v>
       </c>
       <c r="D743" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="744" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11647,7 +11647,7 @@
         <v>3996333.563689</v>
       </c>
       <c r="D744" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="745" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11661,7 +11661,7 @@
         <v>351348.93455900002</v>
       </c>
       <c r="D745" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="746" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11675,7 +11675,7 @@
         <v>93390.5049</v>
       </c>
       <c r="D746" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="747" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11689,7 +11689,7 @@
         <v>21413.404202000002</v>
       </c>
       <c r="D747" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="748" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11703,7 +11703,7 @@
         <v>4698926.9629020002</v>
       </c>
       <c r="D748" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="749" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
         <v>468519.08065299998</v>
       </c>
       <c r="D749" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="750" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11731,7 +11731,7 @@
         <v>88943.051940999998</v>
       </c>
       <c r="D750" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="751" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11745,7 +11745,7 @@
         <v>863885.59997900005</v>
       </c>
       <c r="D751" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="752" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11759,7 +11759,7 @@
         <v>3561994.85</v>
       </c>
       <c r="D752" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="753" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11773,7 +11773,7 @@
         <v>163374.68069000001</v>
       </c>
       <c r="D753" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="754" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11787,7 +11787,7 @@
         <v>1773486.003277</v>
       </c>
       <c r="D754" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="755" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11801,7 +11801,7 @@
         <v>169425.147861</v>
       </c>
       <c r="D755" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="756" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11815,7 +11815,7 @@
         <v>4813808.4936819999</v>
       </c>
       <c r="D756" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="757" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11829,7 +11829,7 @@
         <v>2374687.2715500002</v>
       </c>
       <c r="D757" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="758" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11843,7 +11843,7 @@
         <v>424146.58591899998</v>
       </c>
       <c r="D758" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="759" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11857,7 +11857,7 @@
         <v>2368791.6831789999</v>
       </c>
       <c r="D759" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="760" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11871,7 +11871,7 @@
         <v>230061.24357200001</v>
       </c>
       <c r="D760" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="761" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11885,7 +11885,7 @@
         <v>224579.48024199999</v>
       </c>
       <c r="D761" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="762" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11899,7 +11899,7 @@
         <v>502560.33</v>
       </c>
       <c r="D762" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="763" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -11911,7 +11911,7 @@
         <v>1420875558.7274153</v>
       </c>
       <c r="D763" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="764" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11925,7 +11925,7 @@
         <v>129741.636849</v>
       </c>
       <c r="D764" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="765" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11939,7 +11939,7 @@
         <v>380183.92262700002</v>
       </c>
       <c r="D765" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="766" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11953,7 +11953,7 @@
         <v>112475.8355</v>
       </c>
       <c r="D766" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="767" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11967,7 +11967,7 @@
         <v>4678258.1744069997</v>
       </c>
       <c r="D767" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="768" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11981,7 +11981,7 @@
         <v>136444.43162700001</v>
       </c>
       <c r="D768" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="769" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -11995,7 +11995,7 @@
         <v>17491.50592</v>
       </c>
       <c r="D769" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="770" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12009,7 +12009,7 @@
         <v>7608.9510019999998</v>
       </c>
       <c r="D770" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="771" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12023,7 +12023,7 @@
         <v>107012.137812</v>
       </c>
       <c r="D771" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="772" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12037,7 +12037,7 @@
         <v>112404.572958</v>
       </c>
       <c r="D772" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="773" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12051,7 +12051,7 @@
         <v>119652.91712</v>
       </c>
       <c r="D773" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="774" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12065,7 +12065,7 @@
         <v>243824.53077700001</v>
       </c>
       <c r="D774" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="775" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12079,7 +12079,7 @@
         <v>287083.71934399998</v>
       </c>
       <c r="D775" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="776" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12093,7 +12093,7 @@
         <v>115006.130512</v>
       </c>
       <c r="D776" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="777" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12107,7 +12107,7 @@
         <v>98950.823338999995</v>
       </c>
       <c r="D777" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="778" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12121,7 +12121,7 @@
         <v>239973.836736</v>
       </c>
       <c r="D778" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="779" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12135,7 +12135,7 @@
         <v>101494.511847</v>
       </c>
       <c r="D779" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="780" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12149,7 +12149,7 @@
         <v>126222.879808</v>
       </c>
       <c r="D780" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="781" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12163,7 +12163,7 @@
         <v>132372.80045400001</v>
       </c>
       <c r="D781" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="782" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12177,7 +12177,7 @@
         <v>613974.54231299995</v>
       </c>
       <c r="D782" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="783" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12191,11 +12191,11 @@
         <v>294424.60625100002</v>
       </c>
       <c r="D783" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="784" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A784" s="23"/>
+      <c r="A784" s="20"/>
       <c r="B784" s="6" t="s">
         <v>94</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>8054602.4672030015</v>
       </c>
       <c r="D784" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="785" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12217,7 +12217,7 @@
         <v>131888.03883599999</v>
       </c>
       <c r="D785" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="786" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12231,7 +12231,7 @@
         <v>111733.43652</v>
       </c>
       <c r="D786" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="787" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12245,7 +12245,7 @@
         <v>305851.56170999998</v>
       </c>
       <c r="D787" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="788" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12259,7 +12259,7 @@
         <v>363237.71274300001</v>
       </c>
       <c r="D788" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="789" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
         <v>239106.86318799999</v>
       </c>
       <c r="D789" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="790" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12287,7 +12287,7 @@
         <v>33028.02074</v>
       </c>
       <c r="D790" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="791" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12301,7 +12301,7 @@
         <v>95562.218747000006</v>
       </c>
       <c r="D791" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="792" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12315,7 +12315,7 @@
         <v>1354647.7367509999</v>
       </c>
       <c r="D792" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="793" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12329,7 +12329,7 @@
         <v>25315.187948999999</v>
       </c>
       <c r="D793" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="794" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12343,7 +12343,7 @@
         <v>203657.10279199999</v>
       </c>
       <c r="D794" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="795" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12357,7 +12357,7 @@
         <v>91236.041947999998</v>
       </c>
       <c r="D795" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="796" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
         <v>130282.160208</v>
       </c>
       <c r="D796" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="797" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12385,7 +12385,7 @@
         <v>158241.80812500001</v>
       </c>
       <c r="D797" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="798" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12399,7 +12399,7 @@
         <v>258316.00362900001</v>
       </c>
       <c r="D798" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="799" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12413,7 +12413,7 @@
         <v>147820.39963299999</v>
       </c>
       <c r="D799" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="800" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12427,7 +12427,7 @@
         <v>15026.098894000001</v>
       </c>
       <c r="D800" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="801" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12441,7 +12441,7 @@
         <v>187276.10045100001</v>
       </c>
       <c r="D801" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="802" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12455,7 +12455,7 @@
         <v>343566.28218500002</v>
       </c>
       <c r="D802" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="803" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12469,7 +12469,7 @@
         <v>120564.249234</v>
       </c>
       <c r="D803" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="804" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12483,7 +12483,7 @@
         <v>168414.69278000001</v>
       </c>
       <c r="D804" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="805" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12497,7 +12497,7 @@
         <v>110314.619062</v>
       </c>
       <c r="D805" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="806" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12511,7 +12511,7 @@
         <v>133734.71275899999</v>
       </c>
       <c r="D806" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="807" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12525,7 +12525,7 @@
         <v>143238.586109</v>
       </c>
       <c r="D807" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="808" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12539,7 +12539,7 @@
         <v>224797.018098</v>
       </c>
       <c r="D808" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="809" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12553,7 +12553,7 @@
         <v>668693.33876800002</v>
       </c>
       <c r="D809" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="810" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12567,7 +12567,7 @@
         <v>305900.09366000001</v>
       </c>
       <c r="D810" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="811" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12581,7 +12581,7 @@
         <v>63651.654303000003</v>
       </c>
       <c r="D811" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="812" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12595,7 +12595,7 @@
         <v>82308.326979000005</v>
       </c>
       <c r="D812" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="813" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12609,7 +12609,7 @@
         <v>250600.44208499999</v>
       </c>
       <c r="D813" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="814" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12623,7 +12623,7 @@
         <v>222875.11747500001</v>
       </c>
       <c r="D814" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="815" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12637,7 +12637,7 @@
         <v>135761.907282</v>
       </c>
       <c r="D815" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="816" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12651,7 +12651,7 @@
         <v>79597.764022999996</v>
       </c>
       <c r="D816" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="817" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12665,7 +12665,7 @@
         <v>174546.669781</v>
       </c>
       <c r="D817" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="818" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12679,7 +12679,7 @@
         <v>638115.32175999996</v>
       </c>
       <c r="D818" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="819" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12693,7 +12693,7 @@
         <v>143080.39640999999</v>
       </c>
       <c r="D819" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="820" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12707,7 +12707,7 @@
         <v>60349.006627000002</v>
       </c>
       <c r="D820" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="821" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>18377.427584000001</v>
       </c>
       <c r="D821" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="822" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12735,7 +12735,7 @@
         <v>44321.930784999997</v>
       </c>
       <c r="D822" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="823" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12749,7 +12749,7 @@
         <v>11587.782297</v>
       </c>
       <c r="D823" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="824" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12763,7 +12763,7 @@
         <v>135107.206435</v>
       </c>
       <c r="D824" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12777,7 +12777,7 @@
         <v>309631.02050500002</v>
       </c>
       <c r="D825" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="826" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12791,7 +12791,7 @@
         <v>127051.845747</v>
       </c>
       <c r="D826" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="827" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12805,7 +12805,7 @@
         <v>162632.93178499999</v>
       </c>
       <c r="D827" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="828" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12819,7 +12819,7 @@
         <v>110028.106848</v>
       </c>
       <c r="D828" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="829" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12833,12 +12833,12 @@
         <v>232605.642544</v>
       </c>
       <c r="D829" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="830" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B830" s="4" t="s">
         <v>152</v>
@@ -12847,7 +12847,7 @@
         <v>123440.292865</v>
       </c>
       <c r="D830" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="831" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12861,7 +12861,7 @@
         <v>140534.674462</v>
       </c>
       <c r="D831" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12875,7 +12875,7 @@
         <v>130495.787428</v>
       </c>
       <c r="D832" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="833" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12889,7 +12889,7 @@
         <v>143827.02272400001</v>
       </c>
       <c r="D833" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="834" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12903,7 +12903,7 @@
         <v>58731.072301</v>
       </c>
       <c r="D834" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="835" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12917,7 +12917,7 @@
         <v>117520.216093</v>
       </c>
       <c r="D835" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="836" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12931,7 +12931,7 @@
         <v>143138.78906099999</v>
       </c>
       <c r="D836" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="837" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12945,7 +12945,7 @@
         <v>269898.51792200003</v>
       </c>
       <c r="D837" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="838" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12959,7 +12959,7 @@
         <v>110897.33996300001</v>
       </c>
       <c r="D838" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="839" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12973,7 +12973,7 @@
         <v>508088.68367400003</v>
       </c>
       <c r="D839" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="840" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -12987,7 +12987,7 @@
         <v>14917.625212999999</v>
       </c>
       <c r="D840" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="841" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13001,7 +13001,7 @@
         <v>190703.95256000001</v>
       </c>
       <c r="D841" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="842" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13015,7 +13015,7 @@
         <v>8108.2005300000001</v>
       </c>
       <c r="D842" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="843" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>230723.57978999999</v>
       </c>
       <c r="D843" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="844" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13043,7 +13043,7 @@
         <v>34469.422584</v>
       </c>
       <c r="D844" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="845" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13057,7 +13057,7 @@
         <v>68706.600089</v>
       </c>
       <c r="D845" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="846" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13071,7 +13071,7 @@
         <v>49246.659875999998</v>
       </c>
       <c r="D846" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="847" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13085,7 +13085,7 @@
         <v>122805.56061099999</v>
       </c>
       <c r="D847" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="848" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13099,7 +13099,7 @@
         <v>188672.469136</v>
       </c>
       <c r="D848" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="849" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13113,7 +13113,7 @@
         <v>1746.966617</v>
       </c>
       <c r="D849" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="850" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13127,7 +13127,7 @@
         <v>66353.810832000003</v>
       </c>
       <c r="D850" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="851" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13141,7 +13141,7 @@
         <v>26869.790148</v>
       </c>
       <c r="D851" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="852" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
         <v>57814.888082999998</v>
       </c>
       <c r="D852" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="853" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13169,7 +13169,7 @@
         <v>27852.761299999998</v>
       </c>
       <c r="D853" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="854" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13183,11 +13183,11 @@
         <v>615963.15439000004</v>
       </c>
       <c r="D854" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="855" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A855" s="24"/>
+      <c r="A855" s="21"/>
       <c r="B855" s="6" t="s">
         <v>183</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>12525208.425026</v>
       </c>
       <c r="D855" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="856" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -13207,7 +13207,7 @@
         <v>1441455369.6196444</v>
       </c>
       <c r="D856" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -13218,10 +13218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D7EE4-A45D-904B-AAA9-D67F356DFB36}">
-  <dimension ref="A1:E691"/>
+  <dimension ref="A1:E856"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="N700" sqref="N700"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A846" zoomScale="193" workbookViewId="0">
+      <selection activeCell="C854" sqref="C854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14437,11 +14437,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="21"/>
       <c r="C72" s="17">
         <v>239739071.15019199</v>
       </c>
@@ -14793,10 +14792,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="B93" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="19"/>
       <c r="C93" s="17">
         <v>161036.53617599999</v>
       </c>
@@ -16185,10 +16183,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="20" t="s">
+      <c r="B175" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="20"/>
       <c r="C175" s="18">
         <v>88618.593693000003</v>
       </c>
@@ -16200,10 +16197,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="20" t="s">
+      <c r="B176" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B176" s="20"/>
       <c r="C176" s="18">
         <v>239988726.28006101</v>
       </c>
@@ -17421,11 +17417,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="21" t="s">
+    <row r="248" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B248" s="21"/>
       <c r="C248" s="17">
         <v>105017924.44238499</v>
       </c>
@@ -17777,10 +17772,9 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="22" t="s">
+      <c r="B269" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B269" s="22"/>
       <c r="C269" s="17">
         <v>35295.319388000004</v>
       </c>
@@ -19101,10 +19095,9 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="20" t="s">
+      <c r="B347" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B347" s="20"/>
       <c r="C347" s="18">
         <v>47407.206049000015</v>
       </c>
@@ -19116,10 +19109,9 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="20" t="s">
+      <c r="B348" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B348" s="20"/>
       <c r="C348" s="18">
         <v>105100626.96782199</v>
       </c>
@@ -20337,11 +20329,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="21" t="s">
+    <row r="420" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B420" s="21"/>
       <c r="C420" s="17">
         <v>143917474.738783</v>
       </c>
@@ -20710,10 +20701,9 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" s="22" t="s">
+      <c r="B442" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B442" s="22"/>
       <c r="C442" s="17">
         <v>126856.319388</v>
       </c>
@@ -22017,10 +22007,9 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A519" s="20" t="s">
+      <c r="B519" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B519" s="20"/>
       <c r="C519" s="18">
         <v>571613.20604900003</v>
       </c>
@@ -22032,10 +22021,9 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A520" s="20" t="s">
+      <c r="B520" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B520" s="20"/>
       <c r="C520" s="18">
         <v>144615944.26422</v>
       </c>
@@ -23253,11 +23241,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A592" s="21" t="s">
+    <row r="592" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B592" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B592" s="21"/>
       <c r="C592" s="17">
         <v>152500820.51532298</v>
       </c>
@@ -23609,10 +23596,9 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A613" s="22" t="s">
+      <c r="B613" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B613" s="22"/>
       <c r="C613" s="17">
         <v>408876.62538700004</v>
       </c>
@@ -24916,10 +24902,9 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A690" s="20" t="s">
+      <c r="B690" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B690" s="20"/>
       <c r="C690" s="18">
         <v>892331.39387000003</v>
       </c>
@@ -24931,10 +24916,9 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A691" s="20" t="s">
+      <c r="B691" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B691" s="20"/>
       <c r="C691" s="18">
         <v>153802028.53457999</v>
       </c>
@@ -24945,24 +24929,2800 @@
         <v>210</v>
       </c>
     </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" s="13">
+        <v>1</v>
+      </c>
+      <c r="B692" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C692" s="15">
+        <v>47274701</v>
+      </c>
+      <c r="D692" s="15">
+        <v>49193162</v>
+      </c>
+      <c r="E692" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" s="14">
+        <v>2</v>
+      </c>
+      <c r="B693" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C693" s="16">
+        <v>10507932</v>
+      </c>
+      <c r="D693" s="16">
+        <v>6162957</v>
+      </c>
+      <c r="E693" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" s="13">
+        <v>3</v>
+      </c>
+      <c r="B694" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C694" s="15">
+        <v>10878702</v>
+      </c>
+      <c r="D694" s="15">
+        <v>15310958</v>
+      </c>
+      <c r="E694" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" s="14">
+        <v>4</v>
+      </c>
+      <c r="B695" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C695" s="16">
+        <v>7312132</v>
+      </c>
+      <c r="D695" s="16">
+        <v>9448586</v>
+      </c>
+      <c r="E695" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" s="13">
+        <v>5</v>
+      </c>
+      <c r="B696" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C696" s="15">
+        <v>138706</v>
+      </c>
+      <c r="D696" s="15">
+        <v>886524</v>
+      </c>
+      <c r="E696" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" s="14">
+        <v>6</v>
+      </c>
+      <c r="B697" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C697" s="16">
+        <v>2890339.8540389999</v>
+      </c>
+      <c r="D697" s="16">
+        <v>5266674.6063270001</v>
+      </c>
+      <c r="E697" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" s="13">
+        <v>7</v>
+      </c>
+      <c r="B698" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C698" s="15">
+        <v>3965024</v>
+      </c>
+      <c r="D698" s="15">
+        <v>4248382</v>
+      </c>
+      <c r="E698" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" s="14">
+        <v>8</v>
+      </c>
+      <c r="B699" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C699" s="16">
+        <v>1607132.0934840001</v>
+      </c>
+      <c r="D699" s="16">
+        <v>9195422.7420000006</v>
+      </c>
+      <c r="E699" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" s="13">
+        <v>9</v>
+      </c>
+      <c r="B700" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700" s="15">
+        <v>4837098</v>
+      </c>
+      <c r="D700" s="15">
+        <v>6009146</v>
+      </c>
+      <c r="E700" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" s="14">
+        <v>10</v>
+      </c>
+      <c r="B701" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C701" s="16">
+        <v>967483.02382200002</v>
+      </c>
+      <c r="D701" s="16">
+        <v>3420302.7401430001</v>
+      </c>
+      <c r="E701" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" s="13">
+        <v>11</v>
+      </c>
+      <c r="B702" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C702" s="15">
+        <v>4437693.1025160002</v>
+      </c>
+      <c r="D702" s="15">
+        <v>2004049.3473169999</v>
+      </c>
+      <c r="E702" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" s="14">
+        <v>12</v>
+      </c>
+      <c r="B703" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C703" s="16">
+        <v>8171315.0995840002</v>
+      </c>
+      <c r="D703" s="16">
+        <v>6385598.0457610004</v>
+      </c>
+      <c r="E703" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" s="13">
+        <v>13</v>
+      </c>
+      <c r="B704" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C704" s="15">
+        <v>743796</v>
+      </c>
+      <c r="D704" s="15">
+        <v>4380485</v>
+      </c>
+      <c r="E704" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" s="14">
+        <v>14</v>
+      </c>
+      <c r="B705" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C705" s="16">
+        <v>823120</v>
+      </c>
+      <c r="D705" s="16">
+        <v>2122873</v>
+      </c>
+      <c r="E705" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" s="13">
+        <v>15</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C706" s="15">
+        <v>10598444</v>
+      </c>
+      <c r="D706" s="15">
+        <v>23395564</v>
+      </c>
+      <c r="E706" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" s="14">
+        <v>16</v>
+      </c>
+      <c r="B707" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C707" s="16">
+        <v>960164.32266299997</v>
+      </c>
+      <c r="D707" s="16">
+        <v>942198.00151900004</v>
+      </c>
+      <c r="E707" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" s="13">
+        <v>17</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C708" s="15">
+        <v>1301327</v>
+      </c>
+      <c r="D708" s="15">
+        <v>1468496</v>
+      </c>
+      <c r="E708" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" s="14">
+        <v>18</v>
+      </c>
+      <c r="B709" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C709" s="16">
+        <v>1564173</v>
+      </c>
+      <c r="D709" s="16">
+        <v>886151</v>
+      </c>
+      <c r="E709" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" s="13">
+        <v>19</v>
+      </c>
+      <c r="B710" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C710" s="15">
+        <v>476168.017055</v>
+      </c>
+      <c r="D710" s="15">
+        <v>193607.73973100001</v>
+      </c>
+      <c r="E710" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" s="14">
+        <v>20</v>
+      </c>
+      <c r="B711" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C711" s="16">
+        <v>833</v>
+      </c>
+      <c r="D711" s="16">
+        <v>598223</v>
+      </c>
+      <c r="E711" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" s="13">
+        <v>21</v>
+      </c>
+      <c r="B712" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C712" s="15">
+        <v>0</v>
+      </c>
+      <c r="D712" s="15">
+        <v>1430345</v>
+      </c>
+      <c r="E712" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" s="14">
+        <v>22</v>
+      </c>
+      <c r="B713" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C713" s="16">
+        <v>2712779.301213</v>
+      </c>
+      <c r="D713" s="16">
+        <v>970977.44795099995</v>
+      </c>
+      <c r="E713" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" s="13">
+        <v>23</v>
+      </c>
+      <c r="B714" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C714" s="15">
+        <v>1296244</v>
+      </c>
+      <c r="D714" s="15">
+        <v>655893</v>
+      </c>
+      <c r="E714" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" s="14">
+        <v>24</v>
+      </c>
+      <c r="B715" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C715" s="16">
+        <v>731048</v>
+      </c>
+      <c r="D715" s="16">
+        <v>711339</v>
+      </c>
+      <c r="E715" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" s="13">
+        <v>25</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C716" s="15">
+        <v>1244</v>
+      </c>
+      <c r="D716" s="15">
+        <v>42397</v>
+      </c>
+      <c r="E716" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" s="14">
+        <v>26</v>
+      </c>
+      <c r="B717" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C717" s="16">
+        <v>76405</v>
+      </c>
+      <c r="D717" s="16">
+        <v>319620</v>
+      </c>
+      <c r="E717" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" s="13">
+        <v>27</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C718" s="15">
+        <v>1130604.01599</v>
+      </c>
+      <c r="D718" s="15">
+        <v>792198.80822500004</v>
+      </c>
+      <c r="E718" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" s="14">
+        <v>28</v>
+      </c>
+      <c r="B719" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C719" s="16">
+        <v>0</v>
+      </c>
+      <c r="D719" s="16">
+        <v>0</v>
+      </c>
+      <c r="E719" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" s="13">
+        <v>29</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C720" s="15">
+        <v>515567</v>
+      </c>
+      <c r="D720" s="15">
+        <v>451694</v>
+      </c>
+      <c r="E720" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" s="14">
+        <v>30</v>
+      </c>
+      <c r="B721" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C721" s="16">
+        <v>5981756</v>
+      </c>
+      <c r="D721" s="16">
+        <v>6408269</v>
+      </c>
+      <c r="E721" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" s="13">
+        <v>31</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C722" s="15">
+        <v>3508672.0214490001</v>
+      </c>
+      <c r="D722" s="15">
+        <v>3470814.9107090002</v>
+      </c>
+      <c r="E722" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" s="14">
+        <v>32</v>
+      </c>
+      <c r="B723" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C723" s="16">
+        <v>428956</v>
+      </c>
+      <c r="D723" s="16">
+        <v>777457</v>
+      </c>
+      <c r="E723" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" s="13">
+        <v>33</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C724" s="15">
+        <v>404559</v>
+      </c>
+      <c r="D724" s="15">
+        <v>310522</v>
+      </c>
+      <c r="E724" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" s="14">
+        <v>34</v>
+      </c>
+      <c r="B725" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C725" s="16">
+        <v>1400256.9210270001</v>
+      </c>
+      <c r="D725" s="16">
+        <v>1351895.680223</v>
+      </c>
+      <c r="E725" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" s="13">
+        <v>35</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C726" s="15">
+        <v>233109</v>
+      </c>
+      <c r="D726" s="15">
+        <v>335903</v>
+      </c>
+      <c r="E726" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" s="14">
+        <v>36</v>
+      </c>
+      <c r="B727" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C727" s="16">
+        <v>8674</v>
+      </c>
+      <c r="D727" s="16">
+        <v>184513</v>
+      </c>
+      <c r="E727" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" s="13">
+        <v>37</v>
+      </c>
+      <c r="B728" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C728" s="15">
+        <v>23316.326281000001</v>
+      </c>
+      <c r="D728" s="15">
+        <v>44690.566002</v>
+      </c>
+      <c r="E728" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" s="14">
+        <v>38</v>
+      </c>
+      <c r="B729" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C729" s="16">
+        <v>0</v>
+      </c>
+      <c r="D729" s="16">
+        <v>210.99570700000001</v>
+      </c>
+      <c r="E729" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" s="13">
+        <v>39</v>
+      </c>
+      <c r="B730" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C730" s="15">
+        <v>1261.8349900000001</v>
+      </c>
+      <c r="D730" s="15">
+        <v>18488.099552</v>
+      </c>
+      <c r="E730" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" s="14">
+        <v>40</v>
+      </c>
+      <c r="B731" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C731" s="16">
+        <v>0</v>
+      </c>
+      <c r="D731" s="16">
+        <v>8008</v>
+      </c>
+      <c r="E731" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" s="13">
+        <v>41</v>
+      </c>
+      <c r="B732" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C732" s="15">
+        <v>0</v>
+      </c>
+      <c r="D732" s="15">
+        <v>0</v>
+      </c>
+      <c r="E732" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" s="14">
+        <v>42</v>
+      </c>
+      <c r="B733" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C733" s="16">
+        <v>311028</v>
+      </c>
+      <c r="D733" s="16">
+        <v>162660</v>
+      </c>
+      <c r="E733" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" s="13">
+        <v>43</v>
+      </c>
+      <c r="B734" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C734" s="15">
+        <v>2097</v>
+      </c>
+      <c r="D734" s="15">
+        <v>12517</v>
+      </c>
+      <c r="E734" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" s="14">
+        <v>44</v>
+      </c>
+      <c r="B735" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C735" s="16">
+        <v>309730</v>
+      </c>
+      <c r="D735" s="16">
+        <v>183717</v>
+      </c>
+      <c r="E735" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" s="13">
+        <v>45</v>
+      </c>
+      <c r="B736" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C736" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D736" s="15">
+        <v>0</v>
+      </c>
+      <c r="E736" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" s="14">
+        <v>46</v>
+      </c>
+      <c r="B737" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C737" s="16">
+        <v>4</v>
+      </c>
+      <c r="D737" s="16">
+        <v>4847</v>
+      </c>
+      <c r="E737" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" s="13">
+        <v>47</v>
+      </c>
+      <c r="B738" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C738" s="15">
+        <v>28589</v>
+      </c>
+      <c r="D738" s="15">
+        <v>28479</v>
+      </c>
+      <c r="E738" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" s="14">
+        <v>48</v>
+      </c>
+      <c r="B739" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C739" s="16">
+        <v>0</v>
+      </c>
+      <c r="D739" s="16">
+        <v>101101</v>
+      </c>
+      <c r="E739" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" s="13">
+        <v>49</v>
+      </c>
+      <c r="B740" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C740" s="15">
+        <v>149459.33768699999</v>
+      </c>
+      <c r="D740" s="15">
+        <v>235629.70379</v>
+      </c>
+      <c r="E740" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" s="14">
+        <v>50</v>
+      </c>
+      <c r="B741" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C741" s="16">
+        <v>62.832120000000003</v>
+      </c>
+      <c r="D741" s="16">
+        <v>0</v>
+      </c>
+      <c r="E741" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" s="13">
+        <v>51</v>
+      </c>
+      <c r="B742" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C742" s="15">
+        <v>0</v>
+      </c>
+      <c r="D742" s="15">
+        <v>0</v>
+      </c>
+      <c r="E742" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" s="14">
+        <v>52</v>
+      </c>
+      <c r="B743" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C743" s="16">
+        <v>139054</v>
+      </c>
+      <c r="D743" s="16">
+        <v>85968</v>
+      </c>
+      <c r="E743" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" s="13">
+        <v>53</v>
+      </c>
+      <c r="B744" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C744" s="15">
+        <v>50918</v>
+      </c>
+      <c r="D744" s="15">
+        <v>30741</v>
+      </c>
+      <c r="E744" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" s="14">
+        <v>54</v>
+      </c>
+      <c r="B745" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C745" s="16">
+        <v>0</v>
+      </c>
+      <c r="D745" s="16">
+        <v>52</v>
+      </c>
+      <c r="E745" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" s="13">
+        <v>55</v>
+      </c>
+      <c r="B746" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C746" s="15">
+        <v>0</v>
+      </c>
+      <c r="D746" s="15">
+        <v>0</v>
+      </c>
+      <c r="E746" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" s="14">
+        <v>56</v>
+      </c>
+      <c r="B747" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C747" s="16">
+        <v>230</v>
+      </c>
+      <c r="D747" s="16">
+        <v>0</v>
+      </c>
+      <c r="E747" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" s="13">
+        <v>57</v>
+      </c>
+      <c r="B748" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C748" s="15">
+        <v>20156</v>
+      </c>
+      <c r="D748" s="15">
+        <v>0</v>
+      </c>
+      <c r="E748" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" s="14">
+        <v>58</v>
+      </c>
+      <c r="B749" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C749" s="16">
+        <v>70.242756</v>
+      </c>
+      <c r="D749" s="16">
+        <v>0</v>
+      </c>
+      <c r="E749" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" s="13">
+        <v>59</v>
+      </c>
+      <c r="B750" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C750" s="15">
+        <v>0</v>
+      </c>
+      <c r="D750" s="15">
+        <v>0</v>
+      </c>
+      <c r="E750" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" s="14">
+        <v>60</v>
+      </c>
+      <c r="B751" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C751" s="16">
+        <v>0</v>
+      </c>
+      <c r="D751" s="16">
+        <v>0</v>
+      </c>
+      <c r="E751" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" s="13">
+        <v>61</v>
+      </c>
+      <c r="B752" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C752" s="15">
+        <v>5283</v>
+      </c>
+      <c r="D752" s="15">
+        <v>7184</v>
+      </c>
+      <c r="E752" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753" s="14">
+        <v>62</v>
+      </c>
+      <c r="B753" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C753" s="16">
+        <v>23191</v>
+      </c>
+      <c r="D753" s="16">
+        <v>19727</v>
+      </c>
+      <c r="E753" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754" s="13">
+        <v>63</v>
+      </c>
+      <c r="B754" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C754" s="15">
+        <v>0</v>
+      </c>
+      <c r="D754" s="15">
+        <v>0</v>
+      </c>
+      <c r="E754" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755" s="14">
+        <v>64</v>
+      </c>
+      <c r="B755" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C755" s="16">
+        <v>85059</v>
+      </c>
+      <c r="D755" s="16">
+        <v>259332</v>
+      </c>
+      <c r="E755" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756" s="13">
+        <v>65</v>
+      </c>
+      <c r="B756" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C756" s="15">
+        <v>5978145</v>
+      </c>
+      <c r="D756" s="15">
+        <v>3271009</v>
+      </c>
+      <c r="E756" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757" s="14">
+        <v>66</v>
+      </c>
+      <c r="B757" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C757" s="16">
+        <v>5256574</v>
+      </c>
+      <c r="D757" s="16">
+        <v>4219064</v>
+      </c>
+      <c r="E757" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758" s="13">
+        <v>67</v>
+      </c>
+      <c r="B758" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C758" s="15">
+        <v>0</v>
+      </c>
+      <c r="D758" s="15">
+        <v>0</v>
+      </c>
+      <c r="E758" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759" s="14">
+        <v>68</v>
+      </c>
+      <c r="B759" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C759" s="16">
+        <v>250969</v>
+      </c>
+      <c r="D759" s="16">
+        <v>258986</v>
+      </c>
+      <c r="E759" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760" s="13">
+        <v>69</v>
+      </c>
+      <c r="B760" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C760" s="15">
+        <v>733295</v>
+      </c>
+      <c r="D760" s="15">
+        <v>776247</v>
+      </c>
+      <c r="E760" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761" s="14">
+        <v>70</v>
+      </c>
+      <c r="B761" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C761" s="16">
+        <v>0</v>
+      </c>
+      <c r="D761" s="16">
+        <v>1007</v>
+      </c>
+      <c r="E761" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762" s="13">
+        <v>71</v>
+      </c>
+      <c r="B762" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C762" s="15">
+        <v>5743</v>
+      </c>
+      <c r="D762" s="15">
+        <v>13262</v>
+      </c>
+      <c r="E762" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B763" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C763" s="17">
+        <v>151261393.34667599</v>
+      </c>
+      <c r="D763" s="17">
+        <v>179476126.43495703</v>
+      </c>
+      <c r="E763" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764" s="13">
+        <v>72</v>
+      </c>
+      <c r="B764" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C764" s="15">
+        <v>64999</v>
+      </c>
+      <c r="D764" s="15">
+        <v>199073</v>
+      </c>
+      <c r="E764" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765" s="14">
+        <v>73</v>
+      </c>
+      <c r="B765" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C765" s="16">
+        <v>81235</v>
+      </c>
+      <c r="D765" s="16">
+        <v>0</v>
+      </c>
+      <c r="E765" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766" s="13">
+        <v>74</v>
+      </c>
+      <c r="B766" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C766" s="15">
+        <v>0</v>
+      </c>
+      <c r="D766" s="15">
+        <v>0</v>
+      </c>
+      <c r="E766" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767" s="14">
+        <v>75</v>
+      </c>
+      <c r="B767" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C767" s="16">
+        <v>32.300355000000003</v>
+      </c>
+      <c r="D767" s="16">
+        <v>0</v>
+      </c>
+      <c r="E767" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768" s="13">
+        <v>76</v>
+      </c>
+      <c r="B768" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C768" s="15">
+        <v>11556</v>
+      </c>
+      <c r="D768" s="15">
+        <v>67</v>
+      </c>
+      <c r="E768" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769" s="14">
+        <v>77</v>
+      </c>
+      <c r="B769" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C769" s="16">
+        <v>22949.228228</v>
+      </c>
+      <c r="D769" s="16">
+        <v>4061.448715</v>
+      </c>
+      <c r="E769" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770" s="13">
+        <v>78</v>
+      </c>
+      <c r="B770" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C770" s="15">
+        <v>23</v>
+      </c>
+      <c r="D770" s="15">
+        <v>0</v>
+      </c>
+      <c r="E770" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771" s="14">
+        <v>79</v>
+      </c>
+      <c r="B771" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C771" s="16">
+        <v>0</v>
+      </c>
+      <c r="D771" s="16">
+        <v>2182.1999999999998</v>
+      </c>
+      <c r="E771" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772" s="13">
+        <v>80</v>
+      </c>
+      <c r="B772" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C772" s="15">
+        <v>34894</v>
+      </c>
+      <c r="D772" s="15">
+        <v>21865</v>
+      </c>
+      <c r="E772" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773" s="14">
+        <v>81</v>
+      </c>
+      <c r="B773" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C773" s="16">
+        <v>1687</v>
+      </c>
+      <c r="D773" s="16">
+        <v>11331</v>
+      </c>
+      <c r="E773" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774" s="13">
+        <v>82</v>
+      </c>
+      <c r="B774" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C774" s="15">
+        <v>0</v>
+      </c>
+      <c r="D774" s="15">
+        <v>0</v>
+      </c>
+      <c r="E774" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775" s="14">
+        <v>83</v>
+      </c>
+      <c r="B775" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C775" s="16">
+        <v>0</v>
+      </c>
+      <c r="D775" s="16">
+        <v>0</v>
+      </c>
+      <c r="E775" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776" s="13">
+        <v>84</v>
+      </c>
+      <c r="B776" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C776" s="15">
+        <v>995.46045300000003</v>
+      </c>
+      <c r="D776" s="15">
+        <v>5328.6826199999996</v>
+      </c>
+      <c r="E776" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777" s="14">
+        <v>85</v>
+      </c>
+      <c r="B777" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C777" s="16">
+        <v>10699.842350999999</v>
+      </c>
+      <c r="D777" s="16">
+        <v>30351.803743</v>
+      </c>
+      <c r="E777" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778" s="13">
+        <v>86</v>
+      </c>
+      <c r="B778" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C778" s="15">
+        <v>0</v>
+      </c>
+      <c r="D778" s="15">
+        <v>99</v>
+      </c>
+      <c r="E778" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779" s="14">
+        <v>87</v>
+      </c>
+      <c r="B779" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C779" s="16">
+        <v>599</v>
+      </c>
+      <c r="D779" s="16">
+        <v>1549</v>
+      </c>
+      <c r="E779" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780" s="13">
+        <v>88</v>
+      </c>
+      <c r="B780" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C780" s="15">
+        <v>295</v>
+      </c>
+      <c r="D780" s="15">
+        <v>1160</v>
+      </c>
+      <c r="E780" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781" s="14">
+        <v>89</v>
+      </c>
+      <c r="B781" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C781" s="16">
+        <v>74</v>
+      </c>
+      <c r="D781" s="16">
+        <v>0</v>
+      </c>
+      <c r="E781" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782" s="13">
+        <v>90</v>
+      </c>
+      <c r="B782" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C782" s="15">
+        <v>0</v>
+      </c>
+      <c r="D782" s="15">
+        <v>0</v>
+      </c>
+      <c r="E782" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783" s="14">
+        <v>91</v>
+      </c>
+      <c r="B783" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C783" s="16">
+        <v>0</v>
+      </c>
+      <c r="D783" s="16">
+        <v>0</v>
+      </c>
+      <c r="E783" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B784" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C784" s="17">
+        <v>230038.83138700001</v>
+      </c>
+      <c r="D784" s="17">
+        <v>277068.13507800002</v>
+      </c>
+      <c r="E784" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785" s="13">
+        <v>92</v>
+      </c>
+      <c r="B785" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C785" s="15">
+        <v>163244</v>
+      </c>
+      <c r="D785" s="15">
+        <v>103032</v>
+      </c>
+      <c r="E785" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786" s="14">
+        <v>93</v>
+      </c>
+      <c r="B786" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C786" s="16">
+        <v>181048</v>
+      </c>
+      <c r="D786" s="16">
+        <v>36808</v>
+      </c>
+      <c r="E786" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787" s="13">
+        <v>94</v>
+      </c>
+      <c r="B787" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C787" s="15">
+        <v>0</v>
+      </c>
+      <c r="D787" s="15">
+        <v>0</v>
+      </c>
+      <c r="E787" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788" s="14">
+        <v>95</v>
+      </c>
+      <c r="B788" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C788" s="16">
+        <v>39145</v>
+      </c>
+      <c r="D788" s="16">
+        <v>1563</v>
+      </c>
+      <c r="E788" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789" s="13">
+        <v>96</v>
+      </c>
+      <c r="B789" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C789" s="15">
+        <v>0</v>
+      </c>
+      <c r="D789" s="15">
+        <v>22757</v>
+      </c>
+      <c r="E789" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790" s="14">
+        <v>97</v>
+      </c>
+      <c r="B790" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C790" s="16">
+        <v>154635.41803100001</v>
+      </c>
+      <c r="D790" s="16">
+        <v>25322.244566000001</v>
+      </c>
+      <c r="E790" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791" s="13">
+        <v>98</v>
+      </c>
+      <c r="B791" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C791" s="15">
+        <v>13294</v>
+      </c>
+      <c r="D791" s="15">
+        <v>0</v>
+      </c>
+      <c r="E791" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792" s="14">
+        <v>99</v>
+      </c>
+      <c r="B792" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C792" s="16">
+        <v>122484</v>
+      </c>
+      <c r="D792" s="16">
+        <v>17613</v>
+      </c>
+      <c r="E792" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793" s="13">
+        <v>100</v>
+      </c>
+      <c r="B793" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C793" s="15">
+        <v>149</v>
+      </c>
+      <c r="D793" s="15">
+        <v>0</v>
+      </c>
+      <c r="E793" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794" s="14">
+        <v>101</v>
+      </c>
+      <c r="B794" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C794" s="16">
+        <v>0</v>
+      </c>
+      <c r="D794" s="16">
+        <v>0</v>
+      </c>
+      <c r="E794" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795" s="13">
+        <v>102</v>
+      </c>
+      <c r="B795" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C795" s="15">
+        <v>35005</v>
+      </c>
+      <c r="D795" s="15">
+        <v>2132</v>
+      </c>
+      <c r="E795" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796" s="14">
+        <v>103</v>
+      </c>
+      <c r="B796" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C796" s="16">
+        <v>5770</v>
+      </c>
+      <c r="D796" s="16">
+        <v>1598</v>
+      </c>
+      <c r="E796" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797" s="13">
+        <v>104</v>
+      </c>
+      <c r="B797" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C797" s="15">
+        <v>0</v>
+      </c>
+      <c r="D797" s="15">
+        <v>912</v>
+      </c>
+      <c r="E797" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798" s="14">
+        <v>105</v>
+      </c>
+      <c r="B798" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C798" s="16">
+        <v>74755</v>
+      </c>
+      <c r="D798" s="16">
+        <v>1124</v>
+      </c>
+      <c r="E798" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799" s="13">
+        <v>106</v>
+      </c>
+      <c r="B799" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C799" s="15">
+        <v>12240</v>
+      </c>
+      <c r="D799" s="15">
+        <v>0</v>
+      </c>
+      <c r="E799" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800" s="14">
+        <v>107</v>
+      </c>
+      <c r="B800" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C800" s="16">
+        <v>148.48715799999999</v>
+      </c>
+      <c r="D800" s="16">
+        <v>116.245935</v>
+      </c>
+      <c r="E800" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801" s="13">
+        <v>108</v>
+      </c>
+      <c r="B801" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C801" s="15">
+        <v>110668</v>
+      </c>
+      <c r="D801" s="15">
+        <v>0</v>
+      </c>
+      <c r="E801" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802" s="14">
+        <v>109</v>
+      </c>
+      <c r="B802" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C802" s="16">
+        <v>73675.578947000002</v>
+      </c>
+      <c r="D802" s="16">
+        <v>7835.0072559999999</v>
+      </c>
+      <c r="E802" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803" s="13">
+        <v>110</v>
+      </c>
+      <c r="B803" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C803" s="15">
+        <v>0</v>
+      </c>
+      <c r="D803" s="15">
+        <v>0</v>
+      </c>
+      <c r="E803" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804" s="14">
+        <v>111</v>
+      </c>
+      <c r="B804" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C804" s="16">
+        <v>61286</v>
+      </c>
+      <c r="D804" s="16">
+        <v>57675</v>
+      </c>
+      <c r="E804" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805" s="13">
+        <v>112</v>
+      </c>
+      <c r="B805" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C805" s="15">
+        <v>1699</v>
+      </c>
+      <c r="D805" s="15">
+        <v>852</v>
+      </c>
+      <c r="E805" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806" s="14">
+        <v>113</v>
+      </c>
+      <c r="B806" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C806" s="16">
+        <v>102</v>
+      </c>
+      <c r="D806" s="16">
+        <v>317</v>
+      </c>
+      <c r="E806" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807" s="13">
+        <v>114</v>
+      </c>
+      <c r="B807" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C807" s="15">
+        <v>0</v>
+      </c>
+      <c r="D807" s="15">
+        <v>138</v>
+      </c>
+      <c r="E807" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808" s="14">
+        <v>115</v>
+      </c>
+      <c r="B808" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C808" s="16">
+        <v>0</v>
+      </c>
+      <c r="D808" s="16">
+        <v>0</v>
+      </c>
+      <c r="E808" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809" s="13">
+        <v>116</v>
+      </c>
+      <c r="B809" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C809" s="15">
+        <v>57693.859957000001</v>
+      </c>
+      <c r="D809" s="15">
+        <v>6137.4485009999999</v>
+      </c>
+      <c r="E809" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810" s="14">
+        <v>117</v>
+      </c>
+      <c r="B810" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C810" s="16">
+        <v>0</v>
+      </c>
+      <c r="D810" s="16">
+        <v>0</v>
+      </c>
+      <c r="E810" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811" s="13">
+        <v>118</v>
+      </c>
+      <c r="B811" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C811" s="15">
+        <v>0</v>
+      </c>
+      <c r="D811" s="15">
+        <v>3812.1</v>
+      </c>
+      <c r="E811" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812" s="14">
+        <v>119</v>
+      </c>
+      <c r="B812" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C812" s="16">
+        <v>278.60574500000001</v>
+      </c>
+      <c r="D812" s="16">
+        <v>30928.807601</v>
+      </c>
+      <c r="E812" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813" s="13">
+        <v>120</v>
+      </c>
+      <c r="B813" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C813" s="15">
+        <v>172413.41</v>
+      </c>
+      <c r="D813" s="15">
+        <v>59920.92</v>
+      </c>
+      <c r="E813" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814" s="14">
+        <v>121</v>
+      </c>
+      <c r="B814" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C814" s="16">
+        <v>61934</v>
+      </c>
+      <c r="D814" s="16">
+        <v>337</v>
+      </c>
+      <c r="E814" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815" s="13">
+        <v>122</v>
+      </c>
+      <c r="B815" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C815" s="15">
+        <v>0</v>
+      </c>
+      <c r="D815" s="15">
+        <v>2488</v>
+      </c>
+      <c r="E815" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816" s="14">
+        <v>123</v>
+      </c>
+      <c r="B816" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C816" s="16">
+        <v>0</v>
+      </c>
+      <c r="D816" s="16">
+        <v>339</v>
+      </c>
+      <c r="E816" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817" s="13">
+        <v>124</v>
+      </c>
+      <c r="B817" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C817" s="15">
+        <v>0</v>
+      </c>
+      <c r="D817" s="15">
+        <v>0</v>
+      </c>
+      <c r="E817" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818" s="14">
+        <v>125</v>
+      </c>
+      <c r="B818" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C818" s="16">
+        <v>878.86766999999998</v>
+      </c>
+      <c r="D818" s="16">
+        <v>7314.0360000000001</v>
+      </c>
+      <c r="E818" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819" s="13">
+        <v>126</v>
+      </c>
+      <c r="B819" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C819" s="15">
+        <v>0</v>
+      </c>
+      <c r="D819" s="15">
+        <v>0</v>
+      </c>
+      <c r="E819" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820" s="14">
+        <v>127</v>
+      </c>
+      <c r="B820" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C820" s="16">
+        <v>46</v>
+      </c>
+      <c r="D820" s="16">
+        <v>50</v>
+      </c>
+      <c r="E820" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821" s="13">
+        <v>128</v>
+      </c>
+      <c r="B821" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C821" s="15">
+        <v>4499</v>
+      </c>
+      <c r="D821" s="15">
+        <v>59</v>
+      </c>
+      <c r="E821" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822" s="14">
+        <v>129</v>
+      </c>
+      <c r="B822" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C822" s="16">
+        <v>17865</v>
+      </c>
+      <c r="D822" s="16">
+        <v>3353</v>
+      </c>
+      <c r="E822" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823" s="13">
+        <v>130</v>
+      </c>
+      <c r="B823" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C823" s="15">
+        <v>14187.950101</v>
+      </c>
+      <c r="D823" s="15">
+        <v>8000.8646760000001</v>
+      </c>
+      <c r="E823" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824" s="14">
+        <v>131</v>
+      </c>
+      <c r="B824" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C824" s="16">
+        <v>0</v>
+      </c>
+      <c r="D824" s="16">
+        <v>0</v>
+      </c>
+      <c r="E824" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825" s="13">
+        <v>132</v>
+      </c>
+      <c r="B825" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C825" s="15">
+        <v>0</v>
+      </c>
+      <c r="D825" s="15">
+        <v>1348</v>
+      </c>
+      <c r="E825" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826" s="14">
+        <v>133</v>
+      </c>
+      <c r="B826" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C826" s="16">
+        <v>0</v>
+      </c>
+      <c r="D826" s="16">
+        <v>0</v>
+      </c>
+      <c r="E826" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827" s="13">
+        <v>134</v>
+      </c>
+      <c r="B827" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C827" s="15">
+        <v>168</v>
+      </c>
+      <c r="D827" s="15">
+        <v>0</v>
+      </c>
+      <c r="E827" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828" s="14">
+        <v>135</v>
+      </c>
+      <c r="B828" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C828" s="16">
+        <v>1493</v>
+      </c>
+      <c r="D828" s="16">
+        <v>2888</v>
+      </c>
+      <c r="E828" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829" s="13">
+        <v>136</v>
+      </c>
+      <c r="B829" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C829" s="15">
+        <v>22604</v>
+      </c>
+      <c r="D829" s="15">
+        <v>23321</v>
+      </c>
+      <c r="E829" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830" s="14">
+        <v>137</v>
+      </c>
+      <c r="B830" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C830" s="16">
+        <v>15854</v>
+      </c>
+      <c r="D830" s="16">
+        <v>24363</v>
+      </c>
+      <c r="E830" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831" s="13">
+        <v>138</v>
+      </c>
+      <c r="B831" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C831" s="15">
+        <v>2382</v>
+      </c>
+      <c r="D831" s="15">
+        <v>337</v>
+      </c>
+      <c r="E831" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832" s="14">
+        <v>139</v>
+      </c>
+      <c r="B832" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C832" s="16">
+        <v>1732.9757010000001</v>
+      </c>
+      <c r="D832" s="16">
+        <v>373.98037199999999</v>
+      </c>
+      <c r="E832" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" s="13">
+        <v>140</v>
+      </c>
+      <c r="B833" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C833" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D833" s="15">
+        <v>26191</v>
+      </c>
+      <c r="E833" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" s="14">
+        <v>141</v>
+      </c>
+      <c r="B834" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C834" s="16">
+        <v>6.3566560000000001</v>
+      </c>
+      <c r="D834" s="16">
+        <v>0</v>
+      </c>
+      <c r="E834" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" s="13">
+        <v>142</v>
+      </c>
+      <c r="B835" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C835" s="15">
+        <v>8074</v>
+      </c>
+      <c r="D835" s="15">
+        <v>0</v>
+      </c>
+      <c r="E835" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" s="14">
+        <v>143</v>
+      </c>
+      <c r="B836" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C836" s="16">
+        <v>0</v>
+      </c>
+      <c r="D836" s="16">
+        <v>0</v>
+      </c>
+      <c r="E836" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" s="13">
+        <v>144</v>
+      </c>
+      <c r="B837" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C837" s="15">
+        <v>0</v>
+      </c>
+      <c r="D837" s="15">
+        <v>1879.3570010000001</v>
+      </c>
+      <c r="E837" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" s="14">
+        <v>145</v>
+      </c>
+      <c r="B838" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C838" s="16">
+        <v>0</v>
+      </c>
+      <c r="D838" s="16">
+        <v>0</v>
+      </c>
+      <c r="E838" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839" s="13">
+        <v>146</v>
+      </c>
+      <c r="B839" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C839" s="15">
+        <v>8667.2865430000002</v>
+      </c>
+      <c r="D839" s="15">
+        <v>1992.232806</v>
+      </c>
+      <c r="E839" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" s="14">
+        <v>147</v>
+      </c>
+      <c r="B840" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C840" s="16">
+        <v>2333</v>
+      </c>
+      <c r="D840" s="16">
+        <v>0</v>
+      </c>
+      <c r="E840" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" s="13">
+        <v>148</v>
+      </c>
+      <c r="B841" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C841" s="15">
+        <v>2578.6844719999999</v>
+      </c>
+      <c r="D841" s="15">
+        <v>5338.6448639999999</v>
+      </c>
+      <c r="E841" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" s="14">
+        <v>149</v>
+      </c>
+      <c r="B842" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C842" s="16">
+        <v>2678</v>
+      </c>
+      <c r="D842" s="16">
+        <v>850</v>
+      </c>
+      <c r="E842" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" s="13">
+        <v>150</v>
+      </c>
+      <c r="B843" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C843" s="15">
+        <v>0</v>
+      </c>
+      <c r="D843" s="15">
+        <v>56</v>
+      </c>
+      <c r="E843" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" s="14">
+        <v>151</v>
+      </c>
+      <c r="B844" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C844" s="16">
+        <v>0</v>
+      </c>
+      <c r="D844" s="16">
+        <v>0</v>
+      </c>
+      <c r="E844" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" s="13">
+        <v>152</v>
+      </c>
+      <c r="B845" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C845" s="15">
+        <v>0</v>
+      </c>
+      <c r="D845" s="15">
+        <v>0</v>
+      </c>
+      <c r="E845" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" s="14">
+        <v>153</v>
+      </c>
+      <c r="B846" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C846" s="16">
+        <v>1726.376233</v>
+      </c>
+      <c r="D846" s="16">
+        <v>0</v>
+      </c>
+      <c r="E846" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" s="13">
+        <v>154</v>
+      </c>
+      <c r="B847" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C847" s="15">
+        <v>970</v>
+      </c>
+      <c r="D847" s="15">
+        <v>15669</v>
+      </c>
+      <c r="E847" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" s="14">
+        <v>155</v>
+      </c>
+      <c r="B848" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C848" s="16">
+        <v>42</v>
+      </c>
+      <c r="D848" s="16">
+        <v>359</v>
+      </c>
+      <c r="E848" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849" s="13">
+        <v>156</v>
+      </c>
+      <c r="B849" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C849" s="15">
+        <v>0</v>
+      </c>
+      <c r="D849" s="15">
+        <v>0</v>
+      </c>
+      <c r="E849" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850" s="14">
+        <v>157</v>
+      </c>
+      <c r="B850" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C850" s="16">
+        <v>0</v>
+      </c>
+      <c r="D850" s="16">
+        <v>0</v>
+      </c>
+      <c r="E850" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851" s="13">
+        <v>158</v>
+      </c>
+      <c r="B851" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C851" s="15">
+        <v>1420.0969110000001</v>
+      </c>
+      <c r="D851" s="15">
+        <v>0</v>
+      </c>
+      <c r="E851" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852" s="14">
+        <v>159</v>
+      </c>
+      <c r="B852" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C852" s="16">
+        <v>0</v>
+      </c>
+      <c r="D852" s="16">
+        <v>0</v>
+      </c>
+      <c r="E852" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853" s="13">
+        <v>160</v>
+      </c>
+      <c r="B853" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C853" s="15">
+        <v>0</v>
+      </c>
+      <c r="D853" s="15">
+        <v>0</v>
+      </c>
+      <c r="E853" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854" s="14">
+        <v>161</v>
+      </c>
+      <c r="B854" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C854" s="16">
+        <v>0</v>
+      </c>
+      <c r="D854" s="16">
+        <v>0</v>
+      </c>
+      <c r="E854" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B855" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C855" s="18">
+        <v>1461874.9541250004</v>
+      </c>
+      <c r="D855" s="18">
+        <v>507500.88957800006</v>
+      </c>
+      <c r="E855" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B856" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C856" s="18">
+        <v>152953307.13218799</v>
+      </c>
+      <c r="D856" s="18">
+        <v>180260695.45961303</v>
+      </c>
+      <c r="E856" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A592:B592"/>
-    <mergeCell ref="A613:B613"/>
-    <mergeCell ref="A690:B690"/>
-    <mergeCell ref="A691:B691"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A420:B420"/>
-    <mergeCell ref="A442:B442"/>
-    <mergeCell ref="A519:B519"/>
-  </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/github/raw-d-man-mutual-funds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E669FC3-17DF-9542-A6FB-AF8A19784D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFEBA2-72DE-F641-8F40-8A4F70F64AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5100" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8864" uniqueCount="254">
   <si>
     <t>مشترک کارگزاری کارآفرین</t>
   </si>
@@ -790,6 +790,15 @@
   <si>
     <t>1397-12-29</t>
   </si>
+  <si>
+    <t>83*</t>
+  </si>
+  <si>
+    <t>1398-01-31</t>
+  </si>
+  <si>
+    <t>1398-01</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06670460-8E5C-4344-986B-9D7823F7222F}">
-  <dimension ref="A1:D2027"/>
+  <dimension ref="A1:D2194"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2012" workbookViewId="0">
-      <selection activeCell="A2027" sqref="A2027"/>
+    <sheetView rightToLeft="1" topLeftCell="A2177" workbookViewId="0">
+      <selection activeCell="A2194" sqref="A2194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29653,6 +29662,2336 @@
         <v>250</v>
       </c>
     </row>
+    <row r="2028" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2028" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2028" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2028" s="9">
+        <v>10427106.229398999</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2029" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2029" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2029" s="10">
+        <v>20761876.445721999</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2030" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2030" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2030" s="9">
+        <v>138729.04886000001</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2031" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2031" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2031" s="10">
+        <v>1458229.091849</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2032" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2032" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2032" s="9">
+        <v>95849593.509388998</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2033" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2033" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2033" s="10">
+        <v>2733129.331576</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2034" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2034" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2034" s="9">
+        <v>4459629.9587679999</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2035" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2035" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2035" s="10">
+        <v>160031148.61872199</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2036" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2036" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2036" s="9">
+        <v>10515349.639969001</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2037" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2037" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2037" s="10">
+        <v>11896206.042338001</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2038" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2038" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2038" s="9">
+        <v>1011288</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2039" s="3">
+        <v>12</v>
+      </c>
+      <c r="B2039" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2039" s="10">
+        <v>272893973.33696401</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2040" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2040" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2040" s="9">
+        <v>59762028.268049002</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2041" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2041" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2041" s="10">
+        <v>112973.582151</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2042" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2042" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2042" s="9">
+        <v>977560.375413</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2043" s="3">
+        <v>16</v>
+      </c>
+      <c r="B2043" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2043" s="10">
+        <v>46724552.471934997</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2044" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2044" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2044" s="9">
+        <v>667472.60515800002</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2045" s="3">
+        <v>18</v>
+      </c>
+      <c r="B2045" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2045" s="10">
+        <v>39865498.873930998</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2046" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2046" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2046" s="9">
+        <v>5937747</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2047" s="3">
+        <v>20</v>
+      </c>
+      <c r="B2047" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2047" s="10">
+        <v>17081033.242461</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2048" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2048" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2048" s="9">
+        <v>33620437</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2049" s="3">
+        <v>22</v>
+      </c>
+      <c r="B2049" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2049" s="10">
+        <v>42624946</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2050" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2050" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2050" s="9">
+        <v>107828548.82048</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2051" s="3">
+        <v>24</v>
+      </c>
+      <c r="B2051" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2051" s="10">
+        <v>144288415.08779201</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2052" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2052" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2052" s="9">
+        <v>44543612.175807998</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2053" s="3">
+        <v>26</v>
+      </c>
+      <c r="B2053" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2053" s="10">
+        <v>7302474.5887679998</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2054" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2054" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2054" s="9">
+        <v>19787139.20442</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2055" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2055" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2055" s="10">
+        <v>203942.45772000001</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2056" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2056" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2056" s="9">
+        <v>5841.4672810000002</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2057" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2057" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2057" s="10">
+        <v>5054021.8208950004</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2058" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2058" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2058" s="9">
+        <v>17598.427938000001</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2059" s="3">
+        <v>32</v>
+      </c>
+      <c r="B2059" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2059" s="10">
+        <v>5763274.7989229998</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2060" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2060" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2060" s="9">
+        <v>54536.585756</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2061" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2061" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2061" s="10">
+        <v>3046583.4792490001</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2062" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2062" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2062" s="9">
+        <v>39303866</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2063" s="3">
+        <v>36</v>
+      </c>
+      <c r="B2063" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2063" s="10">
+        <v>10877270.009305</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2064" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2064" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2064" s="9">
+        <v>14752183.33244</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2065" s="3">
+        <v>38</v>
+      </c>
+      <c r="B2065" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2065" s="10">
+        <v>24761991.719253998</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2066" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2066" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2066" s="9">
+        <v>71979.617788000003</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2067" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2067" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2067" s="10">
+        <v>483225.02291900001</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2068" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2068" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2068" s="9">
+        <v>19348.871190000002</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2069" s="3">
+        <v>42</v>
+      </c>
+      <c r="B2069" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2069" s="10">
+        <v>1015255.8</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2070" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2070" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2070" s="9">
+        <v>57010151.747619003</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2071" s="3">
+        <v>44</v>
+      </c>
+      <c r="B2071" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2071" s="10">
+        <v>35061241.683972999</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2072" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2072" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2072" s="9">
+        <v>39851189.702684999</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2073" s="3">
+        <v>46</v>
+      </c>
+      <c r="B2073" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2073" s="10">
+        <v>247826.79736</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2074" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2074" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2074" s="9">
+        <v>115382.20757699999</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2075" s="3">
+        <v>48</v>
+      </c>
+      <c r="B2075" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2075" s="10">
+        <v>4212509.253118</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2076" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2076" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2076" s="9">
+        <v>14211897</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2077" s="3">
+        <v>50</v>
+      </c>
+      <c r="B2077" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2077" s="10">
+        <v>464908</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2078" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2078" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2078" s="9">
+        <v>1229874.9384369999</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2079" s="3">
+        <v>52</v>
+      </c>
+      <c r="B2079" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2079" s="10">
+        <v>118192.989563</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2080" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2080" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2080" s="9">
+        <v>115074.20899299999</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2081" s="3">
+        <v>54</v>
+      </c>
+      <c r="B2081" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2081" s="10">
+        <v>546520.55911699997</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2082" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2082" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2082" s="9">
+        <v>87215.364132999995</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2083" s="3">
+        <v>56</v>
+      </c>
+      <c r="B2083" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2083" s="10">
+        <v>58152.003903999997</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2084" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2084" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2084" s="9">
+        <v>4943162.5691870004</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2085" s="3">
+        <v>58</v>
+      </c>
+      <c r="B2085" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2085" s="10">
+        <v>1157369.8402470001</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2086" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2086" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2086" s="9">
+        <v>53621.777152000002</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2087" s="3">
+        <v>60</v>
+      </c>
+      <c r="B2087" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2087" s="10">
+        <v>4867051.264304</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2088" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2088" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2088" s="9">
+        <v>7882994.8499999996</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2089" s="3">
+        <v>62</v>
+      </c>
+      <c r="B2089" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2089" s="10">
+        <v>130055.173824</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2090" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2090" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2090" s="9">
+        <v>1433450.469092</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2091" s="3">
+        <v>64</v>
+      </c>
+      <c r="B2091" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2091" s="10">
+        <v>101389.935662</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2092" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2092" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2092" s="9">
+        <v>16310422</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2093" s="3">
+        <v>66</v>
+      </c>
+      <c r="B2093" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2093" s="10">
+        <v>27806193.326912001</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2094" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2094" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2094" s="9">
+        <v>5042370.8236379996</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2095" s="3">
+        <v>68</v>
+      </c>
+      <c r="B2095" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2095" s="10">
+        <v>3023064.7462269999</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2096" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2096" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2096" s="9">
+        <v>167061.40970700001</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2097" s="3">
+        <v>70</v>
+      </c>
+      <c r="B2097" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2097" s="10">
+        <v>727831.230691</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2098" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2098" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2098" s="9">
+        <v>995140.74</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2099" s="3">
+        <v>72</v>
+      </c>
+      <c r="B2099" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2099" s="10">
+        <v>1550661.0139220001</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2100" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2100" s="9">
+        <v>817748.13608500001</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2101" s="3">
+        <v>74</v>
+      </c>
+      <c r="B2101" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2101" s="10">
+        <v>322653.37134000001</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2102" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2102" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2102" s="9">
+        <v>999966.46</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2103" s="1"/>
+      <c r="B2103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2103" s="11">
+        <v>1500393963.5550489</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2104" s="1">
+        <v>76</v>
+      </c>
+      <c r="B2104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2104" s="9">
+        <v>191607.03757399999</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2105" s="3">
+        <v>77</v>
+      </c>
+      <c r="B2105" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2105" s="10">
+        <v>617506.86580000003</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2106" s="1">
+        <v>78</v>
+      </c>
+      <c r="B2106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2106" s="9">
+        <v>112011.18606399999</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2107" s="3">
+        <v>79</v>
+      </c>
+      <c r="B2107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2107" s="10">
+        <v>88863.186862000002</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2108" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2108" s="9">
+        <v>1147348.0408709999</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2109" s="3">
+        <v>81</v>
+      </c>
+      <c r="B2109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2109" s="10">
+        <v>155634.18900400001</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2110" s="9">
+        <v>21794.889236999999</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2111" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2111" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2111" s="10">
+        <v>3074.082371</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2112" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2112" s="9">
+        <v>99964.139253000001</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2113" s="3">
+        <v>85</v>
+      </c>
+      <c r="B2113" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2113" s="10">
+        <v>132221.612952</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2114" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2114" s="9">
+        <v>171093.82044000001</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2115" s="3">
+        <v>87</v>
+      </c>
+      <c r="B2115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2115" s="10">
+        <v>624155.90407699998</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2116" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2116" s="9">
+        <v>362096.01828199998</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2117" s="3">
+        <v>89</v>
+      </c>
+      <c r="B2117" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2117" s="10">
+        <v>168584.20110000001</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2118" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2118" s="9">
+        <v>61375.596641999997</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2119" s="3">
+        <v>91</v>
+      </c>
+      <c r="B2119" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2119" s="10">
+        <v>285861.42148000002</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2120" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2120" s="9">
+        <v>110848.741647</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2121" s="3">
+        <v>93</v>
+      </c>
+      <c r="B2121" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2121" s="10">
+        <v>178858.93421400001</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2122" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2122" s="9">
+        <v>142128.162132</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2123" s="3">
+        <v>95</v>
+      </c>
+      <c r="B2123" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2123" s="10">
+        <v>798212.25902200001</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2124" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2124" s="9">
+        <v>322715.49706800003</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2125" s="20"/>
+      <c r="B2125" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2125" s="11">
+        <v>5795955.7860920001</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2126" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2126" s="9">
+        <v>285117.68654700002</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2127" s="3">
+        <v>98</v>
+      </c>
+      <c r="B2127" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2127" s="10">
+        <v>129397.803401</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2128" s="1">
+        <v>99</v>
+      </c>
+      <c r="B2128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2128" s="9">
+        <v>688432.82738799998</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2129" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2129" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2129" s="10">
+        <v>1315848.622249</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2130" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2130" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2130" s="9">
+        <v>459040.94566000003</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2131" s="3">
+        <v>102</v>
+      </c>
+      <c r="B2131" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2131" s="10">
+        <v>44924.598660000003</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2132" s="1">
+        <v>103</v>
+      </c>
+      <c r="B2132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2132" s="9">
+        <v>198813.6925</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2133" s="3">
+        <v>104</v>
+      </c>
+      <c r="B2133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2133" s="10">
+        <v>1900350.038674</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2134" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2134" s="9">
+        <v>376895.11997100001</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2135" s="3">
+        <v>106</v>
+      </c>
+      <c r="B2135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2135" s="10">
+        <v>134587.748054</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2136" s="1">
+        <v>107</v>
+      </c>
+      <c r="B2136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2136" s="9">
+        <v>206069.47667900001</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2137" s="3">
+        <v>108</v>
+      </c>
+      <c r="B2137" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2137" s="10">
+        <v>263827.06126599998</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2138" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2138" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2138" s="9">
+        <v>285838.72933</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2139" s="3">
+        <v>110</v>
+      </c>
+      <c r="B2139" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2139" s="10">
+        <v>205184.55316000001</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2140" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2140" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2140" s="9">
+        <v>244839.30451799999</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2141" s="3">
+        <v>112</v>
+      </c>
+      <c r="B2141" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2141" s="10">
+        <v>583507.99757999997</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2142" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2142" s="9">
+        <v>188667.53457600001</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2143" s="3">
+        <v>114</v>
+      </c>
+      <c r="B2143" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2143" s="10">
+        <v>139754.23869699999</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2144" s="1">
+        <v>115</v>
+      </c>
+      <c r="B2144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2144" s="9">
+        <v>86880.872401000001</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2145" s="3">
+        <v>116</v>
+      </c>
+      <c r="B2145" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2145" s="10">
+        <v>149992.75738200001</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2146" s="1">
+        <v>117</v>
+      </c>
+      <c r="B2146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2146" s="9">
+        <v>191843.436307</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2147" s="3">
+        <v>118</v>
+      </c>
+      <c r="B2147" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2147" s="10">
+        <v>265444.62017499999</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2148" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2148" s="9">
+        <v>1572088.210224</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2149" s="3">
+        <v>120</v>
+      </c>
+      <c r="B2149" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2149" s="10">
+        <v>432905.83549299999</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2150" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2150" s="9">
+        <v>98113.783146999995</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2151" s="3">
+        <v>122</v>
+      </c>
+      <c r="B2151" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2151" s="10">
+        <v>129456.661571</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2152" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2152" s="9">
+        <v>355999.27227399999</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2153" s="3">
+        <v>124</v>
+      </c>
+      <c r="B2153" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2153" s="10">
+        <v>329579.328117</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2154" s="1">
+        <v>125</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2154" s="9">
+        <v>206120.48850899999</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2155" s="3">
+        <v>126</v>
+      </c>
+      <c r="B2155" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2155" s="10">
+        <v>104507.469696</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2156" s="1">
+        <v>127</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2156" s="9">
+        <v>218293.22951</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2157" s="3">
+        <v>128</v>
+      </c>
+      <c r="B2157" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2157" s="10">
+        <v>1059902.801001</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2158" s="1">
+        <v>129</v>
+      </c>
+      <c r="B2158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2158" s="9">
+        <v>259166.64683099999</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2159" s="3">
+        <v>130</v>
+      </c>
+      <c r="B2159" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2159" s="10">
+        <v>137091.84570000001</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2160" s="1">
+        <v>131</v>
+      </c>
+      <c r="B2160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2160" s="9">
+        <v>13646.526279</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2161" s="3">
+        <v>132</v>
+      </c>
+      <c r="B2161" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2161" s="10">
+        <v>52322.930551999998</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2162" s="1">
+        <v>133</v>
+      </c>
+      <c r="B2162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2162" s="9">
+        <v>6847.3032350000003</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2163" s="3">
+        <v>134</v>
+      </c>
+      <c r="B2163" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2163" s="10">
+        <v>267297.00276300003</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2164" s="1">
+        <v>135</v>
+      </c>
+      <c r="B2164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2164" s="9">
+        <v>579040.52797499998</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2165" s="3">
+        <v>136</v>
+      </c>
+      <c r="B2165" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2165" s="10">
+        <v>213234.749691</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2166" s="1">
+        <v>137</v>
+      </c>
+      <c r="B2166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2166" s="9">
+        <v>324061.379823</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2167" s="3">
+        <v>138</v>
+      </c>
+      <c r="B2167" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2167" s="10">
+        <v>168275.90606400001</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2168" s="1">
+        <v>139</v>
+      </c>
+      <c r="B2168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2168" s="9">
+        <v>348932.10686399997</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2169" s="3">
+        <v>140</v>
+      </c>
+      <c r="B2169" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2169" s="10">
+        <v>120233.77009599999</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2170" s="1">
+        <v>141</v>
+      </c>
+      <c r="B2170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2170" s="9">
+        <v>193000.416666</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2171" s="3">
+        <v>142</v>
+      </c>
+      <c r="B2171" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2171" s="10">
+        <v>214207.43779699999</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2172" s="1">
+        <v>143</v>
+      </c>
+      <c r="B2172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2172" s="9">
+        <v>489726.924848</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2173" s="3">
+        <v>144</v>
+      </c>
+      <c r="B2173" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2173" s="10">
+        <v>319951.55727200001</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2174" s="1">
+        <v>145</v>
+      </c>
+      <c r="B2174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2174" s="9">
+        <v>174327.14954499999</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2175" s="3">
+        <v>146</v>
+      </c>
+      <c r="B2175" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2175" s="10">
+        <v>292307.456833</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2176" s="1">
+        <v>147</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2176" s="9">
+        <v>87894.274397999994</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2177" s="3">
+        <v>148</v>
+      </c>
+      <c r="B2177" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2177" s="10">
+        <v>610066.90463400004</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2178" s="1">
+        <v>149</v>
+      </c>
+      <c r="B2178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2178" s="9">
+        <v>122147.29848</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2179" s="3">
+        <v>150</v>
+      </c>
+      <c r="B2179" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2179" s="10">
+        <v>275040.29194800003</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2180" s="1">
+        <v>151</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2180" s="9">
+        <v>11357.756202</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2181" s="3">
+        <v>152</v>
+      </c>
+      <c r="B2181" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2181" s="10">
+        <v>306973.32779000001</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2182" s="1">
+        <v>153</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2182" s="9">
+        <v>120984.07552</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2183" s="3">
+        <v>154</v>
+      </c>
+      <c r="B2183" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2183" s="10">
+        <v>114288.31303</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2184" s="1">
+        <v>155</v>
+      </c>
+      <c r="B2184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2184" s="9">
+        <v>146873.51411399999</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2185" s="3">
+        <v>156</v>
+      </c>
+      <c r="B2185" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2185" s="10">
+        <v>206008.23914799999</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2186" s="1">
+        <v>157</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2186" s="9">
+        <v>311428.44862400001</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2187" s="3">
+        <v>158</v>
+      </c>
+      <c r="B2187" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2187" s="10">
+        <v>61425.852254999998</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2188" s="1">
+        <v>159</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2188" s="9">
+        <v>116237.476981</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2189" s="3">
+        <v>160</v>
+      </c>
+      <c r="B2189" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2189" s="10">
+        <v>95828.109570000001</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2190" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2190" s="9">
+        <v>41596.657899999998</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2191" s="3">
+        <v>162</v>
+      </c>
+      <c r="B2191" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2191" s="10">
+        <v>1202266.3173420001</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2192" s="1">
+        <v>163</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2192" s="9">
+        <v>224912.849128</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2193" s="21"/>
+      <c r="B2193" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2193" s="11">
+        <v>21081228.090615004</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2194" s="8"/>
+      <c r="B2194" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2194" s="12">
+        <v>1527271147.431756</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29661,10 +32000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D7EE4-A45D-904B-AAA9-D67F356DFB36}">
-  <dimension ref="A1:E2027"/>
+  <dimension ref="A1:E2194"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2013" zoomScale="193" workbookViewId="0">
-      <selection activeCell="H2028" sqref="H2028"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2180" zoomScale="193" workbookViewId="0">
+      <selection activeCell="H2190" sqref="H2190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63988,6 +66327,2833 @@
         <v>218</v>
       </c>
     </row>
+    <row r="2028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2028" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2028" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2028" s="15">
+        <v>19025775</v>
+      </c>
+      <c r="D2028" s="15">
+        <v>17457452</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2029" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2029" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2029" s="16">
+        <v>7728027</v>
+      </c>
+      <c r="D2029" s="16">
+        <v>8616684</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2030" s="13">
+        <v>3</v>
+      </c>
+      <c r="B2030" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2030" s="15">
+        <v>5179270</v>
+      </c>
+      <c r="D2030" s="15">
+        <v>3545747</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2031" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2031" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2031" s="16">
+        <v>7878958</v>
+      </c>
+      <c r="D2031" s="16">
+        <v>5287012</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2032" s="13">
+        <v>5</v>
+      </c>
+      <c r="B2032" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2032" s="15">
+        <v>4174962</v>
+      </c>
+      <c r="D2032" s="15">
+        <v>3061065</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2033" s="14">
+        <v>6</v>
+      </c>
+      <c r="B2033" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2033" s="16">
+        <v>967890.56667299999</v>
+      </c>
+      <c r="D2033" s="16">
+        <v>1317256.16396</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2034" s="13">
+        <v>7</v>
+      </c>
+      <c r="B2034" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2034" s="15">
+        <v>1261517</v>
+      </c>
+      <c r="D2034" s="15">
+        <v>761789</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2035" s="14">
+        <v>8</v>
+      </c>
+      <c r="B2035" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2035" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2035" s="16">
+        <v>1913546.941355</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2036" s="13">
+        <v>9</v>
+      </c>
+      <c r="B2036" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2036" s="15">
+        <v>4873922</v>
+      </c>
+      <c r="D2036" s="15">
+        <v>2233262</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2037" s="14">
+        <v>10</v>
+      </c>
+      <c r="B2037" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2037" s="16">
+        <v>1873185.169699</v>
+      </c>
+      <c r="D2037" s="16">
+        <v>939372.94357700006</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2038" s="13">
+        <v>11</v>
+      </c>
+      <c r="B2038" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2038" s="15">
+        <v>4286511</v>
+      </c>
+      <c r="D2038" s="15">
+        <v>3222639</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2039" s="14">
+        <v>12</v>
+      </c>
+      <c r="B2039" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2039" s="16">
+        <v>306718.44908599998</v>
+      </c>
+      <c r="D2039" s="16">
+        <v>1535327.3984370001</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2040" s="13">
+        <v>13</v>
+      </c>
+      <c r="B2040" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2040" s="15">
+        <v>3297756.1579649998</v>
+      </c>
+      <c r="D2040" s="15">
+        <v>2645294.4712680001</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2041" s="14">
+        <v>14</v>
+      </c>
+      <c r="B2041" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2041" s="16">
+        <v>46569</v>
+      </c>
+      <c r="D2041" s="16">
+        <v>3792886</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2042" s="13">
+        <v>15</v>
+      </c>
+      <c r="B2042" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2042" s="15">
+        <v>6290559</v>
+      </c>
+      <c r="D2042" s="15">
+        <v>3980539</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2043" s="14">
+        <v>16</v>
+      </c>
+      <c r="B2043" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2043" s="16">
+        <v>1662652</v>
+      </c>
+      <c r="D2043" s="16">
+        <v>1068848</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2044" s="13">
+        <v>17</v>
+      </c>
+      <c r="B2044" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2044" s="15">
+        <v>2628441</v>
+      </c>
+      <c r="D2044" s="15">
+        <v>2336728</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2045" s="14">
+        <v>18</v>
+      </c>
+      <c r="B2045" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2045" s="16">
+        <v>1032219</v>
+      </c>
+      <c r="D2045" s="16">
+        <v>589365</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2046" s="13">
+        <v>19</v>
+      </c>
+      <c r="B2046" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2046" s="15">
+        <v>2612678.2779290001</v>
+      </c>
+      <c r="D2046" s="15">
+        <v>2150884.5115430001</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2047" s="14">
+        <v>20</v>
+      </c>
+      <c r="B2047" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2047" s="16">
+        <v>3101810</v>
+      </c>
+      <c r="D2047" s="16">
+        <v>2024839</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2048" s="13">
+        <v>21</v>
+      </c>
+      <c r="B2048" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2048" s="15">
+        <v>2455742</v>
+      </c>
+      <c r="D2048" s="15">
+        <v>1692326</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2049" s="14">
+        <v>22</v>
+      </c>
+      <c r="B2049" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2049" s="16">
+        <v>2735357.728869</v>
+      </c>
+      <c r="D2049" s="16">
+        <v>2221250.8145750002</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2050" s="13">
+        <v>23</v>
+      </c>
+      <c r="B2050" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2050" s="15">
+        <v>394985</v>
+      </c>
+      <c r="D2050" s="15">
+        <v>415133</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2051" s="14">
+        <v>24</v>
+      </c>
+      <c r="B2051" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2051" s="16">
+        <v>1745687.420438</v>
+      </c>
+      <c r="D2051" s="16">
+        <v>1841352.632522</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2052" s="13">
+        <v>25</v>
+      </c>
+      <c r="B2052" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2052" s="15">
+        <v>1741200.394113</v>
+      </c>
+      <c r="D2052" s="15">
+        <v>1494398.8187830001</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2053" s="14">
+        <v>26</v>
+      </c>
+      <c r="B2053" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2053" s="16">
+        <v>271754</v>
+      </c>
+      <c r="D2053" s="16">
+        <v>807359</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2054" s="13">
+        <v>27</v>
+      </c>
+      <c r="B2054" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2054" s="15">
+        <v>742757</v>
+      </c>
+      <c r="D2054" s="15">
+        <v>402471</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2055" s="14">
+        <v>28</v>
+      </c>
+      <c r="B2055" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2055" s="16">
+        <v>426037</v>
+      </c>
+      <c r="D2055" s="16">
+        <v>262506</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2056" s="13">
+        <v>29</v>
+      </c>
+      <c r="B2056" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2056" s="15">
+        <v>369976</v>
+      </c>
+      <c r="D2056" s="15">
+        <v>427918</v>
+      </c>
+      <c r="E2056" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2057" s="14">
+        <v>30</v>
+      </c>
+      <c r="B2057" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2057" s="16">
+        <v>20244</v>
+      </c>
+      <c r="D2057" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2057" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2058" s="13">
+        <v>31</v>
+      </c>
+      <c r="B2058" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2058" s="15">
+        <v>325430</v>
+      </c>
+      <c r="D2058" s="15">
+        <v>288986</v>
+      </c>
+      <c r="E2058" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2059" s="14">
+        <v>32</v>
+      </c>
+      <c r="B2059" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2059" s="16">
+        <v>490.91569099999998</v>
+      </c>
+      <c r="D2059" s="16">
+        <v>269088.90996199998</v>
+      </c>
+      <c r="E2059" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2060" s="13">
+        <v>33</v>
+      </c>
+      <c r="B2060" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2060" s="15">
+        <v>1055994</v>
+      </c>
+      <c r="D2060" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2060" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2061" s="14">
+        <v>34</v>
+      </c>
+      <c r="B2061" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2061" s="16">
+        <v>113101</v>
+      </c>
+      <c r="D2061" s="16">
+        <v>245811</v>
+      </c>
+      <c r="E2061" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2062" s="13">
+        <v>35</v>
+      </c>
+      <c r="B2062" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2062" s="15">
+        <v>138270</v>
+      </c>
+      <c r="D2062" s="15">
+        <v>131224</v>
+      </c>
+      <c r="E2062" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2063" s="14">
+        <v>36</v>
+      </c>
+      <c r="B2063" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2063" s="16">
+        <v>27134.039422000002</v>
+      </c>
+      <c r="D2063" s="16">
+        <v>15399.17013</v>
+      </c>
+      <c r="E2063" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2064" s="13">
+        <v>37</v>
+      </c>
+      <c r="B2064" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2064" s="15">
+        <v>971311</v>
+      </c>
+      <c r="D2064" s="15">
+        <v>415774</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2065" s="14">
+        <v>38</v>
+      </c>
+      <c r="B2065" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2065" s="16">
+        <v>12619</v>
+      </c>
+      <c r="D2065" s="16">
+        <v>32173</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2066" s="13">
+        <v>39</v>
+      </c>
+      <c r="B2066" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2066" s="15">
+        <v>5380141.7793749999</v>
+      </c>
+      <c r="D2066" s="15">
+        <v>5116408.8658229997</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2067" s="14">
+        <v>40</v>
+      </c>
+      <c r="B2067" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2067" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2067" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2068" s="13">
+        <v>41</v>
+      </c>
+      <c r="B2068" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2068" s="15">
+        <v>133511</v>
+      </c>
+      <c r="D2068" s="15">
+        <v>91516</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2069" s="14">
+        <v>42</v>
+      </c>
+      <c r="B2069" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2069" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2069" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2070" s="13">
+        <v>43</v>
+      </c>
+      <c r="B2070" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2070" s="15">
+        <v>222881</v>
+      </c>
+      <c r="D2070" s="15">
+        <v>263566</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2071" s="14">
+        <v>44</v>
+      </c>
+      <c r="B2071" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2071" s="16">
+        <v>214.26439999999999</v>
+      </c>
+      <c r="D2071" s="16">
+        <v>705.827</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2072" s="13">
+        <v>45</v>
+      </c>
+      <c r="B2072" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2072" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2072" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2073" s="14">
+        <v>46</v>
+      </c>
+      <c r="B2073" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2073" s="16">
+        <v>38757.086887999998</v>
+      </c>
+      <c r="D2073" s="16">
+        <v>90875.470121999999</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2074" s="13">
+        <v>47</v>
+      </c>
+      <c r="B2074" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2074" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2074" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2075" s="14">
+        <v>48</v>
+      </c>
+      <c r="B2075" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2075" s="16">
+        <v>76551</v>
+      </c>
+      <c r="D2075" s="16">
+        <v>36202</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2076" s="13">
+        <v>49</v>
+      </c>
+      <c r="B2076" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2076" s="15">
+        <v>296038</v>
+      </c>
+      <c r="D2076" s="15">
+        <v>152931</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2077" s="14">
+        <v>50</v>
+      </c>
+      <c r="B2077" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2077" s="16">
+        <v>1443898</v>
+      </c>
+      <c r="D2077" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2078" s="13">
+        <v>51</v>
+      </c>
+      <c r="B2078" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2078" s="15">
+        <v>82360.770109000005</v>
+      </c>
+      <c r="D2078" s="15">
+        <v>157897.24638699999</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2079" s="14">
+        <v>52</v>
+      </c>
+      <c r="B2079" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2079" s="16">
+        <v>50683</v>
+      </c>
+      <c r="D2079" s="16">
+        <v>18836</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2080" s="13">
+        <v>53</v>
+      </c>
+      <c r="B2080" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2080" s="15">
+        <v>1003.6</v>
+      </c>
+      <c r="D2080" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2081" s="14">
+        <v>54</v>
+      </c>
+      <c r="B2081" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2081" s="16">
+        <v>52198</v>
+      </c>
+      <c r="D2081" s="16">
+        <v>24534</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2082" s="13">
+        <v>55</v>
+      </c>
+      <c r="B2082" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2082" s="15">
+        <v>66983.881748999993</v>
+      </c>
+      <c r="D2082" s="15">
+        <v>166533.96005600001</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2083" s="14">
+        <v>56</v>
+      </c>
+      <c r="B2083" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2083" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2083" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2084" s="13">
+        <v>57</v>
+      </c>
+      <c r="B2084" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2084" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2084" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2085" s="14">
+        <v>58</v>
+      </c>
+      <c r="B2085" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2085" s="16">
+        <v>14206</v>
+      </c>
+      <c r="D2085" s="16">
+        <v>3308</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2086" s="13">
+        <v>59</v>
+      </c>
+      <c r="B2086" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2086" s="15">
+        <v>347.244283</v>
+      </c>
+      <c r="D2086" s="15">
+        <v>7488.5086229999997</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2087" s="14">
+        <v>60</v>
+      </c>
+      <c r="B2087" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2087" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2087" s="16">
+        <v>66206</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2088" s="13">
+        <v>61</v>
+      </c>
+      <c r="B2088" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2088" s="15">
+        <v>12807.22553</v>
+      </c>
+      <c r="D2088" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2089" s="14">
+        <v>62</v>
+      </c>
+      <c r="B2089" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2089" s="16">
+        <v>1144</v>
+      </c>
+      <c r="D2089" s="16">
+        <v>3096</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2090" s="13">
+        <v>63</v>
+      </c>
+      <c r="B2090" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2090" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2090" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2091" s="14">
+        <v>64</v>
+      </c>
+      <c r="B2091" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2091" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2091" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2092" s="13">
+        <v>65</v>
+      </c>
+      <c r="B2092" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2092" s="15">
+        <v>10193</v>
+      </c>
+      <c r="D2092" s="15">
+        <v>3065</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2093" s="14">
+        <v>66</v>
+      </c>
+      <c r="B2093" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2093" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2093" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2094" s="13">
+        <v>67</v>
+      </c>
+      <c r="B2094" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2094" s="15">
+        <v>531</v>
+      </c>
+      <c r="D2094" s="15">
+        <v>12116</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2095" s="14">
+        <v>68</v>
+      </c>
+      <c r="B2095" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2095" s="16">
+        <v>654134</v>
+      </c>
+      <c r="D2095" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2096" s="13">
+        <v>69</v>
+      </c>
+      <c r="B2096" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2096" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2096" s="15">
+        <v>716</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2097" s="14">
+        <v>70</v>
+      </c>
+      <c r="B2097" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2097" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2097" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2098" s="13">
+        <v>71</v>
+      </c>
+      <c r="B2098" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2098" s="15">
+        <v>4800</v>
+      </c>
+      <c r="D2098" s="15">
+        <v>413</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2099" s="14">
+        <v>72</v>
+      </c>
+      <c r="B2099" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2099" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2099" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2100" s="13">
+        <v>73</v>
+      </c>
+      <c r="B2100" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2100" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2100" s="15">
+        <v>29</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2101" s="14">
+        <v>74</v>
+      </c>
+      <c r="B2101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2101" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2101" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2102" s="13">
+        <v>75</v>
+      </c>
+      <c r="B2102" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2102" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2102" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2103" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2103" s="17">
+        <v>100320902.97221904</v>
+      </c>
+      <c r="D2103" s="17">
+        <v>85660152.654123008</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2104" s="13">
+        <v>76</v>
+      </c>
+      <c r="B2104" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2104" s="15">
+        <v>16601</v>
+      </c>
+      <c r="D2104" s="15">
+        <v>12690</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2105" s="14">
+        <v>77</v>
+      </c>
+      <c r="B2105" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2105" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2105" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2106" s="13">
+        <v>78</v>
+      </c>
+      <c r="B2106" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2106" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2106" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2107" s="14">
+        <v>79</v>
+      </c>
+      <c r="B2107" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2107" s="16">
+        <v>59</v>
+      </c>
+      <c r="D2107" s="16">
+        <v>35</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2108" s="13">
+        <v>80</v>
+      </c>
+      <c r="B2108" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2108" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2108" s="15">
+        <v>268.31170200000003</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2109" s="14">
+        <v>81</v>
+      </c>
+      <c r="B2109" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2109" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2109" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2110" s="13">
+        <v>82</v>
+      </c>
+      <c r="B2110" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2110" s="15">
+        <v>95505</v>
+      </c>
+      <c r="D2110" s="15">
+        <v>32741</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2111" s="14">
+        <v>83</v>
+      </c>
+      <c r="B2111" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2111" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2111" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2112" s="13">
+        <v>84</v>
+      </c>
+      <c r="B2112" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2112" s="15">
+        <v>28710.333417999998</v>
+      </c>
+      <c r="D2112" s="15">
+        <v>9141.4505339999996</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2113" s="14">
+        <v>85</v>
+      </c>
+      <c r="B2113" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2113" s="16">
+        <v>450</v>
+      </c>
+      <c r="D2113" s="16">
+        <v>37660</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2114" s="13">
+        <v>86</v>
+      </c>
+      <c r="B2114" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2114" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2114" s="15">
+        <v>705</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2115" s="14">
+        <v>87</v>
+      </c>
+      <c r="B2115" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2115" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2115" s="16">
+        <v>684</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2116" s="13">
+        <v>88</v>
+      </c>
+      <c r="B2116" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2116" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2116" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2117" s="14">
+        <v>89</v>
+      </c>
+      <c r="B2117" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2117" s="16">
+        <v>605</v>
+      </c>
+      <c r="D2117" s="16">
+        <v>5121</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2118" s="13">
+        <v>90</v>
+      </c>
+      <c r="B2118" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2118" s="15">
+        <v>801.73421699999994</v>
+      </c>
+      <c r="D2118" s="15">
+        <v>27.348240000000001</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2119" s="14">
+        <v>91</v>
+      </c>
+      <c r="B2119" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2119" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2119" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2120" s="13">
+        <v>92</v>
+      </c>
+      <c r="B2120" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2120" s="15">
+        <v>1854.673432</v>
+      </c>
+      <c r="D2120" s="15">
+        <v>256.41014799999999</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2121" s="14">
+        <v>93</v>
+      </c>
+      <c r="B2121" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2121" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2121" s="16">
+        <v>590</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2122" s="13">
+        <v>94</v>
+      </c>
+      <c r="B2122" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2122" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2122" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2123" s="14">
+        <v>95</v>
+      </c>
+      <c r="B2123" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2123" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2123" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2124" s="13">
+        <v>96</v>
+      </c>
+      <c r="B2124" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2124" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2124" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2125" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2125" s="17">
+        <v>144586.741067</v>
+      </c>
+      <c r="D2125" s="17">
+        <v>99919.520623999997</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2126" s="13">
+        <v>97</v>
+      </c>
+      <c r="B2126" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2126" s="15">
+        <v>129002</v>
+      </c>
+      <c r="D2126" s="15">
+        <v>66561</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2127" s="14">
+        <v>98</v>
+      </c>
+      <c r="B2127" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2127" s="16">
+        <v>149004</v>
+      </c>
+      <c r="D2127" s="16">
+        <v>23062</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2128" s="13">
+        <v>99</v>
+      </c>
+      <c r="B2128" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2128" s="15">
+        <v>101097.50337000001</v>
+      </c>
+      <c r="D2128" s="15">
+        <v>22853.391503999999</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2129" s="14">
+        <v>100</v>
+      </c>
+      <c r="B2129" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2129" s="16">
+        <v>6640</v>
+      </c>
+      <c r="D2129" s="16">
+        <v>3065</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2130" s="13">
+        <v>101</v>
+      </c>
+      <c r="B2130" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2130" s="15">
+        <v>20801</v>
+      </c>
+      <c r="D2130" s="15">
+        <v>10194</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2131" s="14">
+        <v>102</v>
+      </c>
+      <c r="B2131" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2131" s="16">
+        <v>61088</v>
+      </c>
+      <c r="D2131" s="16">
+        <v>23839</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2132" s="13">
+        <v>103</v>
+      </c>
+      <c r="B2132" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2132" s="15">
+        <v>18778</v>
+      </c>
+      <c r="D2132" s="15">
+        <v>150292</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2133" s="14">
+        <v>104</v>
+      </c>
+      <c r="B2133" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2133" s="16">
+        <v>138216.71229900001</v>
+      </c>
+      <c r="D2133" s="16">
+        <v>7236.1296730000004</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2134" s="13">
+        <v>105</v>
+      </c>
+      <c r="B2134" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2134" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2134" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2135" s="14">
+        <v>106</v>
+      </c>
+      <c r="B2135" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2135" s="16">
+        <v>50458</v>
+      </c>
+      <c r="D2135" s="16">
+        <v>5874</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2136" s="13">
+        <v>107</v>
+      </c>
+      <c r="B2136" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2136" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2136" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2137" s="14">
+        <v>108</v>
+      </c>
+      <c r="B2137" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2137" s="16">
+        <v>154540</v>
+      </c>
+      <c r="D2137" s="16">
+        <v>7137</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2138" s="13">
+        <v>109</v>
+      </c>
+      <c r="B2138" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2138" s="15">
+        <v>49847</v>
+      </c>
+      <c r="D2138" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2139" s="14">
+        <v>110</v>
+      </c>
+      <c r="B2139" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2139" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D2139" s="16">
+        <v>53557</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2140" s="13">
+        <v>111</v>
+      </c>
+      <c r="B2140" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2140" s="15">
+        <v>83270</v>
+      </c>
+      <c r="D2140" s="15">
+        <v>1189</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2141" s="14">
+        <v>112</v>
+      </c>
+      <c r="B2141" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2141" s="16">
+        <v>8894</v>
+      </c>
+      <c r="D2141" s="16">
+        <v>1403</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2142" s="13">
+        <v>113</v>
+      </c>
+      <c r="B2142" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2142" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2142" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2143" s="14">
+        <v>114</v>
+      </c>
+      <c r="B2143" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2143" s="16">
+        <v>9954.8949439999997</v>
+      </c>
+      <c r="D2143" s="16">
+        <v>19723.934555</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2144" s="13">
+        <v>115</v>
+      </c>
+      <c r="B2144" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2144" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2144" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2145" s="14">
+        <v>116</v>
+      </c>
+      <c r="B2145" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2145" s="16">
+        <v>27157</v>
+      </c>
+      <c r="D2145" s="16">
+        <v>7227</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2146" s="13">
+        <v>117</v>
+      </c>
+      <c r="B2146" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2146" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2146" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2147" s="14">
+        <v>118</v>
+      </c>
+      <c r="B2147" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2147" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2147" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2148" s="13">
+        <v>119</v>
+      </c>
+      <c r="B2148" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2148" s="15">
+        <v>26962</v>
+      </c>
+      <c r="D2148" s="15">
+        <v>11582</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2149" s="14">
+        <v>120</v>
+      </c>
+      <c r="B2149" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2149" s="16">
+        <v>3133.9692319999999</v>
+      </c>
+      <c r="D2149" s="16">
+        <v>5358.5295699999997</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2150" s="13">
+        <v>121</v>
+      </c>
+      <c r="B2150" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2150" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2150" s="15">
+        <v>7495.2251999999999</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2151" s="14">
+        <v>122</v>
+      </c>
+      <c r="B2151" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2151" s="16">
+        <v>3070</v>
+      </c>
+      <c r="D2151" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2152" s="13">
+        <v>123</v>
+      </c>
+      <c r="B2152" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2152" s="15">
+        <v>829.17153199999996</v>
+      </c>
+      <c r="D2152" s="15">
+        <v>2272.5777330000001</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2153" s="14">
+        <v>124</v>
+      </c>
+      <c r="B2153" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2153" s="16">
+        <v>77327</v>
+      </c>
+      <c r="D2153" s="16">
+        <v>23118</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2154" s="13">
+        <v>125</v>
+      </c>
+      <c r="B2154" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2154" s="15">
+        <v>27378</v>
+      </c>
+      <c r="D2154" s="15">
+        <v>5319</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2155" s="14">
+        <v>126</v>
+      </c>
+      <c r="B2155" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2155" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2155" s="16">
+        <v>194</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2156" s="13">
+        <v>127</v>
+      </c>
+      <c r="B2156" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2156" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2156" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2157" s="14">
+        <v>128</v>
+      </c>
+      <c r="B2157" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2157" s="16">
+        <v>4725</v>
+      </c>
+      <c r="D2157" s="16">
+        <v>211</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2158" s="13">
+        <v>129</v>
+      </c>
+      <c r="B2158" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2158" s="15">
+        <v>7888.11</v>
+      </c>
+      <c r="D2158" s="15">
+        <v>2599.84</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2159" s="14">
+        <v>130</v>
+      </c>
+      <c r="B2159" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2159" s="16">
+        <v>19</v>
+      </c>
+      <c r="D2159" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2160" s="13">
+        <v>131</v>
+      </c>
+      <c r="B2160" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2160" s="15">
+        <v>9499.1760419999991</v>
+      </c>
+      <c r="D2160" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2161" s="14">
+        <v>132</v>
+      </c>
+      <c r="B2161" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2161" s="16">
+        <v>605.65535999999997</v>
+      </c>
+      <c r="D2161" s="16">
+        <v>788.59134300000005</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2162" s="13">
+        <v>133</v>
+      </c>
+      <c r="B2162" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2162" s="15">
+        <v>462</v>
+      </c>
+      <c r="D2162" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2163" s="14">
+        <v>134</v>
+      </c>
+      <c r="B2163" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2163" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2163" s="16">
+        <v>8</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2164" s="13">
+        <v>135</v>
+      </c>
+      <c r="B2164" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2164" s="15">
+        <v>6509</v>
+      </c>
+      <c r="D2164" s="15">
+        <v>8174</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2165" s="14">
+        <v>136</v>
+      </c>
+      <c r="B2165" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2165" s="16">
+        <v>495</v>
+      </c>
+      <c r="D2165" s="16">
+        <v>562</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2166" s="13">
+        <v>137</v>
+      </c>
+      <c r="B2166" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2166" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2166" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2167" s="14">
+        <v>138</v>
+      </c>
+      <c r="B2167" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2167" s="16">
+        <v>2946.1736510000001</v>
+      </c>
+      <c r="D2167" s="16">
+        <v>3342.3803389999998</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2168" s="13">
+        <v>139</v>
+      </c>
+      <c r="B2168" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2168" s="15">
+        <v>24.597591000000001</v>
+      </c>
+      <c r="D2168" s="15">
+        <v>551.79627300000004</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2169" s="14">
+        <v>140</v>
+      </c>
+      <c r="B2169" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2169" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2169" s="16">
+        <v>7254</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2170" s="13">
+        <v>141</v>
+      </c>
+      <c r="B2170" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2170" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2170" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2171" s="14">
+        <v>142</v>
+      </c>
+      <c r="B2171" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2171" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2171" s="16">
+        <v>151.69409999999999</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2172" s="13">
+        <v>143</v>
+      </c>
+      <c r="B2172" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2172" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2172" s="15">
+        <v>28.461224000000001</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2173" s="14">
+        <v>144</v>
+      </c>
+      <c r="B2173" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2173" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2173" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2174" s="13">
+        <v>145</v>
+      </c>
+      <c r="B2174" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2174" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2174" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2175" s="14">
+        <v>146</v>
+      </c>
+      <c r="B2175" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2175" s="16">
+        <v>546</v>
+      </c>
+      <c r="D2175" s="16">
+        <v>16216</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2176" s="13">
+        <v>147</v>
+      </c>
+      <c r="B2176" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2176" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2176" s="15">
+        <v>118</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2177" s="14">
+        <v>148</v>
+      </c>
+      <c r="B2177" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2177" s="16">
+        <v>2903.347902</v>
+      </c>
+      <c r="D2177" s="16">
+        <v>5338.5267979999999</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2178" s="13">
+        <v>149</v>
+      </c>
+      <c r="B2178" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2178" s="15">
+        <v>570.27397399999995</v>
+      </c>
+      <c r="D2178" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2179" s="14">
+        <v>150</v>
+      </c>
+      <c r="B2179" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2179" s="16">
+        <v>3154.5111019999999</v>
+      </c>
+      <c r="D2179" s="16">
+        <v>40042.055578</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2180" s="13">
+        <v>151</v>
+      </c>
+      <c r="B2180" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2180" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2180" s="15">
+        <v>49</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2181" s="14">
+        <v>152</v>
+      </c>
+      <c r="B2181" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2181" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2181" s="16">
+        <v>7439</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2182" s="13">
+        <v>153</v>
+      </c>
+      <c r="B2182" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2182" s="15">
+        <v>133.49232000000001</v>
+      </c>
+      <c r="D2182" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2183" s="14">
+        <v>154</v>
+      </c>
+      <c r="B2183" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2183" s="16">
+        <v>23765.748412000001</v>
+      </c>
+      <c r="D2183" s="16">
+        <v>1540.4978550000001</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2184" s="13">
+        <v>155</v>
+      </c>
+      <c r="B2184" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2184" s="15">
+        <v>3310</v>
+      </c>
+      <c r="D2184" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2185" s="14">
+        <v>156</v>
+      </c>
+      <c r="B2185" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2185" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2185" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2186" s="13">
+        <v>157</v>
+      </c>
+      <c r="B2186" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2186" s="15">
+        <v>10136</v>
+      </c>
+      <c r="D2186" s="15">
+        <v>195</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2187" s="14">
+        <v>158</v>
+      </c>
+      <c r="B2187" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2187" s="16">
+        <v>344</v>
+      </c>
+      <c r="D2187" s="16">
+        <v>810</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2188" s="13">
+        <v>159</v>
+      </c>
+      <c r="B2188" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2188" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2188" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2189" s="14">
+        <v>160</v>
+      </c>
+      <c r="B2189" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2189" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2189" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2190" s="13">
+        <v>161</v>
+      </c>
+      <c r="B2190" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2190" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2190" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2191" s="14">
+        <v>162</v>
+      </c>
+      <c r="B2191" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2191" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2191" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2192" s="13">
+        <v>163</v>
+      </c>
+      <c r="B2192" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2192" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2192" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2193" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2193" s="18">
+        <v>1275485.337731</v>
+      </c>
+      <c r="D2193" s="18">
+        <v>553972.63174500002</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2194" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2194" s="18">
+        <v>101740975.05101703</v>
+      </c>
+      <c r="D2194" s="18">
+        <v>86314044.806492001</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/github/raw-d-man-mutual-funds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0396CF-7CFA-4940-A300-41EC6AA533A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01153A-8D52-B341-847A-257AD9806B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5100" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10206" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10874" uniqueCount="265">
   <si>
     <t>مشترک کارگزاری کارآفرین</t>
   </si>
@@ -806,6 +806,9 @@
     <t>1398-03</t>
   </si>
   <si>
+    <t>1398-04</t>
+  </si>
+  <si>
     <t>30*</t>
   </si>
   <si>
@@ -819,6 +822,15 @@
   </si>
   <si>
     <t>1398-03-31</t>
+  </si>
+  <si>
+    <t>*5</t>
+  </si>
+  <si>
+    <t>سرو سودمند مدبران</t>
+  </si>
+  <si>
+    <t>1398-04-31</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1010,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -1056,6 +1068,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -1385,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06670460-8E5C-4344-986B-9D7823F7222F}">
-  <dimension ref="A1:D2527"/>
+  <dimension ref="A1:D2693"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2523" workbookViewId="0">
-      <selection activeCell="C2530" sqref="C2530"/>
+    <sheetView rightToLeft="1" topLeftCell="A2674" workbookViewId="0">
+      <selection activeCell="B2686" sqref="B2686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12327,7 +12348,7 @@
       </c>
     </row>
     <row r="784" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A784" s="20"/>
+      <c r="A784" s="23"/>
       <c r="B784" s="6" t="s">
         <v>94</v>
       </c>
@@ -13319,7 +13340,7 @@
       </c>
     </row>
     <row r="855" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A855" s="21"/>
+      <c r="A855" s="24"/>
       <c r="B855" s="6" t="s">
         <v>183</v>
       </c>
@@ -14643,7 +14664,7 @@
       </c>
     </row>
     <row r="950" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A950" s="20"/>
+      <c r="A950" s="23"/>
       <c r="B950" s="6" t="s">
         <v>94</v>
       </c>
@@ -15649,7 +15670,7 @@
       </c>
     </row>
     <row r="1022" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1022" s="21"/>
+      <c r="A1022" s="24"/>
       <c r="B1022" s="6" t="s">
         <v>183</v>
       </c>
@@ -16988,7 +17009,7 @@
       </c>
     </row>
     <row r="1118" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1118" s="20"/>
+      <c r="A1118" s="23"/>
       <c r="B1118" s="6" t="s">
         <v>94</v>
       </c>
@@ -17995,7 +18016,7 @@
       </c>
     </row>
     <row r="1190" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1190" s="21"/>
+      <c r="A1190" s="24"/>
       <c r="B1190" s="6" t="s">
         <v>183</v>
       </c>
@@ -19334,7 +19355,7 @@
       </c>
     </row>
     <row r="1286" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1286" s="20"/>
+      <c r="A1286" s="23"/>
       <c r="B1286" s="6" t="s">
         <v>94</v>
       </c>
@@ -20340,7 +20361,7 @@
       </c>
     </row>
     <row r="1358" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1358" s="21"/>
+      <c r="A1358" s="24"/>
       <c r="B1358" s="6" t="s">
         <v>183</v>
       </c>
@@ -21678,7 +21699,7 @@
       </c>
     </row>
     <row r="1454" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1454" s="20"/>
+      <c r="A1454" s="23"/>
       <c r="B1454" s="6" t="s">
         <v>94</v>
       </c>
@@ -22656,7 +22677,7 @@
       </c>
     </row>
     <row r="1524" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1524" s="21"/>
+      <c r="A1524" s="24"/>
       <c r="B1524" s="6" t="s">
         <v>183</v>
       </c>
@@ -24008,7 +24029,7 @@
       </c>
     </row>
     <row r="1621" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1621" s="20"/>
+      <c r="A1621" s="23"/>
       <c r="B1621" s="6" t="s">
         <v>94</v>
       </c>
@@ -24986,7 +25007,7 @@
       </c>
     </row>
     <row r="1691" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1691" s="21"/>
+      <c r="A1691" s="24"/>
       <c r="B1691" s="6" t="s">
         <v>183</v>
       </c>
@@ -26352,7 +26373,7 @@
       </c>
     </row>
     <row r="1789" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1789" s="20"/>
+      <c r="A1789" s="23"/>
       <c r="B1789" s="6" t="s">
         <v>94</v>
       </c>
@@ -27330,7 +27351,7 @@
       </c>
     </row>
     <row r="1859" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1859" s="21"/>
+      <c r="A1859" s="24"/>
       <c r="B1859" s="6" t="s">
         <v>183</v>
       </c>
@@ -28696,7 +28717,7 @@
       </c>
     </row>
     <row r="1957" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1957" s="20"/>
+      <c r="A1957" s="23"/>
       <c r="B1957" s="6" t="s">
         <v>94</v>
       </c>
@@ -29660,7 +29681,7 @@
       </c>
     </row>
     <row r="2026" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2026" s="21"/>
+      <c r="A2026" s="24"/>
       <c r="B2026" s="6" t="s">
         <v>183</v>
       </c>
@@ -31040,7 +31061,7 @@
       </c>
     </row>
     <row r="2125" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A2125" s="20"/>
+      <c r="A2125" s="23"/>
       <c r="B2125" s="6" t="s">
         <v>94</v>
       </c>
@@ -31990,7 +32011,7 @@
       </c>
     </row>
     <row r="2193" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2193" s="21"/>
+      <c r="A2193" s="24"/>
       <c r="B2193" s="6" t="s">
         <v>183</v>
       </c>
@@ -32024,7 +32045,7 @@
         <v>10212899.779665001</v>
       </c>
       <c r="D2195" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2196" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32038,7 +32059,7 @@
         <v>21001484.784255002</v>
       </c>
       <c r="D2196" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2197" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32052,7 +32073,7 @@
         <v>137676.97691999999</v>
       </c>
       <c r="D2197" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2198" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32066,7 +32087,7 @@
         <v>1550283.536602</v>
       </c>
       <c r="D2198" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2199" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32080,7 +32101,7 @@
         <v>293007.43504100002</v>
       </c>
       <c r="D2199" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2200" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32094,7 +32115,7 @@
         <v>94468400.662331998</v>
       </c>
       <c r="D2200" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2201" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32108,7 +32129,7 @@
         <v>2199448.822187</v>
       </c>
       <c r="D2201" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2202" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32122,7 +32143,7 @@
         <v>4662372.4692620002</v>
       </c>
       <c r="D2202" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2203" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32136,7 +32157,7 @@
         <v>151901734.29727101</v>
       </c>
       <c r="D2203" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2204" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32150,7 +32171,7 @@
         <v>10289281.110257</v>
       </c>
       <c r="D2204" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2205" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32164,7 +32185,7 @@
         <v>10859713.230397001</v>
       </c>
       <c r="D2205" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2206" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32178,7 +32199,7 @@
         <v>964242</v>
       </c>
       <c r="D2206" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2207" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32192,7 +32213,7 @@
         <v>260891501.20694301</v>
       </c>
       <c r="D2207" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2208" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32206,7 +32227,7 @@
         <v>59885951.205596</v>
       </c>
       <c r="D2208" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2209" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32220,7 +32241,7 @@
         <v>108613.223855</v>
       </c>
       <c r="D2209" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2210" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32234,7 +32255,7 @@
         <v>970492.03979299997</v>
       </c>
       <c r="D2210" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2211" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32248,7 +32269,7 @@
         <v>45190906.236077003</v>
       </c>
       <c r="D2211" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2212" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32262,7 +32283,7 @@
         <v>713507.44897799997</v>
       </c>
       <c r="D2212" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2213" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32276,7 +32297,7 @@
         <v>39813770.704815</v>
       </c>
       <c r="D2213" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2214" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32290,7 +32311,7 @@
         <v>5524341</v>
       </c>
       <c r="D2214" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2215" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32304,7 +32325,7 @@
         <v>14890047.782079</v>
       </c>
       <c r="D2215" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2216" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32318,7 +32339,7 @@
         <v>32848218</v>
       </c>
       <c r="D2216" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2217" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32332,7 +32353,7 @@
         <v>41627791.980726004</v>
       </c>
       <c r="D2217" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2218" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32346,7 +32367,7 @@
         <v>103612411.986568</v>
       </c>
       <c r="D2218" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2219" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32360,7 +32381,7 @@
         <v>148632586.17135599</v>
       </c>
       <c r="D2219" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2220" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32374,7 +32395,7 @@
         <v>47625105.779518999</v>
       </c>
       <c r="D2220" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2221" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32388,7 +32409,7 @@
         <v>8211645.4036569996</v>
       </c>
       <c r="D2221" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2222" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32402,7 +32423,7 @@
         <v>19915327.554876</v>
       </c>
       <c r="D2222" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2223" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32416,12 +32437,12 @@
         <v>203698.24317500001</v>
       </c>
       <c r="D2223" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2224" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2224" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2224" s="4" t="s">
         <v>29</v>
@@ -32430,7 +32451,7 @@
         <v>5841.4672810000002</v>
       </c>
       <c r="D2224" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2225" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32444,7 +32465,7 @@
         <v>5234840.2918640003</v>
       </c>
       <c r="D2225" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2226" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32458,7 +32479,7 @@
         <v>19371.636183999999</v>
       </c>
       <c r="D2226" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2227" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32472,7 +32493,7 @@
         <v>7071202.3349759998</v>
       </c>
       <c r="D2227" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2228" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32486,7 +32507,7 @@
         <v>55995.413984999999</v>
       </c>
       <c r="D2228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2229" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32500,7 +32521,7 @@
         <v>3847490.8937929999</v>
       </c>
       <c r="D2229" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2230" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32514,7 +32535,7 @@
         <v>37946376</v>
       </c>
       <c r="D2230" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2231" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32528,7 +32549,7 @@
         <v>12115934.58323</v>
       </c>
       <c r="D2231" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2232" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32542,7 +32563,7 @@
         <v>15216114.544647999</v>
       </c>
       <c r="D2232" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2233" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32556,7 +32577,7 @@
         <v>26116191.230976</v>
       </c>
       <c r="D2233" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2234" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32570,7 +32591,7 @@
         <v>137840.08250700001</v>
       </c>
       <c r="D2234" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2235" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32584,7 +32605,7 @@
         <v>499894.40195999999</v>
       </c>
       <c r="D2235" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2236" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32598,7 +32619,7 @@
         <v>19348.871190000002</v>
       </c>
       <c r="D2236" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2237" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32612,7 +32633,7 @@
         <v>1011919</v>
       </c>
       <c r="D2237" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2238" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32626,7 +32647,7 @@
         <v>53421673.824167997</v>
       </c>
       <c r="D2238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2239" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32640,7 +32661,7 @@
         <v>34118423.837894998</v>
       </c>
       <c r="D2239" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2240" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32654,7 +32675,7 @@
         <v>40066578.811304003</v>
       </c>
       <c r="D2240" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2241" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32668,7 +32689,7 @@
         <v>262836.26764600002</v>
       </c>
       <c r="D2241" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2242" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32682,7 +32703,7 @@
         <v>113672.122434</v>
       </c>
       <c r="D2242" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2243" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32696,7 +32717,7 @@
         <v>4001817.0280019999</v>
       </c>
       <c r="D2243" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2244" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32710,7 +32731,7 @@
         <v>15515692.071632</v>
       </c>
       <c r="D2244" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2245" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32724,7 +32745,7 @@
         <v>369061</v>
       </c>
       <c r="D2245" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2246" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32738,7 +32759,7 @@
         <v>1365856.3669429999</v>
       </c>
       <c r="D2246" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2247" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32752,12 +32773,12 @@
         <v>66032.746627</v>
       </c>
       <c r="D2247" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2248" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2248" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2248" s="4" t="s">
         <v>52</v>
@@ -32766,7 +32787,7 @@
         <v>115074.20899299999</v>
       </c>
       <c r="D2248" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2249" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32780,7 +32801,7 @@
         <v>512225.53216200002</v>
       </c>
       <c r="D2249" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2250" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32794,7 +32815,7 @@
         <v>88881.621358000004</v>
       </c>
       <c r="D2250" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2251" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32808,7 +32829,7 @@
         <v>132057.45557799999</v>
       </c>
       <c r="D2251" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2252" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32822,7 +32843,7 @@
         <v>5022770.1068850001</v>
       </c>
       <c r="D2252" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2253" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32836,7 +32857,7 @@
         <v>1067629.115856</v>
       </c>
       <c r="D2253" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2254" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32850,7 +32871,7 @@
         <v>54574.350719000002</v>
       </c>
       <c r="D2254" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2255" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32864,7 +32885,7 @@
         <v>4450545.3830300001</v>
       </c>
       <c r="D2255" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2256" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32878,7 +32899,7 @@
         <v>8402994.8499999996</v>
       </c>
       <c r="D2256" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2257" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32892,7 +32913,7 @@
         <v>130517.27036900001</v>
       </c>
       <c r="D2257" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2258" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32906,7 +32927,7 @@
         <v>1413727.0095240001</v>
       </c>
       <c r="D2258" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2259" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32920,7 +32941,7 @@
         <v>168546.766588</v>
       </c>
       <c r="D2259" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2260" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32934,7 +32955,7 @@
         <v>14607852.757879</v>
       </c>
       <c r="D2260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2261" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32948,7 +32969,7 @@
         <v>29546808.599208001</v>
       </c>
       <c r="D2261" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2262" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32962,7 +32983,7 @@
         <v>6924042.3563980004</v>
       </c>
       <c r="D2262" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2263" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32976,7 +32997,7 @@
         <v>2883602.3507340001</v>
       </c>
       <c r="D2263" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2264" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32990,7 +33011,7 @@
         <v>168585.101497</v>
       </c>
       <c r="D2264" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2265" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33004,7 +33025,7 @@
         <v>665112.94640999998</v>
       </c>
       <c r="D2265" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2266" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33018,7 +33039,7 @@
         <v>740404.72</v>
       </c>
       <c r="D2266" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2267" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33032,7 +33053,7 @@
         <v>1429413.8650239999</v>
       </c>
       <c r="D2267" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2268" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33046,7 +33067,7 @@
         <v>875396.01248100004</v>
       </c>
       <c r="D2268" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2269" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33060,7 +33081,7 @@
         <v>330468.36790700001</v>
       </c>
       <c r="D2269" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2270" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33074,7 +33095,7 @@
         <v>999966.46</v>
       </c>
       <c r="D2270" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2271" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -33086,7 +33107,7 @@
         <v>1478537663.1100469</v>
       </c>
       <c r="D2271" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2272" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33100,7 +33121,7 @@
         <v>205353.53984400001</v>
       </c>
       <c r="D2272" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2273" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33114,7 +33135,7 @@
         <v>734536.58441600006</v>
       </c>
       <c r="D2273" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2274" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33128,7 +33149,7 @@
         <v>116944.24957</v>
       </c>
       <c r="D2274" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2275" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33142,7 +33163,7 @@
         <v>87861.503631</v>
       </c>
       <c r="D2275" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2276" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33156,7 +33177,7 @@
         <v>1619697.46373</v>
       </c>
       <c r="D2276" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2277" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33170,7 +33191,7 @@
         <v>169991.07304399999</v>
       </c>
       <c r="D2277" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2278" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33184,12 +33205,12 @@
         <v>21794.889236999999</v>
       </c>
       <c r="D2278" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2279" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2279" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2279" s="4" t="s">
         <v>79</v>
@@ -33198,7 +33219,7 @@
         <v>3074.082371</v>
       </c>
       <c r="D2279" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2280" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33212,7 +33233,7 @@
         <v>116825.148315</v>
       </c>
       <c r="D2280" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2281" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33226,7 +33247,7 @@
         <v>137344.14084000001</v>
       </c>
       <c r="D2281" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2282" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33240,7 +33261,7 @@
         <v>170903.64576000001</v>
       </c>
       <c r="D2282" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2283" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33254,7 +33275,7 @@
         <v>656363.591258</v>
       </c>
       <c r="D2283" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2284" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33268,7 +33289,7 @@
         <v>374413.44447599998</v>
       </c>
       <c r="D2284" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2285" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33282,7 +33303,7 @@
         <v>175110.57832500001</v>
       </c>
       <c r="D2285" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2286" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33296,7 +33317,7 @@
         <v>62893.773381999999</v>
       </c>
       <c r="D2286" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2287" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33310,7 +33331,7 @@
         <v>288611.15676400001</v>
       </c>
       <c r="D2287" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2288" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33324,7 +33345,7 @@
         <v>107234.333464</v>
       </c>
       <c r="D2288" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2289" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33338,7 +33359,7 @@
         <v>195306.93151200001</v>
       </c>
       <c r="D2289" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2290" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33352,7 +33373,7 @@
         <v>138715.15928299999</v>
       </c>
       <c r="D2290" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2291" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33366,7 +33387,7 @@
         <v>821731.00082299998</v>
       </c>
       <c r="D2291" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2292" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33380,11 +33401,11 @@
         <v>338117.05595200002</v>
       </c>
       <c r="D2292" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2293" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A2293" s="20"/>
+      <c r="A2293" s="23"/>
       <c r="B2293" s="6" t="s">
         <v>94</v>
       </c>
@@ -33392,7 +33413,7 @@
         <v>6542823.345997001</v>
       </c>
       <c r="D2293" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2294" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33406,7 +33427,7 @@
         <v>299469.49306800001</v>
       </c>
       <c r="D2294" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2295" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33420,7 +33441,7 @@
         <v>143286.053594</v>
       </c>
       <c r="D2295" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2296" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33434,7 +33455,7 @@
         <v>730696.26979100006</v>
       </c>
       <c r="D2296" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2297" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33448,7 +33469,7 @@
         <v>1499736.323478</v>
       </c>
       <c r="D2297" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2298" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33462,7 +33483,7 @@
         <v>495209.69594000001</v>
       </c>
       <c r="D2298" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2299" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33476,7 +33497,7 @@
         <v>46017.31061</v>
       </c>
       <c r="D2299" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2300" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33490,7 +33511,7 @@
         <v>290966.01605199999</v>
       </c>
       <c r="D2300" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2301" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33504,7 +33525,7 @@
         <v>1900350.038674</v>
       </c>
       <c r="D2301" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2302" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33518,7 +33539,7 @@
         <v>528591.53560499998</v>
       </c>
       <c r="D2302" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2303" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33532,7 +33553,7 @@
         <v>151544.08617600001</v>
       </c>
       <c r="D2303" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2304" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33546,7 +33567,7 @@
         <v>215478.85699</v>
       </c>
       <c r="D2304" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2305" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33560,7 +33581,7 @@
         <v>297059.14045499999</v>
       </c>
       <c r="D2305" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2306" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33574,7 +33595,7 @@
         <v>229368.67682399999</v>
       </c>
       <c r="D2306" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2307" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33588,7 +33609,7 @@
         <v>279665.44126499997</v>
       </c>
       <c r="D2307" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2308" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33602,7 +33623,7 @@
         <v>654203.60750799999</v>
       </c>
       <c r="D2308" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2309" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33616,7 +33637,7 @@
         <v>213187.14449400001</v>
       </c>
       <c r="D2309" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2310" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33630,7 +33651,7 @@
         <v>137485.213655</v>
       </c>
       <c r="D2310" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2311" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33644,7 +33665,7 @@
         <v>95459.149558000005</v>
       </c>
       <c r="D2311" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2312" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33658,7 +33679,7 @@
         <v>171413.81807499999</v>
       </c>
       <c r="D2312" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2313" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33672,7 +33693,7 @@
         <v>196037.59911899999</v>
       </c>
       <c r="D2313" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2314" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33686,7 +33707,7 @@
         <v>286871.56808499998</v>
       </c>
       <c r="D2314" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2315" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33700,7 +33721,7 @@
         <v>1864112.0931180001</v>
       </c>
       <c r="D2315" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2316" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33714,7 +33735,7 @@
         <v>457260.79483700002</v>
       </c>
       <c r="D2316" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2317" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33728,7 +33749,7 @@
         <v>85275.903235000005</v>
       </c>
       <c r="D2317" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2318" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33742,7 +33763,7 @@
         <v>136089.94800999999</v>
       </c>
       <c r="D2318" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2319" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33756,7 +33777,7 @@
         <v>363973.77386999998</v>
       </c>
       <c r="D2319" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2320" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33770,7 +33791,7 @@
         <v>333320.02264600003</v>
       </c>
       <c r="D2320" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2321" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33784,7 +33805,7 @@
         <v>228864.863736</v>
       </c>
       <c r="D2321" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2322" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33798,7 +33819,7 @@
         <v>106327.77297999999</v>
       </c>
       <c r="D2322" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2323" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33812,7 +33833,7 @@
         <v>243861.24286200001</v>
       </c>
       <c r="D2323" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2324" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33826,7 +33847,7 @@
         <v>1235776.400477</v>
       </c>
       <c r="D2324" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2325" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33840,7 +33861,7 @@
         <v>369642.95225999999</v>
       </c>
       <c r="D2325" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2326" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33854,7 +33875,7 @@
         <v>131398.02288</v>
       </c>
       <c r="D2326" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2327" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33868,7 +33889,7 @@
         <v>13646.526279</v>
       </c>
       <c r="D2327" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2328" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33882,7 +33903,7 @@
         <v>46147.505100000002</v>
       </c>
       <c r="D2328" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2329" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33896,7 +33917,7 @@
         <v>8056.3969619999998</v>
       </c>
       <c r="D2329" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2330" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33910,7 +33931,7 @@
         <v>323915.95236</v>
       </c>
       <c r="D2330" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2331" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33924,7 +33945,7 @@
         <v>721249.70968199999</v>
       </c>
       <c r="D2331" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2332" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33938,7 +33959,7 @@
         <v>242913.68054900001</v>
       </c>
       <c r="D2332" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2333" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33952,7 +33973,7 @@
         <v>328010.02700599999</v>
       </c>
       <c r="D2333" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2334" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33966,7 +33987,7 @@
         <v>173489.82912000001</v>
       </c>
       <c r="D2334" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2335" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33980,7 +34001,7 @@
         <v>335650.92968399997</v>
       </c>
       <c r="D2335" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2336" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33994,7 +34015,7 @@
         <v>123801.301788</v>
       </c>
       <c r="D2336" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2337" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34008,7 +34029,7 @@
         <v>198282.62124800001</v>
       </c>
       <c r="D2337" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2338" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34022,7 +34043,7 @@
         <v>260686.20697900001</v>
       </c>
       <c r="D2338" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2339" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34036,7 +34057,7 @@
         <v>596746.52977999998</v>
       </c>
       <c r="D2339" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2340" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34050,7 +34071,7 @@
         <v>344947.16625800001</v>
       </c>
       <c r="D2340" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2341" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34064,7 +34085,7 @@
         <v>181610.181507</v>
       </c>
       <c r="D2341" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2342" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34078,7 +34099,7 @@
         <v>285357.61719000002</v>
       </c>
       <c r="D2342" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2343" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34092,7 +34113,7 @@
         <v>99557.363123000003</v>
       </c>
       <c r="D2343" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2344" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34106,7 +34127,7 @@
         <v>642148.21921500005</v>
       </c>
       <c r="D2344" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2345" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34120,7 +34141,7 @@
         <v>129839.950788</v>
       </c>
       <c r="D2345" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2346" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34134,7 +34155,7 @@
         <v>278215.44458000001</v>
       </c>
       <c r="D2346" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2347" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34148,7 +34169,7 @@
         <v>14329.203095999999</v>
       </c>
       <c r="D2347" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2348" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34162,7 +34183,7 @@
         <v>323453.26351000002</v>
       </c>
       <c r="D2348" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2349" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34176,7 +34197,7 @@
         <v>133662.53419199999</v>
       </c>
       <c r="D2349" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2350" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34190,7 +34211,7 @@
         <v>128617.25698599999</v>
       </c>
       <c r="D2350" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2351" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34204,7 +34225,7 @@
         <v>137420.22054400001</v>
       </c>
       <c r="D2351" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2352" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34218,7 +34239,7 @@
         <v>215840.568336</v>
       </c>
       <c r="D2352" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2353" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34232,7 +34253,7 @@
         <v>324110.23677199997</v>
       </c>
       <c r="D2353" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2354" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34246,7 +34267,7 @@
         <v>64420.634844</v>
       </c>
       <c r="D2354" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2355" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34260,7 +34281,7 @@
         <v>140846.24209499999</v>
       </c>
       <c r="D2355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2356" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34274,7 +34295,7 @@
         <v>103312.71614600001</v>
       </c>
       <c r="D2356" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2357" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34288,7 +34309,7 @@
         <v>41904.755899999996</v>
       </c>
       <c r="D2357" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2358" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34302,7 +34323,7 @@
         <v>1267160.263602</v>
       </c>
       <c r="D2358" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2359" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34316,11 +34337,11 @@
         <v>275105.24923800002</v>
       </c>
       <c r="D2359" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2360" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2360" s="21"/>
+      <c r="A2360" s="24"/>
       <c r="B2360" s="6" t="s">
         <v>183</v>
       </c>
@@ -34328,7 +34349,7 @@
         <v>22922457.134385999</v>
       </c>
       <c r="D2360" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2361" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34340,7 +34361,7 @@
         <v>1508002943.5904298</v>
       </c>
       <c r="D2361" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2362" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34354,7 +34375,7 @@
         <v>9549520.1011870001</v>
       </c>
       <c r="D2362" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2363" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34368,7 +34389,7 @@
         <v>20929178.712777998</v>
       </c>
       <c r="D2363" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2364" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34382,7 +34403,7 @@
         <v>148557.01100100001</v>
       </c>
       <c r="D2364" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2365" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34396,7 +34417,7 @@
         <v>1603378.848859</v>
       </c>
       <c r="D2365" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2366" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34410,7 +34431,7 @@
         <v>293007.43504100002</v>
       </c>
       <c r="D2366" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2367" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34424,7 +34445,7 @@
         <v>92009911.935580999</v>
       </c>
       <c r="D2367" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2368" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34438,7 +34459,7 @@
         <v>2071713.1036159999</v>
       </c>
       <c r="D2368" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2369" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34452,7 +34473,7 @@
         <v>4992920.7846449995</v>
       </c>
       <c r="D2369" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2370" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34466,7 +34487,7 @@
         <v>147940080.89303601</v>
       </c>
       <c r="D2370" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2371" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34480,7 +34501,7 @@
         <v>10466952.123675</v>
       </c>
       <c r="D2371" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2372" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34494,7 +34515,7 @@
         <v>8926662.5234099999</v>
       </c>
       <c r="D2372" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2373" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34508,7 +34529,7 @@
         <v>940810</v>
       </c>
       <c r="D2373" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2374" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34522,7 +34543,7 @@
         <v>258419146.46348</v>
       </c>
       <c r="D2374" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2375" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34536,7 +34557,7 @@
         <v>60283017.178355999</v>
       </c>
       <c r="D2375" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2376" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34550,7 +34571,7 @@
         <v>104532.425347</v>
       </c>
       <c r="D2376" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2377" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34564,7 +34585,7 @@
         <v>982122.03009799996</v>
       </c>
       <c r="D2377" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2378" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34578,7 +34599,7 @@
         <v>46043455.606830999</v>
       </c>
       <c r="D2378" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2379" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34592,7 +34613,7 @@
         <v>792925.34265500004</v>
       </c>
       <c r="D2379" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2380" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34606,7 +34627,7 @@
         <v>40366055.459137</v>
       </c>
       <c r="D2380" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2381" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34620,7 +34641,7 @@
         <v>5344420</v>
       </c>
       <c r="D2381" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2382" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34634,7 +34655,7 @@
         <v>15105440.810086001</v>
       </c>
       <c r="D2382" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2383" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34648,7 +34669,7 @@
         <v>35008243</v>
       </c>
       <c r="D2383" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2384" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34662,7 +34683,7 @@
         <v>42977575.557499997</v>
       </c>
       <c r="D2384" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2385" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34676,7 +34697,7 @@
         <v>104152985.5308</v>
       </c>
       <c r="D2385" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2386" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34690,7 +34711,7 @@
         <v>150474130.40263399</v>
       </c>
       <c r="D2386" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2387" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34704,7 +34725,7 @@
         <v>55108922.911481999</v>
       </c>
       <c r="D2387" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2388" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34718,7 +34739,7 @@
         <v>9108637.3793480005</v>
       </c>
       <c r="D2388" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2389" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34732,7 +34753,7 @@
         <v>20085537.927951999</v>
       </c>
       <c r="D2389" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2390" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34746,12 +34767,12 @@
         <v>202265.02638</v>
       </c>
       <c r="D2390" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2391" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2391" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2391" s="4" t="s">
         <v>29</v>
@@ -34760,7 +34781,7 @@
         <v>5841.4672810000002</v>
       </c>
       <c r="D2391" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2392" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34774,7 +34795,7 @@
         <v>4561601.9064959995</v>
       </c>
       <c r="D2392" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2393" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34788,7 +34809,7 @@
         <v>18596.008147</v>
       </c>
       <c r="D2393" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2394" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34802,7 +34823,7 @@
         <v>8203967.8150079995</v>
       </c>
       <c r="D2394" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2395" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34816,7 +34837,7 @@
         <v>53092.002992000002</v>
       </c>
       <c r="D2395" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2396" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34830,7 +34851,7 @@
         <v>4655332.7238499997</v>
       </c>
       <c r="D2396" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2397" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34844,7 +34865,7 @@
         <v>39484368</v>
       </c>
       <c r="D2397" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2398" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34858,7 +34879,7 @@
         <v>12376729.613737</v>
       </c>
       <c r="D2398" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2399" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34872,7 +34893,7 @@
         <v>17435241.777222</v>
       </c>
       <c r="D2399" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2400" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34886,7 +34907,7 @@
         <v>28390858.642930001</v>
       </c>
       <c r="D2400" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2401" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34900,7 +34921,7 @@
         <v>133648.73141099999</v>
       </c>
       <c r="D2401" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2402" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34914,7 +34935,7 @@
         <v>506475.31251299998</v>
       </c>
       <c r="D2402" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2403" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34928,7 +34949,7 @@
         <v>1028394.4</v>
       </c>
       <c r="D2403" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2404" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34942,7 +34963,7 @@
         <v>51098561.997280002</v>
       </c>
       <c r="D2404" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2405" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34956,7 +34977,7 @@
         <v>35209113.805843003</v>
       </c>
       <c r="D2405" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2406" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34970,7 +34991,7 @@
         <v>40196982.279611997</v>
       </c>
       <c r="D2406" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2407" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34984,7 +35005,7 @@
         <v>246369.355549</v>
       </c>
       <c r="D2407" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2408" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34998,7 +35019,7 @@
         <v>122571.502756</v>
       </c>
       <c r="D2408" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2409" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35012,7 +35033,7 @@
         <v>4055750.0119520002</v>
       </c>
       <c r="D2409" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2410" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35026,7 +35047,7 @@
         <v>16449900.047220999</v>
       </c>
       <c r="D2410" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2411" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35040,7 +35061,7 @@
         <v>360900</v>
       </c>
       <c r="D2411" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2412" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35054,7 +35075,7 @@
         <v>1449419.669894</v>
       </c>
       <c r="D2412" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2413" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35068,7 +35089,7 @@
         <v>70422.629077000005</v>
       </c>
       <c r="D2413" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2414" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35082,7 +35103,7 @@
         <v>115074.20899299999</v>
       </c>
       <c r="D2414" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2415" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35096,7 +35117,7 @@
         <v>693265.69452799996</v>
       </c>
       <c r="D2415" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2416" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35110,7 +35131,7 @@
         <v>88573.687678000002</v>
       </c>
       <c r="D2416" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2417" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35124,7 +35145,7 @@
         <v>153127.84922900001</v>
       </c>
       <c r="D2417" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2418" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35138,7 +35159,7 @@
         <v>5567394.1984409997</v>
       </c>
       <c r="D2418" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2419" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35152,7 +35173,7 @@
         <v>1102967.520614</v>
       </c>
       <c r="D2419" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2420" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35166,7 +35187,7 @@
         <v>52314.568988999999</v>
       </c>
       <c r="D2420" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2421" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35180,7 +35201,7 @@
         <v>5116331.6141950004</v>
       </c>
       <c r="D2421" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2422" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35194,7 +35215,7 @@
         <v>8702994.8499999996</v>
       </c>
       <c r="D2422" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2423" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35208,7 +35229,7 @@
         <v>132188.264222</v>
       </c>
       <c r="D2423" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2424" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35222,7 +35243,7 @@
         <v>1387044.1421389999</v>
       </c>
       <c r="D2424" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2425" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35236,7 +35257,7 @@
         <v>174966.56366799999</v>
       </c>
       <c r="D2425" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2426" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35250,7 +35271,7 @@
         <v>14068903.047715999</v>
       </c>
       <c r="D2426" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2427" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35264,7 +35285,7 @@
         <v>33172246.757263001</v>
       </c>
       <c r="D2427" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2428" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35278,7 +35299,7 @@
         <v>7535924.7956950003</v>
       </c>
       <c r="D2428" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2429" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35292,7 +35313,7 @@
         <v>2919979.980579</v>
       </c>
       <c r="D2429" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2430" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35306,7 +35327,7 @@
         <v>163908.77079800001</v>
       </c>
       <c r="D2430" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2431" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35320,7 +35341,7 @@
         <v>698439.66247800004</v>
       </c>
       <c r="D2431" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2432" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35334,7 +35355,7 @@
         <v>760439.7</v>
       </c>
       <c r="D2432" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2433" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35348,7 +35369,7 @@
         <v>529336.07406400004</v>
       </c>
       <c r="D2433" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2434" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35362,7 +35383,7 @@
         <v>952569</v>
       </c>
       <c r="D2434" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2435" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35376,7 +35397,7 @@
         <v>336460.12516699999</v>
       </c>
       <c r="D2435" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2436" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35390,7 +35411,7 @@
         <v>1403666.46</v>
       </c>
       <c r="D2436" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2437" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -35402,7 +35423,7 @@
         <v>1496374363.7621424</v>
       </c>
       <c r="D2437" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2438" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35416,7 +35437,7 @@
         <v>223351.637361</v>
       </c>
       <c r="D2438" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2439" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35430,7 +35451,7 @@
         <v>865860.84575900005</v>
       </c>
       <c r="D2439" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2440" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35444,7 +35465,7 @@
         <v>128436.39357499999</v>
       </c>
       <c r="D2440" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2441" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35458,7 +35479,7 @@
         <v>89202.608439999996</v>
       </c>
       <c r="D2441" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2442" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35472,7 +35493,7 @@
         <v>1754648.5195889999</v>
       </c>
       <c r="D2442" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2443" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35486,7 +35507,7 @@
         <v>181151.88874600001</v>
       </c>
       <c r="D2443" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2444" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35500,7 +35521,7 @@
         <v>21794.889236999999</v>
       </c>
       <c r="D2444" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2445" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35514,7 +35535,7 @@
         <v>3074.082371</v>
       </c>
       <c r="D2445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2446" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35528,7 +35549,7 @@
         <v>169369.95499200001</v>
       </c>
       <c r="D2446" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2447" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35542,7 +35563,7 @@
         <v>184613.82199999999</v>
       </c>
       <c r="D2447" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2448" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35556,7 +35577,7 @@
         <v>183196.32577</v>
       </c>
       <c r="D2448" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2449" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35570,7 +35591,7 @@
         <v>630727.84787399997</v>
       </c>
       <c r="D2449" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2450" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35584,7 +35605,7 @@
         <v>395624.86500599998</v>
       </c>
       <c r="D2450" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2451" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35598,7 +35619,7 @@
         <v>180661.31964999999</v>
       </c>
       <c r="D2451" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2452" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35612,7 +35633,7 @@
         <v>65332.583851000003</v>
       </c>
       <c r="D2452" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2453" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35626,7 +35647,7 @@
         <v>307524.12539399997</v>
       </c>
       <c r="D2453" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2454" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35640,7 +35661,7 @@
         <v>111215.047993</v>
       </c>
       <c r="D2454" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2455" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35654,7 +35675,7 @@
         <v>225206.12055200001</v>
       </c>
       <c r="D2455" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2456" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35668,7 +35689,7 @@
         <v>151003.46076700001</v>
       </c>
       <c r="D2456" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2457" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35682,7 +35703,7 @@
         <v>847524.37166299997</v>
       </c>
       <c r="D2457" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2458" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35696,11 +35717,11 @@
         <v>367914.62724200002</v>
       </c>
       <c r="D2458" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2459" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A2459" s="20"/>
+      <c r="A2459" s="23"/>
       <c r="B2459" s="6" t="s">
         <v>94</v>
       </c>
@@ -35708,7 +35729,7 @@
         <v>7087435.3378319992</v>
       </c>
       <c r="D2459" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2460" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35722,7 +35743,7 @@
         <v>320390.68819900003</v>
       </c>
       <c r="D2460" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2461" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35736,7 +35757,7 @@
         <v>155638.53739400001</v>
       </c>
       <c r="D2461" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2462" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35750,7 +35771,7 @@
         <v>801290.16316600004</v>
       </c>
       <c r="D2462" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2463" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35764,7 +35785,7 @@
         <v>1750944.3272160001</v>
       </c>
       <c r="D2463" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2464" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35778,7 +35799,7 @@
         <v>569595.66834099998</v>
       </c>
       <c r="D2464" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2465" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35792,7 +35813,7 @@
         <v>44661.429826</v>
       </c>
       <c r="D2465" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2466" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35806,7 +35827,7 @@
         <v>313592.30272600002</v>
       </c>
       <c r="D2466" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2467" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35820,7 +35841,7 @@
         <v>2383795.9710129998</v>
       </c>
       <c r="D2467" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2468" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35834,7 +35855,7 @@
         <v>739678.91059900005</v>
       </c>
       <c r="D2468" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2469" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35848,7 +35869,7 @@
         <v>161102.57548</v>
       </c>
       <c r="D2469" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2470" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35862,7 +35883,7 @@
         <v>230757.207406</v>
       </c>
       <c r="D2470" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2471" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35876,7 +35897,7 @@
         <v>328126.13981000002</v>
       </c>
       <c r="D2471" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2472" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35890,7 +35911,7 @@
         <v>252563.405019</v>
       </c>
       <c r="D2472" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2473" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35904,7 +35925,7 @@
         <v>316648.42948200001</v>
       </c>
       <c r="D2473" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2474" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35918,7 +35939,7 @@
         <v>701714.56872400001</v>
       </c>
       <c r="D2474" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2475" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35932,7 +35953,7 @@
         <v>261211.557974</v>
       </c>
       <c r="D2475" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2476" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35946,7 +35967,7 @@
         <v>150221.48257299999</v>
       </c>
       <c r="D2476" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2477" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35960,7 +35981,7 @@
         <v>101869.851026</v>
       </c>
       <c r="D2477" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2478" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35974,7 +35995,7 @@
         <v>184037.45382299999</v>
       </c>
       <c r="D2478" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2479" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35988,7 +36009,7 @@
         <v>209213.04334400001</v>
       </c>
       <c r="D2479" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2480" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36002,7 +36023,7 @@
         <v>321288.90444900002</v>
       </c>
       <c r="D2480" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2481" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36016,7 +36037,7 @@
         <v>2593162.9826250002</v>
       </c>
       <c r="D2481" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2482" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36030,7 +36051,7 @@
         <v>488376.97308700002</v>
       </c>
       <c r="D2482" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2483" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36044,7 +36065,7 @@
         <v>93429.998489000005</v>
       </c>
       <c r="D2483" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2484" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36058,7 +36079,7 @@
         <v>149235.055979</v>
       </c>
       <c r="D2484" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2485" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36072,7 +36093,7 @@
         <v>389848.22743000003</v>
       </c>
       <c r="D2485" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2486" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36086,7 +36107,7 @@
         <v>356394.08342500002</v>
       </c>
       <c r="D2486" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2487" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36100,7 +36121,7 @@
         <v>262398.46358400001</v>
       </c>
       <c r="D2487" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2488" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36114,7 +36135,7 @@
         <v>114883.244343</v>
       </c>
       <c r="D2488" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2489" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36128,7 +36149,7 @@
         <v>220420.02730399999</v>
       </c>
       <c r="D2489" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2490" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36142,7 +36163,7 @@
         <v>1307868.656188</v>
       </c>
       <c r="D2490" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2491" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36156,7 +36177,7 @@
         <v>412777.93995000003</v>
       </c>
       <c r="D2491" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2492" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36170,7 +36191,7 @@
         <v>131118.372133</v>
       </c>
       <c r="D2492" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2493" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36184,7 +36205,7 @@
         <v>15396.002354</v>
       </c>
       <c r="D2493" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2494" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36198,7 +36219,7 @@
         <v>53624.725904999999</v>
       </c>
       <c r="D2494" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2495" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36212,7 +36233,7 @@
         <v>8668.2121659999993</v>
       </c>
       <c r="D2495" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2496" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36226,7 +36247,7 @@
         <v>455590.87473799998</v>
       </c>
       <c r="D2496" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2497" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36240,7 +36261,7 @@
         <v>921416.69287200004</v>
       </c>
       <c r="D2497" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2498" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36254,7 +36275,7 @@
         <v>288790.75331499998</v>
       </c>
       <c r="D2498" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2499" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36268,7 +36289,7 @@
         <v>463380.86674600001</v>
       </c>
       <c r="D2499" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2500" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36282,7 +36303,7 @@
         <v>191853.91209599999</v>
       </c>
       <c r="D2500" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2501" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36296,7 +36317,7 @@
         <v>368992.91330800002</v>
       </c>
       <c r="D2501" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2502" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36310,7 +36331,7 @@
         <v>118415.699314</v>
       </c>
       <c r="D2502" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2503" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36324,7 +36345,7 @@
         <v>223529.60632699999</v>
       </c>
       <c r="D2503" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2504" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36338,7 +36359,7 @@
         <v>308680.31404000003</v>
       </c>
       <c r="D2504" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2505" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36352,7 +36373,7 @@
         <v>899501.20453700004</v>
       </c>
       <c r="D2505" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2506" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36366,7 +36387,7 @@
         <v>346445.67369999998</v>
       </c>
       <c r="D2506" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2507" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36380,7 +36401,7 @@
         <v>203169.757679</v>
       </c>
       <c r="D2507" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2508" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36394,7 +36415,7 @@
         <v>305142.23978599999</v>
       </c>
       <c r="D2508" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2509" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36408,7 +36429,7 @@
         <v>104513.442796</v>
       </c>
       <c r="D2509" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2510" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36422,7 +36443,7 @@
         <v>738183.86963199999</v>
       </c>
       <c r="D2510" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2511" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36436,7 +36457,7 @@
         <v>129839.950788</v>
       </c>
       <c r="D2511" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2512" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36450,7 +36471,7 @@
         <v>299672.07417600002</v>
       </c>
       <c r="D2512" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2513" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36464,7 +36485,7 @@
         <v>15778.148762999999</v>
       </c>
       <c r="D2513" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2514" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36478,7 +36499,7 @@
         <v>351625.66759000003</v>
       </c>
       <c r="D2514" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2515" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36492,7 +36513,7 @@
         <v>164073.19625000001</v>
       </c>
       <c r="D2515" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2516" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36506,7 +36527,7 @@
         <v>138361.93794900001</v>
       </c>
       <c r="D2516" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2517" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36520,7 +36541,7 @@
         <v>145663.31798399999</v>
       </c>
       <c r="D2517" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2518" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36534,7 +36555,7 @@
         <v>242673.259647</v>
       </c>
       <c r="D2518" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2519" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36548,7 +36569,7 @@
         <v>339974.02837800002</v>
       </c>
       <c r="D2519" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2520" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36562,7 +36583,7 @@
         <v>68570.560696</v>
       </c>
       <c r="D2520" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2521" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36576,7 +36597,7 @@
         <v>155998.633783</v>
       </c>
       <c r="D2521" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2522" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36590,7 +36611,7 @@
         <v>108573.10085</v>
       </c>
       <c r="D2522" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2523" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36604,7 +36625,7 @@
         <v>49426.497750000002</v>
       </c>
       <c r="D2523" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2524" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36618,7 +36639,7 @@
         <v>1561302.1277610001</v>
       </c>
       <c r="D2524" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2525" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36632,11 +36653,11 @@
         <v>275303.96163899999</v>
       </c>
       <c r="D2525" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2526" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2526" s="21"/>
+      <c r="A2526" s="24"/>
       <c r="B2526" s="6" t="s">
         <v>183</v>
       </c>
@@ -36644,7 +36665,7 @@
         <v>26880389.867442001</v>
       </c>
       <c r="D2526" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2527" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36656,7 +36677,2323 @@
         <v>1530342188.9674165</v>
       </c>
       <c r="D2527" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2528" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2528" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2528" s="9">
+        <v>9968481.1342990007</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2529" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2529" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2529" s="10">
+        <v>20233398.355317</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2530" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2530" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2530" s="9">
+        <v>150018.042888</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2531" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2531" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2531" s="10">
+        <v>1663081.4682519999</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2532" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2532" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2532" s="9">
+        <v>293007.43504100002</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2533" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2533" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2533" s="10">
+        <v>89764576.957733005</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2534" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2534" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2534" s="9">
+        <v>1837403.377625</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2535" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2535" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2535" s="10">
+        <v>5002105.2635209998</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2536" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2536" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2536" s="9">
+        <v>143225555.759455</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2537" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2537" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2537" s="10">
+        <v>10762362.30893</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2538" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2538" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2538" s="9">
+        <v>9844652.9604289997</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2539" s="3">
+        <v>12</v>
+      </c>
+      <c r="B2539" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2539" s="10">
+        <v>922599</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2540" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2540" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2540" s="9">
+        <v>256049843.042932</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2541" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2541" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2541" s="10">
+        <v>60221658.507969998</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2542" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2542" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2542" s="9">
+        <v>106376.93724699999</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2543" s="3">
+        <v>16</v>
+      </c>
+      <c r="B2543" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2543" s="10">
+        <v>961502.76821300003</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2544" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2544" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2544" s="9">
+        <v>49822679.559540004</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2545" s="3">
+        <v>18</v>
+      </c>
+      <c r="B2545" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2545" s="10">
+        <v>873618.03592199995</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2546" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2546" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2546" s="9">
+        <v>40299601.688037001</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2547" s="3">
+        <v>20</v>
+      </c>
+      <c r="B2547" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2547" s="10">
+        <v>5161108</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2548" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2548" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2548" s="9">
+        <v>15963636.229054</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2549" s="3">
+        <v>22</v>
+      </c>
+      <c r="B2549" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2549" s="10">
+        <v>37419387</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2550" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2550" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2550" s="9">
+        <v>44935978.699584</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2551" s="3">
+        <v>24</v>
+      </c>
+      <c r="B2551" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2551" s="10">
+        <v>104186160.942416</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2552" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2552" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2552" s="9">
+        <v>149245452.680107</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2553" s="3">
+        <v>26</v>
+      </c>
+      <c r="B2553" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2553" s="10">
+        <v>59222790.883423001</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2554" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2554" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2554" s="9">
+        <v>9683950.2465499993</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2555" s="3">
+        <v>28</v>
+      </c>
+      <c r="B2555" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2555" s="10">
+        <v>20055633.56013</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2556" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2556" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2556" s="9">
+        <v>204992.828106</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2557" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2557" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2557" s="10">
+        <v>940</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2558" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2558" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2558" s="9">
+        <v>4344229.5695000002</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2559" s="3">
+        <v>32</v>
+      </c>
+      <c r="B2559" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2559" s="10">
+        <v>18830.996438999999</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2560" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2560" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2560" s="9">
+        <v>9050003.5348019991</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2561" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2561" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2561" s="10">
+        <v>55698.292747</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2562" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2562" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2562" s="9">
+        <v>4960807.7245319998</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2563" s="3">
+        <v>36</v>
+      </c>
+      <c r="B2563" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2563" s="10">
+        <v>39622982</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2564" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2564" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2564" s="9">
+        <v>12620853.740467001</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2565" s="3">
+        <v>38</v>
+      </c>
+      <c r="B2565" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2565" s="10">
+        <v>18748415.323594</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2566" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2566" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2566" s="9">
+        <v>29963103.160176001</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2567" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2567" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2567" s="10">
+        <v>208752.566769</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2568" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2568" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2568" s="9">
+        <v>603980.16197599994</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2569" s="3">
+        <v>42</v>
+      </c>
+      <c r="B2569" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2569" s="10">
+        <v>1022727.2</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2570" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2570" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2570" s="9">
+        <v>49155465.870159999</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2571" s="3">
+        <v>44</v>
+      </c>
+      <c r="B2571" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2571" s="10">
+        <v>37916696.660172001</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2572" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2572" s="9">
+        <v>40069831.197063997</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2573" s="3">
+        <v>46</v>
+      </c>
+      <c r="B2573" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2573" s="10">
+        <v>251534.73046699999</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2574" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2574" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2574" s="9">
+        <v>112971.9216</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2575" s="3">
+        <v>48</v>
+      </c>
+      <c r="B2575" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2575" s="10">
+        <v>4135177.1123449998</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2576" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2576" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2576" s="9">
+        <v>15354007</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2577" s="3">
+        <v>50</v>
+      </c>
+      <c r="B2577" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2577" s="10">
+        <v>373345</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2578" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2578" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2578" s="9">
+        <v>1907574.3643479999</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2579" s="3">
+        <v>52</v>
+      </c>
+      <c r="B2579" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2579" s="10">
+        <v>75202.200339000003</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2580" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2580" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2580" s="9">
+        <v>115074.20899299999</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2581" s="3">
+        <v>54</v>
+      </c>
+      <c r="B2581" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2581" s="10">
+        <v>771015.39344200003</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2582" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2582" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2582" s="9">
+        <v>89994.479745999997</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2583" s="3">
+        <v>56</v>
+      </c>
+      <c r="B2583" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2583" s="10">
+        <v>348943.28918999998</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2584" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2584" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2584" s="9">
+        <v>10095695.397617999</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2585" s="3">
+        <v>58</v>
+      </c>
+      <c r="B2585" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2585" s="10">
+        <v>1155949.7889050001</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2586" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2586" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2586" s="9">
+        <v>5214570.7245990001</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2587" s="3">
+        <v>60</v>
+      </c>
+      <c r="B2587" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2587" s="10">
+        <v>9208994.8499999996</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2588" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2588" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2588" s="9">
+        <v>126814.612519</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2589" s="3">
+        <v>62</v>
+      </c>
+      <c r="B2589" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2589" s="10">
+        <v>1366120.6628779999</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2590" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2590" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2590" s="9">
+        <v>159716.53432199999</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2591" s="3">
+        <v>64</v>
+      </c>
+      <c r="B2591" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2591" s="10">
+        <v>18399014</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2592" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2592" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2592" s="9">
+        <v>36394665.069729999</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2593" s="3">
+        <v>66</v>
+      </c>
+      <c r="B2593" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2593" s="10">
+        <v>10094194.356006</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2594" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2594" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2594" s="9">
+        <v>3009305.5749690002</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2595" s="3">
+        <v>68</v>
+      </c>
+      <c r="B2595" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2595" s="10">
+        <v>242275.54062300001</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2596" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2596" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2596" s="9">
+        <v>793823.63551299996</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2597" s="3">
+        <v>70</v>
+      </c>
+      <c r="B2597" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2597" s="10">
+        <v>749176.14</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2598" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2598" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2598" s="9">
+        <v>377471.38903600001</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2599" s="3">
+        <v>72</v>
+      </c>
+      <c r="B2599" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2599" s="10">
+        <v>1037164.681219</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2600" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2600" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2600" s="9">
+        <v>343179</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2601" s="3">
+        <v>74</v>
+      </c>
+      <c r="B2601" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2601" s="10">
+        <v>1700666.46</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2602" s="1"/>
+      <c r="B2602" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2602" s="11">
+        <v>1520448569.7895267</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2603" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2603" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2603" s="9">
+        <v>231356.08630200001</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2604" s="3">
+        <v>76</v>
+      </c>
+      <c r="B2604" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2604" s="10">
+        <v>871977.09296799998</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2605" s="1">
+        <v>77</v>
+      </c>
+      <c r="B2605" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2605" s="9">
+        <v>129558.184545</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2606" s="3">
+        <v>78</v>
+      </c>
+      <c r="B2606" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2606" s="10">
+        <v>92640.334214999995</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2607" s="1">
+        <v>79</v>
+      </c>
+      <c r="B2607" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2607" s="9">
+        <v>4802565.3486759998</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2608" s="3">
+        <v>80</v>
+      </c>
+      <c r="B2608" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2608" s="10">
+        <v>191792.62008399999</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2609" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2609" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2609" s="9">
+        <v>29356.377874999998</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2610" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2610" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2610" s="10">
+        <v>3074.082371</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2611" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2611" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2611" s="9">
+        <v>147925.155994</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2612" s="3">
+        <v>84</v>
+      </c>
+      <c r="B2612" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2612" s="10">
+        <v>203032.16664400001</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2613" s="1">
+        <v>85</v>
+      </c>
+      <c r="B2613" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2613" s="9">
+        <v>185494.26981999999</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2614" s="3">
+        <v>86</v>
+      </c>
+      <c r="B2614" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2614" s="10">
+        <v>667271.07148899999</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2615" s="1">
+        <v>87</v>
+      </c>
+      <c r="B2615" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2615" s="9">
+        <v>419742.65220700001</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2616" s="3">
+        <v>88</v>
+      </c>
+      <c r="B2616" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2616" s="10">
+        <v>192424.05489999999</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2617" s="1">
+        <v>89</v>
+      </c>
+      <c r="B2617" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2617" s="9">
+        <v>63530.381389000002</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2618" s="3">
+        <v>90</v>
+      </c>
+      <c r="B2618" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2618" s="10">
+        <v>311484.82296000002</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2619" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2619" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2619" s="9">
+        <v>110529.02137</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2620" s="3">
+        <v>92</v>
+      </c>
+      <c r="B2620" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2620" s="10">
+        <v>235367.815332</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2621" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2621" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2621" s="9">
+        <v>153130.56446299999</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2622" s="3">
+        <v>94</v>
+      </c>
+      <c r="B2622" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2622" s="10">
+        <v>926149.78000200004</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2623" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2623" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2623" s="9">
+        <v>383377.35838599998</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2624" s="23"/>
+      <c r="B2624" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2624" s="11">
+        <v>10351779.241992</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2625" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2625" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2625" s="9">
+        <v>388521.27912899997</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2626" s="3">
+        <v>97</v>
+      </c>
+      <c r="B2626" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2626" s="10">
+        <v>168761.94940400001</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2627" s="1">
+        <v>98</v>
+      </c>
+      <c r="B2627" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2627" s="9">
+        <v>784782.60105499998</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2628" s="3">
+        <v>99</v>
+      </c>
+      <c r="B2628" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2628" s="10">
+        <v>1955242.1671849999</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2629" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2629" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2629" s="9">
+        <v>638363.80251199997</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2630" s="3">
+        <v>101</v>
+      </c>
+      <c r="B2630" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2630" s="10">
+        <v>111070.19087999999</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2631" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2631" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2631" s="9">
+        <v>310802.94213600003</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2632" s="3">
+        <v>103</v>
+      </c>
+      <c r="B2632" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2632" s="10">
+        <v>2601332.848119</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2633" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2633" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2633" s="9">
+        <v>943094.54501799995</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2634" s="3">
+        <v>105</v>
+      </c>
+      <c r="B2634" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2634" s="10">
+        <v>157809.98869500001</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2635" s="1">
+        <v>106</v>
+      </c>
+      <c r="B2635" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2635" s="9">
+        <v>243829.04500799999</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2636" s="3">
+        <v>107</v>
+      </c>
+      <c r="B2636" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2636" s="10">
+        <v>350144.61584799999</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2637" s="1">
+        <v>108</v>
+      </c>
+      <c r="B2637" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2637" s="9">
+        <v>275694.86329299997</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2638" s="3">
+        <v>109</v>
+      </c>
+      <c r="B2638" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2638" s="10">
+        <v>334378.11689100001</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2639" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2639" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2639" s="9">
+        <v>761728.59712499997</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2640" s="3">
+        <v>111</v>
+      </c>
+      <c r="B2640" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2640" s="10">
+        <v>244314.82639199999</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2641" s="1">
+        <v>112</v>
+      </c>
+      <c r="B2641" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2641" s="9">
+        <v>149349.201119</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2642" s="3">
+        <v>113</v>
+      </c>
+      <c r="B2642" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2642" s="10">
+        <v>103385.177198</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2643" s="1">
+        <v>114</v>
+      </c>
+      <c r="B2643" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2643" s="9">
+        <v>198637.32941000001</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2644" s="3">
+        <v>115</v>
+      </c>
+      <c r="B2644" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2644" s="10">
+        <v>224282.03713499999</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2645" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2645" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2645" s="9">
+        <v>338859.83839799999</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2646" s="3">
+        <v>117</v>
+      </c>
+      <c r="B2646" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2646" s="10">
+        <v>3008701.7165239998</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2647" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2647" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2647" s="9">
+        <v>509822.313272</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2648" s="3">
+        <v>119</v>
+      </c>
+      <c r="B2648" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2648" s="10">
+        <v>95596.183382000003</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2649" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2649" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2649" s="9">
+        <v>157591.81824699999</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2650" s="3">
+        <v>121</v>
+      </c>
+      <c r="B2650" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2650" s="10">
+        <v>374360.95758300001</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2651" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2651" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2651" s="9">
+        <v>376487.42638600001</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2652" s="3">
+        <v>123</v>
+      </c>
+      <c r="B2652" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2652" s="10">
+        <v>288402.38889</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2653" s="1">
+        <v>124</v>
+      </c>
+      <c r="B2653" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2653" s="9">
+        <v>117155.06862400001</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2654" s="3">
+        <v>125</v>
+      </c>
+      <c r="B2654" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2654" s="10">
+        <v>229878.49997400001</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2655" s="1">
+        <v>126</v>
+      </c>
+      <c r="B2655" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2655" s="9">
+        <v>1462849.5976420001</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2656" s="3">
+        <v>127</v>
+      </c>
+      <c r="B2656" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2656" s="10">
+        <v>432028.818188</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2657" s="1">
+        <v>128</v>
+      </c>
+      <c r="B2657" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2657" s="9">
+        <v>159051.439354</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2658" s="3">
+        <v>129</v>
+      </c>
+      <c r="B2658" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2658" s="10">
+        <v>15589.789425999999</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2659" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2659" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2659" s="9">
+        <v>55074.282206999997</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2660" s="3">
+        <v>131</v>
+      </c>
+      <c r="B2660" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2660" s="10">
+        <v>8926</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2661" s="1">
+        <v>132</v>
+      </c>
+      <c r="B2661" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2661" s="9">
+        <v>488078.56138500001</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2662" s="3">
+        <v>133</v>
+      </c>
+      <c r="B2662" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2662" s="10">
+        <v>1110063</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2663" s="1">
+        <v>134</v>
+      </c>
+      <c r="B2663" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2663" s="9">
+        <v>297585.218077</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2664" s="3">
+        <v>135</v>
+      </c>
+      <c r="B2664" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2664" s="10">
+        <v>491241.75318100001</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2665" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2665" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2665" s="9">
+        <v>196009.00149600001</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2666" s="3">
+        <v>137</v>
+      </c>
+      <c r="B2666" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2666" s="10">
+        <v>400058.67151999997</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2667" s="1">
+        <v>138</v>
+      </c>
+      <c r="B2667" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2667" s="9">
+        <v>127222.7686</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2668" s="3">
+        <v>139</v>
+      </c>
+      <c r="B2668" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2668" s="10">
+        <v>227316.47541000001</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2669" s="1">
+        <v>140</v>
+      </c>
+      <c r="B2669" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2669" s="9">
+        <v>336576.480522</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2670" s="3">
+        <v>141</v>
+      </c>
+      <c r="B2670" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2670" s="10">
+        <v>1028249.474867</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2671" s="1">
+        <v>142</v>
+      </c>
+      <c r="B2671" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2671" s="9">
+        <v>375038.160302</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2672" s="3">
+        <v>143</v>
+      </c>
+      <c r="B2672" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2672" s="10">
+        <v>210869.888103</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2673" s="1">
+        <v>144</v>
+      </c>
+      <c r="B2673" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2673" s="9">
+        <v>324045.84261699999</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2674" s="3">
+        <v>145</v>
+      </c>
+      <c r="B2674" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2674" s="10">
+        <v>121223.536911</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2675" s="1">
+        <v>146</v>
+      </c>
+      <c r="B2675" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2675" s="9">
+        <v>958901.10090700001</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2676" s="3">
+        <v>147</v>
+      </c>
+      <c r="B2676" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2676" s="10">
+        <v>147670.36051200001</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2677" s="1">
+        <v>148</v>
+      </c>
+      <c r="B2677" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2677" s="9">
+        <v>332650.806728</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2678" s="3">
+        <v>149</v>
+      </c>
+      <c r="B2678" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2678" s="10">
+        <v>16358.829045</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2679" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2679" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2679" s="9">
+        <v>371063.24540499999</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2680" s="3">
+        <v>151</v>
+      </c>
+      <c r="B2680" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2680" s="10">
+        <v>182938.952066</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2681" s="1">
+        <v>152</v>
+      </c>
+      <c r="B2681" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2681" s="9">
+        <v>141614.76526099999</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2682" s="3">
+        <v>153</v>
+      </c>
+      <c r="B2682" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2682" s="10">
+        <v>156707.93287799999</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2683" s="1">
+        <v>154</v>
+      </c>
+      <c r="B2683" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2683" s="9">
+        <v>265636.22927499999</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2684" s="3">
+        <v>155</v>
+      </c>
+      <c r="B2684" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2684" s="10">
+        <v>371966.66074600001</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2685" s="1">
+        <v>156</v>
+      </c>
+      <c r="B2685" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2685" s="9">
+        <v>76644.913419000004</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2686" s="3">
+        <v>157</v>
+      </c>
+      <c r="B2686" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2686" s="10">
+        <v>202944.44367099999</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2687" s="1">
+        <v>158</v>
+      </c>
+      <c r="B2687" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2687" s="9">
+        <v>133267.371874</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2688" s="3">
+        <v>159</v>
+      </c>
+      <c r="B2688" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2688" s="10">
+        <v>121402.5597</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2689" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2689" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2689" s="9">
+        <v>1672250.8502519999</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2690" s="3">
+        <v>162</v>
+      </c>
+      <c r="B2690" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2690" s="10">
+        <v>198019.02358400001</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2691" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2691" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2691" s="9">
+        <v>218373.70637599999</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2692" s="24"/>
+      <c r="B2692" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2692" s="11">
+        <v>29877892.846338995</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2693" s="8"/>
+      <c r="B2693" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2693" s="12">
+        <v>1560678241.8778577</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -36667,10 +39004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D7EE4-A45D-904B-AAA9-D67F356DFB36}">
-  <dimension ref="A1:E2527"/>
+  <dimension ref="A1:E2693"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2510" zoomScale="193" workbookViewId="0">
-      <selection activeCell="I2528" sqref="I2528"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2669" zoomScale="193" workbookViewId="0">
+      <selection activeCell="E2693" sqref="E2693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37887,7 +40224,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="17">
@@ -39632,7 +41969,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C175" s="18">
@@ -39646,7 +41983,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="23" t="s">
+      <c r="B176" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C176" s="18">
@@ -40867,7 +43204,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="22" t="s">
+      <c r="B248" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C248" s="17">
@@ -42544,7 +44881,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B347" s="23" t="s">
+      <c r="B347" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C347" s="18">
@@ -42558,7 +44895,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B348" s="23" t="s">
+      <c r="B348" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C348" s="18">
@@ -43779,7 +46116,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="22" t="s">
+      <c r="B420" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C420" s="17">
@@ -45456,7 +47793,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B519" s="23" t="s">
+      <c r="B519" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C519" s="18">
@@ -45470,7 +47807,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B520" s="23" t="s">
+      <c r="B520" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C520" s="18">
@@ -46691,7 +49028,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B592" s="22" t="s">
+      <c r="B592" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C592" s="17">
@@ -48351,7 +50688,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B690" s="23" t="s">
+      <c r="B690" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C690" s="18">
@@ -48365,7 +50702,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B691" s="23" t="s">
+      <c r="B691" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C691" s="18">
@@ -49586,7 +51923,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B763" s="22" t="s">
+      <c r="B763" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C763" s="17">
@@ -51144,7 +53481,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B855" s="23" t="s">
+      <c r="B855" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C855" s="18">
@@ -51158,7 +53495,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B856" s="23" t="s">
+      <c r="B856" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C856" s="18">
@@ -52396,7 +54733,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B929" s="22" t="s">
+      <c r="B929" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C929" s="17">
@@ -53971,7 +56308,7 @@
       </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1022" s="23" t="s">
+      <c r="B1022" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1022" s="18">
@@ -53985,7 +56322,7 @@
       </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1023" s="23" t="s">
+      <c r="B1023" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1023" s="18">
@@ -55240,7 +57577,7 @@
       </c>
     </row>
     <row r="1097" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1097" s="22" t="s">
+      <c r="B1097" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1097" s="17">
@@ -56815,7 +59152,7 @@
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1190" s="23" t="s">
+      <c r="B1190" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1190" s="18">
@@ -56829,7 +59166,7 @@
       </c>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1191" s="23" t="s">
+      <c r="B1191" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1191" s="18">
@@ -58084,7 +60421,7 @@
       </c>
     </row>
     <row r="1265" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1265" s="22" t="s">
+      <c r="B1265" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1265" s="17">
@@ -59659,7 +61996,7 @@
       </c>
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1358" s="23" t="s">
+      <c r="B1358" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1358" s="18">
@@ -59673,7 +62010,7 @@
       </c>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1359" s="23" t="s">
+      <c r="B1359" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1359" s="18">
@@ -60928,7 +63265,7 @@
       </c>
     </row>
     <row r="1433" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1433" s="22" t="s">
+      <c r="B1433" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1433" s="17">
@@ -62469,7 +64806,7 @@
       </c>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1524" s="23" t="s">
+      <c r="B1524" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1524" s="18">
@@ -62483,7 +64820,7 @@
       </c>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1525" s="23" t="s">
+      <c r="B1525" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1525" s="18">
@@ -63755,7 +66092,7 @@
       </c>
     </row>
     <row r="1600" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1600" s="22" t="s">
+      <c r="B1600" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1600" s="17">
@@ -65296,7 +67633,7 @@
       </c>
     </row>
     <row r="1691" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1691" s="23" t="s">
+      <c r="B1691" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1691" s="18">
@@ -65310,7 +67647,7 @@
       </c>
     </row>
     <row r="1692" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1692" s="23" t="s">
+      <c r="B1692" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1692" s="18">
@@ -66599,7 +68936,7 @@
       </c>
     </row>
     <row r="1768" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1768" s="22" t="s">
+      <c r="B1768" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1768" s="17">
@@ -68140,7 +70477,7 @@
       </c>
     </row>
     <row r="1859" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1859" s="23" t="s">
+      <c r="B1859" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C1859" s="18">
@@ -68154,7 +70491,7 @@
       </c>
     </row>
     <row r="1860" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1860" s="23" t="s">
+      <c r="B1860" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C1860" s="18">
@@ -69443,7 +71780,7 @@
       </c>
     </row>
     <row r="1936" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1936" s="22" t="s">
+      <c r="B1936" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C1936" s="17">
@@ -70967,7 +73304,7 @@
       </c>
     </row>
     <row r="2026" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2026" s="23" t="s">
+      <c r="B2026" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C2026" s="18">
@@ -70981,7 +73318,7 @@
       </c>
     </row>
     <row r="2027" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2027" s="23" t="s">
+      <c r="B2027" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C2027" s="18">
@@ -72270,7 +74607,7 @@
       </c>
     </row>
     <row r="2103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2103" s="22" t="s">
+      <c r="B2103" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C2103" s="17">
@@ -73794,7 +76131,7 @@
       </c>
     </row>
     <row r="2193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2193" s="23" t="s">
+      <c r="B2193" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C2193" s="18">
@@ -73808,7 +76145,7 @@
       </c>
     </row>
     <row r="2194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2194" s="23" t="s">
+      <c r="B2194" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C2194" s="18">
@@ -75114,7 +77451,7 @@
       </c>
     </row>
     <row r="2271" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2271" s="22" t="s">
+      <c r="B2271" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C2271" s="17">
@@ -76621,7 +78958,7 @@
       </c>
     </row>
     <row r="2360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2360" s="23" t="s">
+      <c r="B2360" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C2360" s="18">
@@ -76635,7 +78972,7 @@
       </c>
     </row>
     <row r="2361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2361" s="23" t="s">
+      <c r="B2361" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C2361" s="18">
@@ -77924,7 +80261,7 @@
       </c>
     </row>
     <row r="2437" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2437" s="22" t="s">
+      <c r="B2437" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C2437" s="17">
@@ -79431,7 +81768,7 @@
       </c>
     </row>
     <row r="2526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2526" s="23" t="s">
+      <c r="B2526" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C2526" s="18">
@@ -79445,7 +81782,7 @@
       </c>
     </row>
     <row r="2527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2527" s="23" t="s">
+      <c r="B2527" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C2527" s="18">
@@ -79458,7 +81795,2825 @@
         <v>255</v>
       </c>
     </row>
+    <row r="2528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2528" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2528" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2528" s="15">
+        <v>29232980</v>
+      </c>
+      <c r="D2528" s="15">
+        <v>31564080</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2529" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2529" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2529" s="16">
+        <v>14198472</v>
+      </c>
+      <c r="D2529" s="16">
+        <v>14246012</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2530" s="13">
+        <v>3</v>
+      </c>
+      <c r="B2530" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2530" s="15">
+        <v>7701757</v>
+      </c>
+      <c r="D2530" s="15">
+        <v>9951503</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2531" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2531" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2531" s="16">
+        <v>2075588.371633</v>
+      </c>
+      <c r="D2531" s="16">
+        <v>1787729.3843670001</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2532" s="13">
+        <v>5</v>
+      </c>
+      <c r="B2532" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2532" s="15">
+        <v>7319650</v>
+      </c>
+      <c r="D2532" s="15">
+        <v>3308988</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2533" s="14">
+        <v>6</v>
+      </c>
+      <c r="B2533" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2533" s="16">
+        <v>1665164</v>
+      </c>
+      <c r="D2533" s="16">
+        <v>738572</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2534" s="13">
+        <v>7</v>
+      </c>
+      <c r="B2534" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2534" s="15">
+        <v>3133345</v>
+      </c>
+      <c r="D2534" s="15">
+        <v>4586557</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2535" s="14">
+        <v>8</v>
+      </c>
+      <c r="B2535" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2535" s="16">
+        <v>8205917</v>
+      </c>
+      <c r="D2535" s="16">
+        <v>4083103</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2536" s="13">
+        <v>9</v>
+      </c>
+      <c r="B2536" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2536" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2536" s="15">
+        <v>1372894.862346</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2537" s="14">
+        <v>10</v>
+      </c>
+      <c r="B2537" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2537" s="16">
+        <v>3109273.4153450001</v>
+      </c>
+      <c r="D2537" s="16">
+        <v>3575436.7047529998</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2538" s="13">
+        <v>11</v>
+      </c>
+      <c r="B2538" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2538" s="15">
+        <v>4172160</v>
+      </c>
+      <c r="D2538" s="15">
+        <v>4235910</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2539" s="14">
+        <v>12</v>
+      </c>
+      <c r="B2539" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2539" s="16">
+        <v>6790037</v>
+      </c>
+      <c r="D2539" s="16">
+        <v>4062046</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2540" s="13">
+        <v>13</v>
+      </c>
+      <c r="B2540" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2540" s="15">
+        <v>2758305</v>
+      </c>
+      <c r="D2540" s="15">
+        <v>1444887</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2541" s="14">
+        <v>14</v>
+      </c>
+      <c r="B2541" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2541" s="16">
+        <v>2685301</v>
+      </c>
+      <c r="D2541" s="16">
+        <v>1813691</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2542" s="13">
+        <v>15</v>
+      </c>
+      <c r="B2542" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2542" s="15">
+        <v>6533697</v>
+      </c>
+      <c r="D2542" s="15">
+        <v>3310344</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2543" s="14">
+        <v>16</v>
+      </c>
+      <c r="B2543" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2543" s="16">
+        <v>5351961.6463580001</v>
+      </c>
+      <c r="D2543" s="16">
+        <v>933992.71426899999</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2544" s="13">
+        <v>17</v>
+      </c>
+      <c r="B2544" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2544" s="15">
+        <v>2406171</v>
+      </c>
+      <c r="D2544" s="15">
+        <v>3095357</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2545" s="14">
+        <v>18</v>
+      </c>
+      <c r="B2545" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2545" s="16">
+        <v>2486722</v>
+      </c>
+      <c r="D2545" s="16">
+        <v>2643216</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2546" s="13">
+        <v>19</v>
+      </c>
+      <c r="B2546" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2546" s="15">
+        <v>3504621.9694409999</v>
+      </c>
+      <c r="D2546" s="15">
+        <v>1891888.652062</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2547" s="14">
+        <v>20</v>
+      </c>
+      <c r="B2547" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2547" s="16">
+        <v>2533619.2527740002</v>
+      </c>
+      <c r="D2547" s="16">
+        <v>3479423.211081</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2548" s="13">
+        <v>21</v>
+      </c>
+      <c r="B2548" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2548" s="15">
+        <v>5390994.685823</v>
+      </c>
+      <c r="D2548" s="15">
+        <v>2951022.0397339999</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2549" s="14">
+        <v>22</v>
+      </c>
+      <c r="B2549" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2549" s="16">
+        <v>362881</v>
+      </c>
+      <c r="D2549" s="16">
+        <v>354017</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2550" s="13">
+        <v>23</v>
+      </c>
+      <c r="B2550" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2550" s="15">
+        <v>1319587.888089</v>
+      </c>
+      <c r="D2550" s="15">
+        <v>1466245.387111</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2551" s="14">
+        <v>24</v>
+      </c>
+      <c r="B2551" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2551" s="16">
+        <v>4704248.9774599997</v>
+      </c>
+      <c r="D2551" s="16">
+        <v>2690724.3144089999</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2552" s="13">
+        <v>25</v>
+      </c>
+      <c r="B2552" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2552" s="15">
+        <v>1023577</v>
+      </c>
+      <c r="D2552" s="15">
+        <v>1235686</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2553" s="14">
+        <v>26</v>
+      </c>
+      <c r="B2553" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2553" s="16">
+        <v>713458</v>
+      </c>
+      <c r="D2553" s="16">
+        <v>415065</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2554" s="13">
+        <v>27</v>
+      </c>
+      <c r="B2554" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2554" s="15">
+        <v>1605218</v>
+      </c>
+      <c r="D2554" s="15">
+        <v>1202599</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2555" s="14">
+        <v>28</v>
+      </c>
+      <c r="B2555" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2555" s="16">
+        <v>47756</v>
+      </c>
+      <c r="D2555" s="16">
+        <v>4997641</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2556" s="13">
+        <v>29</v>
+      </c>
+      <c r="B2556" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2556" s="15">
+        <v>727557</v>
+      </c>
+      <c r="D2556" s="15">
+        <v>215155.6</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2557" s="14">
+        <v>30</v>
+      </c>
+      <c r="B2557" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2557" s="16">
+        <v>765915</v>
+      </c>
+      <c r="D2557" s="16">
+        <v>340389</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2558" s="13">
+        <v>31</v>
+      </c>
+      <c r="B2558" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2558" s="15">
+        <v>638074</v>
+      </c>
+      <c r="D2558" s="15">
+        <v>560472</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2559" s="14">
+        <v>32</v>
+      </c>
+      <c r="B2559" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2559" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2559" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2560" s="13">
+        <v>33</v>
+      </c>
+      <c r="B2560" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2560" s="15">
+        <v>78037.048932000005</v>
+      </c>
+      <c r="D2560" s="15">
+        <v>252510.97560999999</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2561" s="14">
+        <v>34</v>
+      </c>
+      <c r="B2561" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2561" s="16">
+        <v>4526683</v>
+      </c>
+      <c r="D2561" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2562" s="13">
+        <v>35</v>
+      </c>
+      <c r="B2562" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2562" s="15">
+        <v>12895982.421490001</v>
+      </c>
+      <c r="D2562" s="15">
+        <v>12482756.097541999</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2563" s="14">
+        <v>36</v>
+      </c>
+      <c r="B2563" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2563" s="16">
+        <v>379960</v>
+      </c>
+      <c r="D2563" s="16">
+        <v>285303</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2564" s="13">
+        <v>37</v>
+      </c>
+      <c r="B2564" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2564" s="15">
+        <v>889940</v>
+      </c>
+      <c r="D2564" s="15">
+        <v>458311</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2565" s="14">
+        <v>38</v>
+      </c>
+      <c r="B2565" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2565" s="16">
+        <v>131793</v>
+      </c>
+      <c r="D2565" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2566" s="13">
+        <v>39</v>
+      </c>
+      <c r="B2566" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2566" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2566" s="15">
+        <v>152711</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2567" s="14">
+        <v>40</v>
+      </c>
+      <c r="B2567" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2567" s="16">
+        <v>311168</v>
+      </c>
+      <c r="D2567" s="16">
+        <v>221304</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2568" s="13">
+        <v>41</v>
+      </c>
+      <c r="B2568" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2568" s="15">
+        <v>1184583</v>
+      </c>
+      <c r="D2568" s="15">
+        <v>876926</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2569" s="14">
+        <v>42</v>
+      </c>
+      <c r="B2569" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2569" s="16">
+        <v>1828.3468789999999</v>
+      </c>
+      <c r="D2569" s="16">
+        <v>10699.120940000001</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2570" s="13">
+        <v>43</v>
+      </c>
+      <c r="B2570" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2570" s="15">
+        <v>41623.196763</v>
+      </c>
+      <c r="D2570" s="15">
+        <v>71780.984589999993</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2571" s="14">
+        <v>44</v>
+      </c>
+      <c r="B2571" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2571" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2571" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2572" s="13">
+        <v>45</v>
+      </c>
+      <c r="B2572" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2572" s="15">
+        <v>278530</v>
+      </c>
+      <c r="D2572" s="15">
+        <v>218223</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2573" s="14">
+        <v>46</v>
+      </c>
+      <c r="B2573" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2573" s="16">
+        <v>228087</v>
+      </c>
+      <c r="D2573" s="16">
+        <v>170491</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2574" s="13">
+        <v>47</v>
+      </c>
+      <c r="B2574" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2574" s="15">
+        <v>13856</v>
+      </c>
+      <c r="D2574" s="15">
+        <v>36410</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2575" s="14">
+        <v>48</v>
+      </c>
+      <c r="B2575" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2575" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2575" s="16">
+        <v>17890.975877000001</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2576" s="13">
+        <v>49</v>
+      </c>
+      <c r="B2576" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2576" s="15">
+        <v>203512</v>
+      </c>
+      <c r="D2576" s="15">
+        <v>151115</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2577" s="14">
+        <v>50</v>
+      </c>
+      <c r="B2577" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2577" s="16">
+        <v>222830</v>
+      </c>
+      <c r="D2577" s="16">
+        <v>24349</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2578" s="13">
+        <v>51</v>
+      </c>
+      <c r="B2578" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2578" s="15">
+        <v>128352</v>
+      </c>
+      <c r="D2578" s="15">
+        <v>47700</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2579" s="14">
+        <v>52</v>
+      </c>
+      <c r="B2579" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2579" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2579" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2580" s="13">
+        <v>53</v>
+      </c>
+      <c r="B2580" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2580" s="15">
+        <v>51524.807873999998</v>
+      </c>
+      <c r="D2580" s="15">
+        <v>40864.342126000003</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2581" s="14">
+        <v>54</v>
+      </c>
+      <c r="B2581" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2581" s="16">
+        <v>300118.5</v>
+      </c>
+      <c r="D2581" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2582" s="13">
+        <v>55</v>
+      </c>
+      <c r="B2582" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2582" s="15">
+        <v>21362</v>
+      </c>
+      <c r="D2582" s="15">
+        <v>42004</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2583" s="14">
+        <v>56</v>
+      </c>
+      <c r="B2583" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2583" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2583" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2584" s="13">
+        <v>57</v>
+      </c>
+      <c r="B2584" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2584" s="15">
+        <v>1498.9169999999999</v>
+      </c>
+      <c r="D2584" s="15">
+        <v>111.03465</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2585" s="14">
+        <v>58</v>
+      </c>
+      <c r="B2585" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2585" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2585" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2586" s="13">
+        <v>59</v>
+      </c>
+      <c r="B2586" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2586" s="15">
+        <v>92681.701879999993</v>
+      </c>
+      <c r="D2586" s="15">
+        <v>102230.474542</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2587" s="14">
+        <v>60</v>
+      </c>
+      <c r="B2587" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2587" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2587" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2588" s="13">
+        <v>61</v>
+      </c>
+      <c r="B2588" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2588" s="15">
+        <v>1324</v>
+      </c>
+      <c r="D2588" s="15">
+        <v>2343</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2589" s="14">
+        <v>62</v>
+      </c>
+      <c r="B2589" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2589" s="16">
+        <v>3345.6063720000002</v>
+      </c>
+      <c r="D2589" s="16">
+        <v>8287.9869039999994</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2590" s="13">
+        <v>63</v>
+      </c>
+      <c r="B2590" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2590" s="15">
+        <v>77399</v>
+      </c>
+      <c r="D2590" s="15">
+        <v>2030</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2591" s="14">
+        <v>64</v>
+      </c>
+      <c r="B2591" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2591" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2591" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2592" s="13">
+        <v>65</v>
+      </c>
+      <c r="B2592" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2592" s="15">
+        <v>6585</v>
+      </c>
+      <c r="D2592" s="15">
+        <v>2882</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2593" s="14">
+        <v>66</v>
+      </c>
+      <c r="B2593" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2593" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2593" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2594" s="13">
+        <v>67</v>
+      </c>
+      <c r="B2594" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2594" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2594" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2595" s="14">
+        <v>68</v>
+      </c>
+      <c r="B2595" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2595" s="16">
+        <v>20</v>
+      </c>
+      <c r="D2595" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2596" s="13">
+        <v>69</v>
+      </c>
+      <c r="B2596" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2596" s="15">
+        <v>2562577</v>
+      </c>
+      <c r="D2596" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2597" s="14">
+        <v>70</v>
+      </c>
+      <c r="B2597" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2597" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2597" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2598" s="13">
+        <v>71</v>
+      </c>
+      <c r="B2598" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2598" s="15">
+        <v>60930</v>
+      </c>
+      <c r="D2598" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2599" s="14">
+        <v>72</v>
+      </c>
+      <c r="B2599" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2599" s="16">
+        <v>74235</v>
+      </c>
+      <c r="D2599" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2600" s="13">
+        <v>73</v>
+      </c>
+      <c r="B2600" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2600" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2600" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2601" s="14">
+        <v>74</v>
+      </c>
+      <c r="B2601" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2601" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2601" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2602" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2602" s="21"/>
+      <c r="C2602" s="17">
+        <v>157934376.75411299</v>
+      </c>
+      <c r="D2602" s="17">
+        <v>134233881.86291295</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2603" s="14">
+        <v>75</v>
+      </c>
+      <c r="B2603" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2603" s="16">
+        <v>430.60620299999999</v>
+      </c>
+      <c r="D2603" s="16">
+        <v>543.75553500000001</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2604" s="13">
+        <v>76</v>
+      </c>
+      <c r="B2604" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2604" s="15">
+        <v>3598797</v>
+      </c>
+      <c r="D2604" s="15">
+        <v>592625</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2605" s="14">
+        <v>77</v>
+      </c>
+      <c r="B2605" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2605" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2605" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2606" s="13">
+        <v>78</v>
+      </c>
+      <c r="B2606" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2606" s="15">
+        <v>58478</v>
+      </c>
+      <c r="D2606" s="15">
+        <v>61868</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2607" s="14">
+        <v>79</v>
+      </c>
+      <c r="B2607" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2607" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2607" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2608" s="13">
+        <v>80</v>
+      </c>
+      <c r="B2608" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2608" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2608" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2609" s="14">
+        <v>81</v>
+      </c>
+      <c r="B2609" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2609" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2609" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2610" s="13">
+        <v>82</v>
+      </c>
+      <c r="B2610" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2610" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2610" s="15">
+        <v>60</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2611" s="14">
+        <v>83</v>
+      </c>
+      <c r="B2611" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2611" s="16">
+        <v>254</v>
+      </c>
+      <c r="D2611" s="16">
+        <v>1164</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2612" s="13">
+        <v>84</v>
+      </c>
+      <c r="B2612" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2612" s="15">
+        <v>28826.302458999999</v>
+      </c>
+      <c r="D2612" s="15">
+        <v>65421.353672999998</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2613" s="14">
+        <v>85</v>
+      </c>
+      <c r="B2613" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2613" s="16">
+        <v>53</v>
+      </c>
+      <c r="D2613" s="16">
+        <v>5</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2614" s="13">
+        <v>86</v>
+      </c>
+      <c r="B2614" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2614" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2614" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2615" s="14">
+        <v>87</v>
+      </c>
+      <c r="B2615" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2615" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2615" s="16">
+        <v>4070</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2616" s="13">
+        <v>88</v>
+      </c>
+      <c r="B2616" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2616" s="15">
+        <v>12887.347629</v>
+      </c>
+      <c r="D2616" s="15">
+        <v>29464.886473999999</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2617" s="14">
+        <v>89</v>
+      </c>
+      <c r="B2617" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2617" s="16">
+        <v>32297.589351999999</v>
+      </c>
+      <c r="D2617" s="16">
+        <v>20513.126726999999</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2618" s="13">
+        <v>90</v>
+      </c>
+      <c r="B2618" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2618" s="15">
+        <v>363.52383700000001</v>
+      </c>
+      <c r="D2618" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2619" s="14">
+        <v>91</v>
+      </c>
+      <c r="B2619" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2619" s="16">
+        <v>15</v>
+      </c>
+      <c r="D2619" s="16">
+        <v>5126</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2620" s="13">
+        <v>92</v>
+      </c>
+      <c r="B2620" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2620" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2620" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2621" s="14">
+        <v>93</v>
+      </c>
+      <c r="B2621" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2621" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2621" s="16">
+        <v>15</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2622" s="13">
+        <v>94</v>
+      </c>
+      <c r="B2622" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2622" s="15">
+        <v>49137</v>
+      </c>
+      <c r="D2622" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2623" s="14">
+        <v>95</v>
+      </c>
+      <c r="B2623" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2623" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2623" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2624" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2624" s="22"/>
+      <c r="C2624" s="17">
+        <v>3781539.3694800003</v>
+      </c>
+      <c r="D2624" s="17">
+        <v>780876.12240899995</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2625" s="13">
+        <v>96</v>
+      </c>
+      <c r="B2625" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2625" s="15">
+        <v>182866</v>
+      </c>
+      <c r="D2625" s="15">
+        <v>126876</v>
+      </c>
+      <c r="E2625" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2626" s="14">
+        <v>97</v>
+      </c>
+      <c r="B2626" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2626" s="16">
+        <v>231416</v>
+      </c>
+      <c r="D2626" s="16">
+        <v>36500</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2627" s="13">
+        <v>98</v>
+      </c>
+      <c r="B2627" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2627" s="15">
+        <v>292993.11288500001</v>
+      </c>
+      <c r="D2627" s="15">
+        <v>40450.560733999999</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2628" s="14">
+        <v>99</v>
+      </c>
+      <c r="B2628" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2628" s="16">
+        <v>233619</v>
+      </c>
+      <c r="D2628" s="16">
+        <v>31552</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2629" s="13">
+        <v>100</v>
+      </c>
+      <c r="B2629" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2629" s="15">
+        <v>76230</v>
+      </c>
+      <c r="D2629" s="15">
+        <v>121897</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2630" s="14">
+        <v>101</v>
+      </c>
+      <c r="B2630" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2630" s="16">
+        <v>244876</v>
+      </c>
+      <c r="D2630" s="16">
+        <v>138252</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2631" s="13">
+        <v>102</v>
+      </c>
+      <c r="B2631" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2631" s="15">
+        <v>27495</v>
+      </c>
+      <c r="D2631" s="15">
+        <v>83963</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2632" s="14">
+        <v>103</v>
+      </c>
+      <c r="B2632" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2632" s="16">
+        <v>143335</v>
+      </c>
+      <c r="D2632" s="16">
+        <v>6849</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2633" s="13">
+        <v>104</v>
+      </c>
+      <c r="B2633" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2633" s="15">
+        <v>152158.70882999999</v>
+      </c>
+      <c r="D2633" s="15">
+        <v>52987.645949999998</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2634" s="14">
+        <v>105</v>
+      </c>
+      <c r="B2634" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2634" s="16">
+        <v>427</v>
+      </c>
+      <c r="D2634" s="16">
+        <v>5038</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2635" s="13">
+        <v>106</v>
+      </c>
+      <c r="B2635" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2635" s="15">
+        <v>86897</v>
+      </c>
+      <c r="D2635" s="15">
+        <v>1066</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2636" s="14">
+        <v>107</v>
+      </c>
+      <c r="B2636" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2636" s="16">
+        <v>502</v>
+      </c>
+      <c r="D2636" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2637" s="13">
+        <v>108</v>
+      </c>
+      <c r="B2637" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2637" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2637" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2638" s="14">
+        <v>109</v>
+      </c>
+      <c r="B2638" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2638" s="16">
+        <v>7520</v>
+      </c>
+      <c r="D2638" s="16">
+        <v>5188</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2639" s="13">
+        <v>110</v>
+      </c>
+      <c r="B2639" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2639" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2639" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2640" s="14">
+        <v>111</v>
+      </c>
+      <c r="B2640" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2640" s="16">
+        <v>23026</v>
+      </c>
+      <c r="D2640" s="16">
+        <v>903</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2641" s="13">
+        <v>112</v>
+      </c>
+      <c r="B2641" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2641" s="15">
+        <v>645</v>
+      </c>
+      <c r="D2641" s="15">
+        <v>8304</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2642" s="14">
+        <v>113</v>
+      </c>
+      <c r="B2642" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2642" s="16">
+        <v>12657.557663</v>
+      </c>
+      <c r="D2642" s="16">
+        <v>5707.3653530000001</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2643" s="13">
+        <v>114</v>
+      </c>
+      <c r="B2643" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2643" s="15">
+        <v>4741</v>
+      </c>
+      <c r="D2643" s="15">
+        <v>5753</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2644" s="14">
+        <v>115</v>
+      </c>
+      <c r="B2644" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2644" s="16">
+        <v>35804</v>
+      </c>
+      <c r="D2644" s="16">
+        <v>23216</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2645" s="13">
+        <v>116</v>
+      </c>
+      <c r="B2645" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2645" s="15">
+        <v>1018.1082699999999</v>
+      </c>
+      <c r="D2645" s="15">
+        <v>14027.113622999999</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2646" s="14">
+        <v>117</v>
+      </c>
+      <c r="B2646" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2646" s="16">
+        <v>1287</v>
+      </c>
+      <c r="D2646" s="16">
+        <v>42150</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2647" s="13">
+        <v>118</v>
+      </c>
+      <c r="B2647" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2647" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2647" s="15">
+        <v>97939</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2648" s="14">
+        <v>119</v>
+      </c>
+      <c r="B2648" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2648" s="16">
+        <v>1044.8429659999999</v>
+      </c>
+      <c r="D2648" s="16">
+        <v>36609.470718999997</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2649" s="13">
+        <v>120</v>
+      </c>
+      <c r="B2649" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2649" s="15">
+        <v>9842.8389669999997</v>
+      </c>
+      <c r="D2649" s="15">
+        <v>322.84637199999997</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2650" s="14">
+        <v>121</v>
+      </c>
+      <c r="B2650" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2650" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2650" s="16">
+        <v>5229.2</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2651" s="13">
+        <v>122</v>
+      </c>
+      <c r="B2651" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2651" s="15">
+        <v>56596.096717</v>
+      </c>
+      <c r="D2651" s="15">
+        <v>421.57311099999998</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2652" s="14">
+        <v>123</v>
+      </c>
+      <c r="B2652" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2652" s="16">
+        <v>5374</v>
+      </c>
+      <c r="D2652" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2653" s="13">
+        <v>124</v>
+      </c>
+      <c r="B2653" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2653" s="15">
+        <v>57036</v>
+      </c>
+      <c r="D2653" s="15">
+        <v>32272</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2654" s="14">
+        <v>125</v>
+      </c>
+      <c r="B2654" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2654" s="16">
+        <v>46</v>
+      </c>
+      <c r="D2654" s="16">
+        <v>447</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2655" s="13">
+        <v>126</v>
+      </c>
+      <c r="B2655" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2655" s="15">
+        <v>7476.9339479999999</v>
+      </c>
+      <c r="D2655" s="15">
+        <v>12666.715052</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2656" s="14">
+        <v>127</v>
+      </c>
+      <c r="B2656" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2656" s="16">
+        <v>39318</v>
+      </c>
+      <c r="D2656" s="16">
+        <v>1571</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2657" s="13">
+        <v>128</v>
+      </c>
+      <c r="B2657" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2657" s="15">
+        <v>5648.2989960000004</v>
+      </c>
+      <c r="D2657" s="15">
+        <v>1294.0819879999999</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2658" s="14">
+        <v>129</v>
+      </c>
+      <c r="B2658" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2658" s="16">
+        <v>36626</v>
+      </c>
+      <c r="D2658" s="16">
+        <v>425</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2659" s="13">
+        <v>130</v>
+      </c>
+      <c r="B2659" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2659" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2659" s="15">
+        <v>1325</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2660" s="14">
+        <v>131</v>
+      </c>
+      <c r="B2660" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2660" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2660" s="16">
+        <v>8.1407170000000004</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2661" s="13">
+        <v>132</v>
+      </c>
+      <c r="B2661" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2661" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2661" s="15">
+        <v>23</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2662" s="14">
+        <v>133</v>
+      </c>
+      <c r="B2662" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2662" s="16">
+        <v>15895.38</v>
+      </c>
+      <c r="D2662" s="16">
+        <v>13851.79</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2663" s="13">
+        <v>134</v>
+      </c>
+      <c r="B2663" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2663" s="15">
+        <v>5558</v>
+      </c>
+      <c r="D2663" s="15">
+        <v>111</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2664" s="14">
+        <v>135</v>
+      </c>
+      <c r="B2664" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2664" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2664" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2665" s="13">
+        <v>136</v>
+      </c>
+      <c r="B2665" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2665" s="15">
+        <v>88101.128316999995</v>
+      </c>
+      <c r="D2665" s="15">
+        <v>46878.248</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2666" s="14">
+        <v>137</v>
+      </c>
+      <c r="B2666" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2666" s="16">
+        <v>21115</v>
+      </c>
+      <c r="D2666" s="16">
+        <v>24733</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2667" s="13">
+        <v>138</v>
+      </c>
+      <c r="B2667" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2667" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2667" s="15">
+        <v>813</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2668" s="14">
+        <v>139</v>
+      </c>
+      <c r="B2668" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2668" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2668" s="16">
+        <v>2066</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2669" s="13">
+        <v>140</v>
+      </c>
+      <c r="B2669" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2669" s="15">
+        <v>14468.595508</v>
+      </c>
+      <c r="D2669" s="15">
+        <v>176.986378</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2670" s="14">
+        <v>141</v>
+      </c>
+      <c r="B2670" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2670" s="16">
+        <v>1438.238748</v>
+      </c>
+      <c r="D2670" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2671" s="13">
+        <v>142</v>
+      </c>
+      <c r="B2671" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2671" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2671" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2672" s="14">
+        <v>143</v>
+      </c>
+      <c r="B2672" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2672" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2672" s="16">
+        <v>284</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2673" s="13">
+        <v>144</v>
+      </c>
+      <c r="B2673" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2673" s="15">
+        <v>20035</v>
+      </c>
+      <c r="D2673" s="15">
+        <v>52</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2674" s="14">
+        <v>145</v>
+      </c>
+      <c r="B2674" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2674" s="16">
+        <v>909.28595600000006</v>
+      </c>
+      <c r="D2674" s="16">
+        <v>1325.146735</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2675" s="13">
+        <v>146</v>
+      </c>
+      <c r="B2675" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2675" s="15">
+        <v>1263</v>
+      </c>
+      <c r="D2675" s="15">
+        <v>1937</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2676" s="14">
+        <v>147</v>
+      </c>
+      <c r="B2676" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2676" s="16">
+        <v>15205.661432999999</v>
+      </c>
+      <c r="D2676" s="16">
+        <v>3163.5717100000002</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2677" s="13"/>
+      <c r="B2677" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2677" s="15">
+        <v>1003</v>
+      </c>
+      <c r="D2677" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2678" s="14">
+        <v>150</v>
+      </c>
+      <c r="B2678" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2678" s="16">
+        <v>142.47060300000001</v>
+      </c>
+      <c r="D2678" s="16">
+        <v>110.703138</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2679" s="13">
+        <v>152</v>
+      </c>
+      <c r="B2679" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2679" s="15">
+        <v>223.53875099999999</v>
+      </c>
+      <c r="D2679" s="15">
+        <v>172.938288</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2680" s="14">
+        <v>153</v>
+      </c>
+      <c r="B2680" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2680" s="16">
+        <v>16788.45134</v>
+      </c>
+      <c r="D2680" s="16">
+        <v>13324.563842</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2681" s="13">
+        <v>154</v>
+      </c>
+      <c r="B2681" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2681" s="15">
+        <v>8061</v>
+      </c>
+      <c r="D2681" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2682" s="14">
+        <v>151</v>
+      </c>
+      <c r="B2682" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2682" s="16">
+        <v>7902</v>
+      </c>
+      <c r="D2682" s="16">
+        <v>6309</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2683" s="13">
+        <v>155</v>
+      </c>
+      <c r="B2683" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2683" s="15">
+        <v>4433</v>
+      </c>
+      <c r="D2683" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2684" s="14">
+        <v>156</v>
+      </c>
+      <c r="B2684" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2684" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2684" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2685" s="13">
+        <v>157</v>
+      </c>
+      <c r="B2685" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2685" s="15">
+        <v>1513</v>
+      </c>
+      <c r="D2685" s="15">
+        <v>2190</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2686" s="14">
+        <v>158</v>
+      </c>
+      <c r="B2686" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2686" s="16">
+        <v>12285</v>
+      </c>
+      <c r="D2686" s="16">
+        <v>4433</v>
+      </c>
+      <c r="E2686" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2687" s="13">
+        <v>159</v>
+      </c>
+      <c r="B2687" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2687" s="15">
+        <v>1130</v>
+      </c>
+      <c r="D2687" s="15">
+        <v>1099</v>
+      </c>
+      <c r="E2687" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2688" s="14">
+        <v>160</v>
+      </c>
+      <c r="B2688" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2688" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2688" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2688" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2689" s="13">
+        <v>161</v>
+      </c>
+      <c r="B2689" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2689" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2689" s="15">
+        <v>188</v>
+      </c>
+      <c r="E2689" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2690" s="14">
+        <v>162</v>
+      </c>
+      <c r="B2690" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2690" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2690" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2690" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2691" s="13">
+        <v>120</v>
+      </c>
+      <c r="B2691" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2691" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2691" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2691" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2692" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2692" s="20"/>
+      <c r="C2692" s="18">
+        <v>2215993.2498979997</v>
+      </c>
+      <c r="D2692" s="18">
+        <v>1064452.6617099999</v>
+      </c>
+      <c r="E2692" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2693" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2693" s="20"/>
+      <c r="C2693" s="18">
+        <v>163931909.37349099</v>
+      </c>
+      <c r="D2693" s="18">
+        <v>136079210.64703196</v>
+      </c>
+      <c r="E2693" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2692:B2692"/>
+    <mergeCell ref="A2693:B2693"/>
+    <mergeCell ref="A2602:B2602"/>
+    <mergeCell ref="A2624:B2624"/>
+  </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/github/raw-d-man-mutual-funds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01153A-8D52-B341-847A-257AD9806B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9839BF-CCA4-8D41-B4E6-B2DADB317F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5100" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{EC75BB92-0DE0-314F-AD1B-4224E8A1B22E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10874" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11538" uniqueCount="268">
   <si>
     <t>مشترک کارگزاری کارآفرین</t>
   </si>
@@ -809,6 +809,9 @@
     <t>1398-04</t>
   </si>
   <si>
+    <t>1398-05</t>
+  </si>
+  <si>
     <t>30*</t>
   </si>
   <si>
@@ -831,6 +834,12 @@
   </si>
   <si>
     <t>1398-04-31</t>
+  </si>
+  <si>
+    <t>مشترک بانک مسکن</t>
+  </si>
+  <si>
+    <t>1398-05-31</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06670460-8E5C-4344-986B-9D7823F7222F}">
-  <dimension ref="A1:D2693"/>
+  <dimension ref="A1:D2858"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2674" workbookViewId="0">
-      <selection activeCell="B2686" sqref="B2686"/>
+    <sheetView rightToLeft="1" topLeftCell="A2842" workbookViewId="0">
+      <selection activeCell="C2858" sqref="C2858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32045,7 +32054,7 @@
         <v>10212899.779665001</v>
       </c>
       <c r="D2195" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2196" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32059,7 +32068,7 @@
         <v>21001484.784255002</v>
       </c>
       <c r="D2196" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2197" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32073,7 +32082,7 @@
         <v>137676.97691999999</v>
       </c>
       <c r="D2197" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2198" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32087,7 +32096,7 @@
         <v>1550283.536602</v>
       </c>
       <c r="D2198" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2199" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32101,7 +32110,7 @@
         <v>293007.43504100002</v>
       </c>
       <c r="D2199" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2200" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32115,7 +32124,7 @@
         <v>94468400.662331998</v>
       </c>
       <c r="D2200" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2201" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32129,7 +32138,7 @@
         <v>2199448.822187</v>
       </c>
       <c r="D2201" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2202" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32143,7 +32152,7 @@
         <v>4662372.4692620002</v>
       </c>
       <c r="D2202" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2203" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32157,7 +32166,7 @@
         <v>151901734.29727101</v>
       </c>
       <c r="D2203" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2204" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32171,7 +32180,7 @@
         <v>10289281.110257</v>
       </c>
       <c r="D2204" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2205" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32185,7 +32194,7 @@
         <v>10859713.230397001</v>
       </c>
       <c r="D2205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2206" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32199,7 +32208,7 @@
         <v>964242</v>
       </c>
       <c r="D2206" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2207" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32213,7 +32222,7 @@
         <v>260891501.20694301</v>
       </c>
       <c r="D2207" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2208" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32227,7 +32236,7 @@
         <v>59885951.205596</v>
       </c>
       <c r="D2208" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2209" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32241,7 +32250,7 @@
         <v>108613.223855</v>
       </c>
       <c r="D2209" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2210" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32255,7 +32264,7 @@
         <v>970492.03979299997</v>
       </c>
       <c r="D2210" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2211" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32269,7 +32278,7 @@
         <v>45190906.236077003</v>
       </c>
       <c r="D2211" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2212" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32283,7 +32292,7 @@
         <v>713507.44897799997</v>
       </c>
       <c r="D2212" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2213" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32297,7 +32306,7 @@
         <v>39813770.704815</v>
       </c>
       <c r="D2213" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2214" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32311,7 +32320,7 @@
         <v>5524341</v>
       </c>
       <c r="D2214" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2215" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32325,7 +32334,7 @@
         <v>14890047.782079</v>
       </c>
       <c r="D2215" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2216" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32339,7 +32348,7 @@
         <v>32848218</v>
       </c>
       <c r="D2216" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2217" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32353,7 +32362,7 @@
         <v>41627791.980726004</v>
       </c>
       <c r="D2217" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2218" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32367,7 +32376,7 @@
         <v>103612411.986568</v>
       </c>
       <c r="D2218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2219" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32381,7 +32390,7 @@
         <v>148632586.17135599</v>
       </c>
       <c r="D2219" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2220" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32395,7 +32404,7 @@
         <v>47625105.779518999</v>
       </c>
       <c r="D2220" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2221" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32409,7 +32418,7 @@
         <v>8211645.4036569996</v>
       </c>
       <c r="D2221" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2222" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32423,7 +32432,7 @@
         <v>19915327.554876</v>
       </c>
       <c r="D2222" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2223" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32437,12 +32446,12 @@
         <v>203698.24317500001</v>
       </c>
       <c r="D2223" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2224" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2224" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2224" s="4" t="s">
         <v>29</v>
@@ -32451,7 +32460,7 @@
         <v>5841.4672810000002</v>
       </c>
       <c r="D2224" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2225" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32465,7 +32474,7 @@
         <v>5234840.2918640003</v>
       </c>
       <c r="D2225" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2226" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32479,7 +32488,7 @@
         <v>19371.636183999999</v>
       </c>
       <c r="D2226" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2227" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32493,7 +32502,7 @@
         <v>7071202.3349759998</v>
       </c>
       <c r="D2227" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2228" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32507,7 +32516,7 @@
         <v>55995.413984999999</v>
       </c>
       <c r="D2228" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2229" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32521,7 +32530,7 @@
         <v>3847490.8937929999</v>
       </c>
       <c r="D2229" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2230" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32535,7 +32544,7 @@
         <v>37946376</v>
       </c>
       <c r="D2230" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2231" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32549,7 +32558,7 @@
         <v>12115934.58323</v>
       </c>
       <c r="D2231" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2232" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32563,7 +32572,7 @@
         <v>15216114.544647999</v>
       </c>
       <c r="D2232" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2233" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32577,7 +32586,7 @@
         <v>26116191.230976</v>
       </c>
       <c r="D2233" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2234" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32591,7 +32600,7 @@
         <v>137840.08250700001</v>
       </c>
       <c r="D2234" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2235" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32605,7 +32614,7 @@
         <v>499894.40195999999</v>
       </c>
       <c r="D2235" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2236" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32619,7 +32628,7 @@
         <v>19348.871190000002</v>
       </c>
       <c r="D2236" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2237" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32633,7 +32642,7 @@
         <v>1011919</v>
       </c>
       <c r="D2237" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2238" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32647,7 +32656,7 @@
         <v>53421673.824167997</v>
       </c>
       <c r="D2238" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2239" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32661,7 +32670,7 @@
         <v>34118423.837894998</v>
       </c>
       <c r="D2239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2240" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32675,7 +32684,7 @@
         <v>40066578.811304003</v>
       </c>
       <c r="D2240" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2241" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32689,7 +32698,7 @@
         <v>262836.26764600002</v>
       </c>
       <c r="D2241" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2242" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32703,7 +32712,7 @@
         <v>113672.122434</v>
       </c>
       <c r="D2242" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2243" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32717,7 +32726,7 @@
         <v>4001817.0280019999</v>
       </c>
       <c r="D2243" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2244" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32731,7 +32740,7 @@
         <v>15515692.071632</v>
       </c>
       <c r="D2244" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2245" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32745,7 +32754,7 @@
         <v>369061</v>
       </c>
       <c r="D2245" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2246" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32759,7 +32768,7 @@
         <v>1365856.3669429999</v>
       </c>
       <c r="D2246" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2247" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32773,12 +32782,12 @@
         <v>66032.746627</v>
       </c>
       <c r="D2247" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2248" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2248" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2248" s="4" t="s">
         <v>52</v>
@@ -32787,7 +32796,7 @@
         <v>115074.20899299999</v>
       </c>
       <c r="D2248" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2249" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32801,7 +32810,7 @@
         <v>512225.53216200002</v>
       </c>
       <c r="D2249" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2250" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32815,7 +32824,7 @@
         <v>88881.621358000004</v>
       </c>
       <c r="D2250" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2251" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32829,7 +32838,7 @@
         <v>132057.45557799999</v>
       </c>
       <c r="D2251" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2252" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32843,7 +32852,7 @@
         <v>5022770.1068850001</v>
       </c>
       <c r="D2252" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2253" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32857,7 +32866,7 @@
         <v>1067629.115856</v>
       </c>
       <c r="D2253" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2254" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32871,7 +32880,7 @@
         <v>54574.350719000002</v>
       </c>
       <c r="D2254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2255" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32885,7 +32894,7 @@
         <v>4450545.3830300001</v>
       </c>
       <c r="D2255" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2256" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32899,7 +32908,7 @@
         <v>8402994.8499999996</v>
       </c>
       <c r="D2256" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2257" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32913,7 +32922,7 @@
         <v>130517.27036900001</v>
       </c>
       <c r="D2257" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2258" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32927,7 +32936,7 @@
         <v>1413727.0095240001</v>
       </c>
       <c r="D2258" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2259" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32941,7 +32950,7 @@
         <v>168546.766588</v>
       </c>
       <c r="D2259" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2260" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32955,7 +32964,7 @@
         <v>14607852.757879</v>
       </c>
       <c r="D2260" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2261" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32969,7 +32978,7 @@
         <v>29546808.599208001</v>
       </c>
       <c r="D2261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2262" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32983,7 +32992,7 @@
         <v>6924042.3563980004</v>
       </c>
       <c r="D2262" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2263" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -32997,7 +33006,7 @@
         <v>2883602.3507340001</v>
       </c>
       <c r="D2263" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2264" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33011,7 +33020,7 @@
         <v>168585.101497</v>
       </c>
       <c r="D2264" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2265" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33025,7 +33034,7 @@
         <v>665112.94640999998</v>
       </c>
       <c r="D2265" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2266" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33039,7 +33048,7 @@
         <v>740404.72</v>
       </c>
       <c r="D2266" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2267" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33053,7 +33062,7 @@
         <v>1429413.8650239999</v>
       </c>
       <c r="D2267" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2268" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33067,7 +33076,7 @@
         <v>875396.01248100004</v>
       </c>
       <c r="D2268" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2269" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33081,7 +33090,7 @@
         <v>330468.36790700001</v>
       </c>
       <c r="D2269" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2270" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33095,7 +33104,7 @@
         <v>999966.46</v>
       </c>
       <c r="D2270" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2271" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -33107,7 +33116,7 @@
         <v>1478537663.1100469</v>
       </c>
       <c r="D2271" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2272" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33121,7 +33130,7 @@
         <v>205353.53984400001</v>
       </c>
       <c r="D2272" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2273" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33135,7 +33144,7 @@
         <v>734536.58441600006</v>
       </c>
       <c r="D2273" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2274" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33149,7 +33158,7 @@
         <v>116944.24957</v>
       </c>
       <c r="D2274" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2275" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33163,7 +33172,7 @@
         <v>87861.503631</v>
       </c>
       <c r="D2275" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2276" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33177,7 +33186,7 @@
         <v>1619697.46373</v>
       </c>
       <c r="D2276" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2277" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33191,7 +33200,7 @@
         <v>169991.07304399999</v>
       </c>
       <c r="D2277" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2278" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33205,12 +33214,12 @@
         <v>21794.889236999999</v>
       </c>
       <c r="D2278" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2279" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2279" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2279" s="4" t="s">
         <v>79</v>
@@ -33219,7 +33228,7 @@
         <v>3074.082371</v>
       </c>
       <c r="D2279" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2280" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33233,7 +33242,7 @@
         <v>116825.148315</v>
       </c>
       <c r="D2280" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2281" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33247,7 +33256,7 @@
         <v>137344.14084000001</v>
       </c>
       <c r="D2281" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2282" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33261,7 +33270,7 @@
         <v>170903.64576000001</v>
       </c>
       <c r="D2282" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2283" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33275,7 +33284,7 @@
         <v>656363.591258</v>
       </c>
       <c r="D2283" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2284" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33289,7 +33298,7 @@
         <v>374413.44447599998</v>
       </c>
       <c r="D2284" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2285" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33303,7 +33312,7 @@
         <v>175110.57832500001</v>
       </c>
       <c r="D2285" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2286" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33317,7 +33326,7 @@
         <v>62893.773381999999</v>
       </c>
       <c r="D2286" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2287" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33331,7 +33340,7 @@
         <v>288611.15676400001</v>
       </c>
       <c r="D2287" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2288" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33345,7 +33354,7 @@
         <v>107234.333464</v>
       </c>
       <c r="D2288" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2289" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33359,7 +33368,7 @@
         <v>195306.93151200001</v>
       </c>
       <c r="D2289" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2290" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33373,7 +33382,7 @@
         <v>138715.15928299999</v>
       </c>
       <c r="D2290" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2291" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33387,7 +33396,7 @@
         <v>821731.00082299998</v>
       </c>
       <c r="D2291" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2292" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33401,7 +33410,7 @@
         <v>338117.05595200002</v>
       </c>
       <c r="D2292" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2293" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33413,7 +33422,7 @@
         <v>6542823.345997001</v>
       </c>
       <c r="D2293" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2294" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33427,7 +33436,7 @@
         <v>299469.49306800001</v>
       </c>
       <c r="D2294" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2295" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33441,7 +33450,7 @@
         <v>143286.053594</v>
       </c>
       <c r="D2295" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2296" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33455,7 +33464,7 @@
         <v>730696.26979100006</v>
       </c>
       <c r="D2296" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2297" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33469,7 +33478,7 @@
         <v>1499736.323478</v>
       </c>
       <c r="D2297" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2298" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33483,7 +33492,7 @@
         <v>495209.69594000001</v>
       </c>
       <c r="D2298" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2299" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33497,7 +33506,7 @@
         <v>46017.31061</v>
       </c>
       <c r="D2299" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2300" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33511,7 +33520,7 @@
         <v>290966.01605199999</v>
       </c>
       <c r="D2300" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2301" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33525,7 +33534,7 @@
         <v>1900350.038674</v>
       </c>
       <c r="D2301" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2302" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33539,7 +33548,7 @@
         <v>528591.53560499998</v>
       </c>
       <c r="D2302" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2303" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33553,7 +33562,7 @@
         <v>151544.08617600001</v>
       </c>
       <c r="D2303" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2304" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33567,7 +33576,7 @@
         <v>215478.85699</v>
       </c>
       <c r="D2304" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2305" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33581,7 +33590,7 @@
         <v>297059.14045499999</v>
       </c>
       <c r="D2305" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2306" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33595,7 +33604,7 @@
         <v>229368.67682399999</v>
       </c>
       <c r="D2306" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2307" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33609,7 +33618,7 @@
         <v>279665.44126499997</v>
       </c>
       <c r="D2307" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2308" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33623,7 +33632,7 @@
         <v>654203.60750799999</v>
       </c>
       <c r="D2308" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2309" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33637,7 +33646,7 @@
         <v>213187.14449400001</v>
       </c>
       <c r="D2309" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2310" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33651,7 +33660,7 @@
         <v>137485.213655</v>
       </c>
       <c r="D2310" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2311" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33665,7 +33674,7 @@
         <v>95459.149558000005</v>
       </c>
       <c r="D2311" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2312" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33679,7 +33688,7 @@
         <v>171413.81807499999</v>
       </c>
       <c r="D2312" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2313" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33693,7 +33702,7 @@
         <v>196037.59911899999</v>
       </c>
       <c r="D2313" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2314" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33707,7 +33716,7 @@
         <v>286871.56808499998</v>
       </c>
       <c r="D2314" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2315" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33721,7 +33730,7 @@
         <v>1864112.0931180001</v>
       </c>
       <c r="D2315" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2316" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33735,7 +33744,7 @@
         <v>457260.79483700002</v>
       </c>
       <c r="D2316" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2317" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33749,7 +33758,7 @@
         <v>85275.903235000005</v>
       </c>
       <c r="D2317" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2318" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33763,7 +33772,7 @@
         <v>136089.94800999999</v>
       </c>
       <c r="D2318" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2319" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33777,7 +33786,7 @@
         <v>363973.77386999998</v>
       </c>
       <c r="D2319" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2320" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33791,7 +33800,7 @@
         <v>333320.02264600003</v>
       </c>
       <c r="D2320" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2321" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33805,7 +33814,7 @@
         <v>228864.863736</v>
       </c>
       <c r="D2321" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2322" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33819,7 +33828,7 @@
         <v>106327.77297999999</v>
       </c>
       <c r="D2322" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2323" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33833,7 +33842,7 @@
         <v>243861.24286200001</v>
       </c>
       <c r="D2323" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2324" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33847,7 +33856,7 @@
         <v>1235776.400477</v>
       </c>
       <c r="D2324" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2325" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33861,7 +33870,7 @@
         <v>369642.95225999999</v>
       </c>
       <c r="D2325" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2326" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33875,7 +33884,7 @@
         <v>131398.02288</v>
       </c>
       <c r="D2326" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2327" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33889,7 +33898,7 @@
         <v>13646.526279</v>
       </c>
       <c r="D2327" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2328" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33903,7 +33912,7 @@
         <v>46147.505100000002</v>
       </c>
       <c r="D2328" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2329" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33917,7 +33926,7 @@
         <v>8056.3969619999998</v>
       </c>
       <c r="D2329" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2330" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33931,7 +33940,7 @@
         <v>323915.95236</v>
       </c>
       <c r="D2330" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2331" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33945,7 +33954,7 @@
         <v>721249.70968199999</v>
       </c>
       <c r="D2331" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2332" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33959,7 +33968,7 @@
         <v>242913.68054900001</v>
       </c>
       <c r="D2332" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2333" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33973,7 +33982,7 @@
         <v>328010.02700599999</v>
       </c>
       <c r="D2333" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2334" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -33987,7 +33996,7 @@
         <v>173489.82912000001</v>
       </c>
       <c r="D2334" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2335" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34001,7 +34010,7 @@
         <v>335650.92968399997</v>
       </c>
       <c r="D2335" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2336" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34015,7 +34024,7 @@
         <v>123801.301788</v>
       </c>
       <c r="D2336" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2337" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34029,7 +34038,7 @@
         <v>198282.62124800001</v>
       </c>
       <c r="D2337" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2338" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34043,7 +34052,7 @@
         <v>260686.20697900001</v>
       </c>
       <c r="D2338" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2339" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34057,7 +34066,7 @@
         <v>596746.52977999998</v>
       </c>
       <c r="D2339" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2340" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34071,7 +34080,7 @@
         <v>344947.16625800001</v>
       </c>
       <c r="D2340" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2341" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34085,7 +34094,7 @@
         <v>181610.181507</v>
       </c>
       <c r="D2341" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2342" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34099,7 +34108,7 @@
         <v>285357.61719000002</v>
       </c>
       <c r="D2342" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2343" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34113,7 +34122,7 @@
         <v>99557.363123000003</v>
       </c>
       <c r="D2343" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2344" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34127,7 +34136,7 @@
         <v>642148.21921500005</v>
       </c>
       <c r="D2344" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2345" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34141,7 +34150,7 @@
         <v>129839.950788</v>
       </c>
       <c r="D2345" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2346" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34155,7 +34164,7 @@
         <v>278215.44458000001</v>
       </c>
       <c r="D2346" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2347" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34169,7 +34178,7 @@
         <v>14329.203095999999</v>
       </c>
       <c r="D2347" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2348" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34183,7 +34192,7 @@
         <v>323453.26351000002</v>
       </c>
       <c r="D2348" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2349" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34197,7 +34206,7 @@
         <v>133662.53419199999</v>
       </c>
       <c r="D2349" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2350" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34211,7 +34220,7 @@
         <v>128617.25698599999</v>
       </c>
       <c r="D2350" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2351" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34225,7 +34234,7 @@
         <v>137420.22054400001</v>
       </c>
       <c r="D2351" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2352" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34239,7 +34248,7 @@
         <v>215840.568336</v>
       </c>
       <c r="D2352" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2353" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34253,7 +34262,7 @@
         <v>324110.23677199997</v>
       </c>
       <c r="D2353" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2354" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34267,7 +34276,7 @@
         <v>64420.634844</v>
       </c>
       <c r="D2354" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2355" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34281,7 +34290,7 @@
         <v>140846.24209499999</v>
       </c>
       <c r="D2355" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2356" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34295,7 +34304,7 @@
         <v>103312.71614600001</v>
       </c>
       <c r="D2356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2357" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34309,7 +34318,7 @@
         <v>41904.755899999996</v>
       </c>
       <c r="D2357" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2358" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34323,7 +34332,7 @@
         <v>1267160.263602</v>
       </c>
       <c r="D2358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2359" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34337,7 +34346,7 @@
         <v>275105.24923800002</v>
       </c>
       <c r="D2359" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2360" spans="1:4" ht="40" x14ac:dyDescent="0.2">
@@ -34349,7 +34358,7 @@
         <v>22922457.134385999</v>
       </c>
       <c r="D2360" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2361" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34361,7 +34370,7 @@
         <v>1508002943.5904298</v>
       </c>
       <c r="D2361" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2362" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34375,7 +34384,7 @@
         <v>9549520.1011870001</v>
       </c>
       <c r="D2362" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2363" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34389,7 +34398,7 @@
         <v>20929178.712777998</v>
       </c>
       <c r="D2363" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2364" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34403,7 +34412,7 @@
         <v>148557.01100100001</v>
       </c>
       <c r="D2364" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2365" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34417,7 +34426,7 @@
         <v>1603378.848859</v>
       </c>
       <c r="D2365" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2366" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34431,7 +34440,7 @@
         <v>293007.43504100002</v>
       </c>
       <c r="D2366" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2367" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34445,7 +34454,7 @@
         <v>92009911.935580999</v>
       </c>
       <c r="D2367" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2368" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34459,7 +34468,7 @@
         <v>2071713.1036159999</v>
       </c>
       <c r="D2368" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2369" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34473,7 +34482,7 @@
         <v>4992920.7846449995</v>
       </c>
       <c r="D2369" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2370" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34487,7 +34496,7 @@
         <v>147940080.89303601</v>
       </c>
       <c r="D2370" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2371" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34501,7 +34510,7 @@
         <v>10466952.123675</v>
       </c>
       <c r="D2371" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2372" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34515,7 +34524,7 @@
         <v>8926662.5234099999</v>
       </c>
       <c r="D2372" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2373" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34529,7 +34538,7 @@
         <v>940810</v>
       </c>
       <c r="D2373" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2374" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34543,7 +34552,7 @@
         <v>258419146.46348</v>
       </c>
       <c r="D2374" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2375" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34557,7 +34566,7 @@
         <v>60283017.178355999</v>
       </c>
       <c r="D2375" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2376" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34571,7 +34580,7 @@
         <v>104532.425347</v>
       </c>
       <c r="D2376" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2377" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34585,7 +34594,7 @@
         <v>982122.03009799996</v>
       </c>
       <c r="D2377" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2378" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34599,7 +34608,7 @@
         <v>46043455.606830999</v>
       </c>
       <c r="D2378" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2379" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34613,7 +34622,7 @@
         <v>792925.34265500004</v>
       </c>
       <c r="D2379" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2380" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34627,7 +34636,7 @@
         <v>40366055.459137</v>
       </c>
       <c r="D2380" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2381" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34641,7 +34650,7 @@
         <v>5344420</v>
       </c>
       <c r="D2381" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2382" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34655,7 +34664,7 @@
         <v>15105440.810086001</v>
       </c>
       <c r="D2382" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2383" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34669,7 +34678,7 @@
         <v>35008243</v>
       </c>
       <c r="D2383" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2384" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34683,7 +34692,7 @@
         <v>42977575.557499997</v>
       </c>
       <c r="D2384" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2385" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34697,7 +34706,7 @@
         <v>104152985.5308</v>
       </c>
       <c r="D2385" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2386" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34711,7 +34720,7 @@
         <v>150474130.40263399</v>
       </c>
       <c r="D2386" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2387" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34725,7 +34734,7 @@
         <v>55108922.911481999</v>
       </c>
       <c r="D2387" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2388" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34739,7 +34748,7 @@
         <v>9108637.3793480005</v>
       </c>
       <c r="D2388" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2389" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34753,7 +34762,7 @@
         <v>20085537.927951999</v>
       </c>
       <c r="D2389" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2390" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34767,12 +34776,12 @@
         <v>202265.02638</v>
       </c>
       <c r="D2390" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2391" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2391" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2391" s="4" t="s">
         <v>29</v>
@@ -34781,7 +34790,7 @@
         <v>5841.4672810000002</v>
       </c>
       <c r="D2391" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2392" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34795,7 +34804,7 @@
         <v>4561601.9064959995</v>
       </c>
       <c r="D2392" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2393" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34809,7 +34818,7 @@
         <v>18596.008147</v>
       </c>
       <c r="D2393" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2394" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34823,7 +34832,7 @@
         <v>8203967.8150079995</v>
       </c>
       <c r="D2394" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2395" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34837,7 +34846,7 @@
         <v>53092.002992000002</v>
       </c>
       <c r="D2395" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2396" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34851,7 +34860,7 @@
         <v>4655332.7238499997</v>
       </c>
       <c r="D2396" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2397" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34865,7 +34874,7 @@
         <v>39484368</v>
       </c>
       <c r="D2397" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2398" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34879,7 +34888,7 @@
         <v>12376729.613737</v>
       </c>
       <c r="D2398" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2399" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34893,7 +34902,7 @@
         <v>17435241.777222</v>
       </c>
       <c r="D2399" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2400" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34907,7 +34916,7 @@
         <v>28390858.642930001</v>
       </c>
       <c r="D2400" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2401" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34921,7 +34930,7 @@
         <v>133648.73141099999</v>
       </c>
       <c r="D2401" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2402" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34935,7 +34944,7 @@
         <v>506475.31251299998</v>
       </c>
       <c r="D2402" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2403" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34949,7 +34958,7 @@
         <v>1028394.4</v>
       </c>
       <c r="D2403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2404" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34963,7 +34972,7 @@
         <v>51098561.997280002</v>
       </c>
       <c r="D2404" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2405" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34977,7 +34986,7 @@
         <v>35209113.805843003</v>
       </c>
       <c r="D2405" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2406" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -34991,7 +35000,7 @@
         <v>40196982.279611997</v>
       </c>
       <c r="D2406" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2407" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35005,7 +35014,7 @@
         <v>246369.355549</v>
       </c>
       <c r="D2407" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2408" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35019,7 +35028,7 @@
         <v>122571.502756</v>
       </c>
       <c r="D2408" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2409" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35033,7 +35042,7 @@
         <v>4055750.0119520002</v>
       </c>
       <c r="D2409" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2410" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35047,7 +35056,7 @@
         <v>16449900.047220999</v>
       </c>
       <c r="D2410" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2411" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35061,7 +35070,7 @@
         <v>360900</v>
       </c>
       <c r="D2411" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2412" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35075,7 +35084,7 @@
         <v>1449419.669894</v>
       </c>
       <c r="D2412" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2413" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35089,7 +35098,7 @@
         <v>70422.629077000005</v>
       </c>
       <c r="D2413" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2414" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35103,7 +35112,7 @@
         <v>115074.20899299999</v>
       </c>
       <c r="D2414" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2415" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35117,7 +35126,7 @@
         <v>693265.69452799996</v>
       </c>
       <c r="D2415" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2416" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35131,7 +35140,7 @@
         <v>88573.687678000002</v>
       </c>
       <c r="D2416" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2417" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35145,7 +35154,7 @@
         <v>153127.84922900001</v>
       </c>
       <c r="D2417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2418" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35159,7 +35168,7 @@
         <v>5567394.1984409997</v>
       </c>
       <c r="D2418" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2419" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35173,7 +35182,7 @@
         <v>1102967.520614</v>
       </c>
       <c r="D2419" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2420" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35187,7 +35196,7 @@
         <v>52314.568988999999</v>
       </c>
       <c r="D2420" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2421" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35201,7 +35210,7 @@
         <v>5116331.6141950004</v>
       </c>
       <c r="D2421" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2422" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35215,7 +35224,7 @@
         <v>8702994.8499999996</v>
       </c>
       <c r="D2422" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2423" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35229,7 +35238,7 @@
         <v>132188.264222</v>
       </c>
       <c r="D2423" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2424" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35243,7 +35252,7 @@
         <v>1387044.1421389999</v>
       </c>
       <c r="D2424" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2425" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35257,7 +35266,7 @@
         <v>174966.56366799999</v>
       </c>
       <c r="D2425" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2426" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35271,7 +35280,7 @@
         <v>14068903.047715999</v>
       </c>
       <c r="D2426" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2427" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35285,7 +35294,7 @@
         <v>33172246.757263001</v>
       </c>
       <c r="D2427" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2428" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35299,7 +35308,7 @@
         <v>7535924.7956950003</v>
       </c>
       <c r="D2428" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2429" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35313,7 +35322,7 @@
         <v>2919979.980579</v>
       </c>
       <c r="D2429" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2430" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35327,7 +35336,7 @@
         <v>163908.77079800001</v>
       </c>
       <c r="D2430" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2431" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35341,7 +35350,7 @@
         <v>698439.66247800004</v>
       </c>
       <c r="D2431" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2432" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35355,7 +35364,7 @@
         <v>760439.7</v>
       </c>
       <c r="D2432" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2433" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35369,7 +35378,7 @@
         <v>529336.07406400004</v>
       </c>
       <c r="D2433" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2434" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35383,7 +35392,7 @@
         <v>952569</v>
       </c>
       <c r="D2434" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2435" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35397,7 +35406,7 @@
         <v>336460.12516699999</v>
       </c>
       <c r="D2435" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2436" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35411,7 +35420,7 @@
         <v>1403666.46</v>
       </c>
       <c r="D2436" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2437" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -35423,7 +35432,7 @@
         <v>1496374363.7621424</v>
       </c>
       <c r="D2437" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2438" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35437,7 +35446,7 @@
         <v>223351.637361</v>
       </c>
       <c r="D2438" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2439" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35451,7 +35460,7 @@
         <v>865860.84575900005</v>
       </c>
       <c r="D2439" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2440" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35465,7 +35474,7 @@
         <v>128436.39357499999</v>
       </c>
       <c r="D2440" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2441" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35479,7 +35488,7 @@
         <v>89202.608439999996</v>
       </c>
       <c r="D2441" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2442" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35493,7 +35502,7 @@
         <v>1754648.5195889999</v>
       </c>
       <c r="D2442" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2443" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35507,7 +35516,7 @@
         <v>181151.88874600001</v>
       </c>
       <c r="D2443" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2444" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35521,7 +35530,7 @@
         <v>21794.889236999999</v>
       </c>
       <c r="D2444" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2445" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35535,7 +35544,7 @@
         <v>3074.082371</v>
       </c>
       <c r="D2445" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2446" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35549,7 +35558,7 @@
         <v>169369.95499200001</v>
       </c>
       <c r="D2446" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2447" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35563,7 +35572,7 @@
         <v>184613.82199999999</v>
       </c>
       <c r="D2447" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2448" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35577,7 +35586,7 @@
         <v>183196.32577</v>
       </c>
       <c r="D2448" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2449" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35591,7 +35600,7 @@
         <v>630727.84787399997</v>
       </c>
       <c r="D2449" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2450" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35605,7 +35614,7 @@
         <v>395624.86500599998</v>
       </c>
       <c r="D2450" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2451" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35619,7 +35628,7 @@
         <v>180661.31964999999</v>
       </c>
       <c r="D2451" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2452" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35633,7 +35642,7 @@
         <v>65332.583851000003</v>
       </c>
       <c r="D2452" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2453" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35647,7 +35656,7 @@
         <v>307524.12539399997</v>
       </c>
       <c r="D2453" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2454" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35661,7 +35670,7 @@
         <v>111215.047993</v>
       </c>
       <c r="D2454" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2455" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35675,7 +35684,7 @@
         <v>225206.12055200001</v>
       </c>
       <c r="D2455" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2456" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35689,7 +35698,7 @@
         <v>151003.46076700001</v>
       </c>
       <c r="D2456" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2457" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35703,7 +35712,7 @@
         <v>847524.37166299997</v>
       </c>
       <c r="D2457" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2458" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35717,7 +35726,7 @@
         <v>367914.62724200002</v>
       </c>
       <c r="D2458" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2459" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35729,7 +35738,7 @@
         <v>7087435.3378319992</v>
       </c>
       <c r="D2459" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2460" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35743,7 +35752,7 @@
         <v>320390.68819900003</v>
       </c>
       <c r="D2460" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2461" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35757,7 +35766,7 @@
         <v>155638.53739400001</v>
       </c>
       <c r="D2461" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2462" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35771,7 +35780,7 @@
         <v>801290.16316600004</v>
       </c>
       <c r="D2462" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2463" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35785,7 +35794,7 @@
         <v>1750944.3272160001</v>
       </c>
       <c r="D2463" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2464" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35799,7 +35808,7 @@
         <v>569595.66834099998</v>
       </c>
       <c r="D2464" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2465" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35813,7 +35822,7 @@
         <v>44661.429826</v>
       </c>
       <c r="D2465" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2466" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35827,7 +35836,7 @@
         <v>313592.30272600002</v>
       </c>
       <c r="D2466" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2467" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35841,7 +35850,7 @@
         <v>2383795.9710129998</v>
       </c>
       <c r="D2467" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2468" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35855,7 +35864,7 @@
         <v>739678.91059900005</v>
       </c>
       <c r="D2468" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2469" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35869,7 +35878,7 @@
         <v>161102.57548</v>
       </c>
       <c r="D2469" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2470" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35883,7 +35892,7 @@
         <v>230757.207406</v>
       </c>
       <c r="D2470" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2471" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35897,7 +35906,7 @@
         <v>328126.13981000002</v>
       </c>
       <c r="D2471" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2472" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35911,7 +35920,7 @@
         <v>252563.405019</v>
       </c>
       <c r="D2472" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2473" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35925,7 +35934,7 @@
         <v>316648.42948200001</v>
       </c>
       <c r="D2473" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2474" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35939,7 +35948,7 @@
         <v>701714.56872400001</v>
       </c>
       <c r="D2474" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2475" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35953,7 +35962,7 @@
         <v>261211.557974</v>
       </c>
       <c r="D2475" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2476" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35967,7 +35976,7 @@
         <v>150221.48257299999</v>
       </c>
       <c r="D2476" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2477" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35981,7 +35990,7 @@
         <v>101869.851026</v>
       </c>
       <c r="D2477" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2478" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -35995,7 +36004,7 @@
         <v>184037.45382299999</v>
       </c>
       <c r="D2478" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2479" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36009,7 +36018,7 @@
         <v>209213.04334400001</v>
       </c>
       <c r="D2479" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2480" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36023,7 +36032,7 @@
         <v>321288.90444900002</v>
       </c>
       <c r="D2480" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2481" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36037,7 +36046,7 @@
         <v>2593162.9826250002</v>
       </c>
       <c r="D2481" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2482" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36051,7 +36060,7 @@
         <v>488376.97308700002</v>
       </c>
       <c r="D2482" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2483" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36065,7 +36074,7 @@
         <v>93429.998489000005</v>
       </c>
       <c r="D2483" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2484" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36079,7 +36088,7 @@
         <v>149235.055979</v>
       </c>
       <c r="D2484" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2485" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36093,7 +36102,7 @@
         <v>389848.22743000003</v>
       </c>
       <c r="D2485" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2486" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36107,7 +36116,7 @@
         <v>356394.08342500002</v>
       </c>
       <c r="D2486" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2487" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36121,7 +36130,7 @@
         <v>262398.46358400001</v>
       </c>
       <c r="D2487" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2488" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36135,7 +36144,7 @@
         <v>114883.244343</v>
       </c>
       <c r="D2488" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2489" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36149,7 +36158,7 @@
         <v>220420.02730399999</v>
       </c>
       <c r="D2489" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2490" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36163,7 +36172,7 @@
         <v>1307868.656188</v>
       </c>
       <c r="D2490" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2491" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36177,7 +36186,7 @@
         <v>412777.93995000003</v>
       </c>
       <c r="D2491" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2492" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36191,7 +36200,7 @@
         <v>131118.372133</v>
       </c>
       <c r="D2492" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2493" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36205,7 +36214,7 @@
         <v>15396.002354</v>
       </c>
       <c r="D2493" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2494" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36219,7 +36228,7 @@
         <v>53624.725904999999</v>
       </c>
       <c r="D2494" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2495" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36233,7 +36242,7 @@
         <v>8668.2121659999993</v>
       </c>
       <c r="D2495" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2496" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36247,7 +36256,7 @@
         <v>455590.87473799998</v>
       </c>
       <c r="D2496" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2497" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36261,7 +36270,7 @@
         <v>921416.69287200004</v>
       </c>
       <c r="D2497" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2498" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36275,7 +36284,7 @@
         <v>288790.75331499998</v>
       </c>
       <c r="D2498" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2499" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36289,7 +36298,7 @@
         <v>463380.86674600001</v>
       </c>
       <c r="D2499" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2500" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36303,7 +36312,7 @@
         <v>191853.91209599999</v>
       </c>
       <c r="D2500" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2501" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36317,7 +36326,7 @@
         <v>368992.91330800002</v>
       </c>
       <c r="D2501" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2502" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36331,7 +36340,7 @@
         <v>118415.699314</v>
       </c>
       <c r="D2502" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2503" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36345,7 +36354,7 @@
         <v>223529.60632699999</v>
       </c>
       <c r="D2503" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2504" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36359,7 +36368,7 @@
         <v>308680.31404000003</v>
       </c>
       <c r="D2504" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2505" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36373,7 +36382,7 @@
         <v>899501.20453700004</v>
       </c>
       <c r="D2505" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2506" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36387,7 +36396,7 @@
         <v>346445.67369999998</v>
       </c>
       <c r="D2506" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2507" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36401,7 +36410,7 @@
         <v>203169.757679</v>
       </c>
       <c r="D2507" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2508" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36415,7 +36424,7 @@
         <v>305142.23978599999</v>
       </c>
       <c r="D2508" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2509" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36429,7 +36438,7 @@
         <v>104513.442796</v>
       </c>
       <c r="D2509" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2510" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36443,7 +36452,7 @@
         <v>738183.86963199999</v>
       </c>
       <c r="D2510" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2511" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36457,7 +36466,7 @@
         <v>129839.950788</v>
       </c>
       <c r="D2511" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2512" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36471,7 +36480,7 @@
         <v>299672.07417600002</v>
       </c>
       <c r="D2512" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2513" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36485,7 +36494,7 @@
         <v>15778.148762999999</v>
       </c>
       <c r="D2513" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2514" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36499,7 +36508,7 @@
         <v>351625.66759000003</v>
       </c>
       <c r="D2514" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2515" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36513,7 +36522,7 @@
         <v>164073.19625000001</v>
       </c>
       <c r="D2515" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2516" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36527,7 +36536,7 @@
         <v>138361.93794900001</v>
       </c>
       <c r="D2516" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2517" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36541,7 +36550,7 @@
         <v>145663.31798399999</v>
       </c>
       <c r="D2517" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2518" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36555,7 +36564,7 @@
         <v>242673.259647</v>
       </c>
       <c r="D2518" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2519" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36569,7 +36578,7 @@
         <v>339974.02837800002</v>
       </c>
       <c r="D2519" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2520" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36583,7 +36592,7 @@
         <v>68570.560696</v>
       </c>
       <c r="D2520" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2521" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36597,7 +36606,7 @@
         <v>155998.633783</v>
       </c>
       <c r="D2521" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2522" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36611,7 +36620,7 @@
         <v>108573.10085</v>
       </c>
       <c r="D2522" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2523" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36625,7 +36634,7 @@
         <v>49426.497750000002</v>
       </c>
       <c r="D2523" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2524" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36639,7 +36648,7 @@
         <v>1561302.1277610001</v>
       </c>
       <c r="D2524" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2525" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36653,7 +36662,7 @@
         <v>275303.96163899999</v>
       </c>
       <c r="D2525" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2526" spans="1:4" ht="40" x14ac:dyDescent="0.2">
@@ -36665,7 +36674,7 @@
         <v>26880389.867442001</v>
       </c>
       <c r="D2526" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2527" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36677,7 +36686,7 @@
         <v>1530342188.9674165</v>
       </c>
       <c r="D2527" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2528" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36691,7 +36700,7 @@
         <v>9968481.1342990007</v>
       </c>
       <c r="D2528" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2529" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36705,7 +36714,7 @@
         <v>20233398.355317</v>
       </c>
       <c r="D2529" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2530" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36719,7 +36728,7 @@
         <v>150018.042888</v>
       </c>
       <c r="D2530" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2531" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36733,12 +36742,12 @@
         <v>1663081.4682519999</v>
       </c>
       <c r="D2531" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2532" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A2532" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2532" s="2" t="s">
         <v>109</v>
@@ -36747,7 +36756,7 @@
         <v>293007.43504100002</v>
       </c>
       <c r="D2532" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2533" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36761,7 +36770,7 @@
         <v>89764576.957733005</v>
       </c>
       <c r="D2533" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2534" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36775,7 +36784,7 @@
         <v>1837403.377625</v>
       </c>
       <c r="D2534" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2535" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36789,7 +36798,7 @@
         <v>5002105.2635209998</v>
       </c>
       <c r="D2535" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2536" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36803,7 +36812,7 @@
         <v>143225555.759455</v>
       </c>
       <c r="D2536" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2537" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36817,7 +36826,7 @@
         <v>10762362.30893</v>
       </c>
       <c r="D2537" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2538" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36831,7 +36840,7 @@
         <v>9844652.9604289997</v>
       </c>
       <c r="D2538" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2539" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36845,7 +36854,7 @@
         <v>922599</v>
       </c>
       <c r="D2539" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2540" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36859,7 +36868,7 @@
         <v>256049843.042932</v>
       </c>
       <c r="D2540" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2541" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36873,7 +36882,7 @@
         <v>60221658.507969998</v>
       </c>
       <c r="D2541" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2542" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36887,7 +36896,7 @@
         <v>106376.93724699999</v>
       </c>
       <c r="D2542" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2543" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36901,7 +36910,7 @@
         <v>961502.76821300003</v>
       </c>
       <c r="D2543" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2544" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36915,7 +36924,7 @@
         <v>49822679.559540004</v>
       </c>
       <c r="D2544" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2545" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36929,7 +36938,7 @@
         <v>873618.03592199995</v>
       </c>
       <c r="D2545" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2546" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36943,7 +36952,7 @@
         <v>40299601.688037001</v>
       </c>
       <c r="D2546" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2547" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36957,7 +36966,7 @@
         <v>5161108</v>
       </c>
       <c r="D2547" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2548" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36971,7 +36980,7 @@
         <v>15963636.229054</v>
       </c>
       <c r="D2548" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2549" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36985,7 +36994,7 @@
         <v>37419387</v>
       </c>
       <c r="D2549" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2550" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -36999,7 +37008,7 @@
         <v>44935978.699584</v>
       </c>
       <c r="D2550" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2551" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37013,7 +37022,7 @@
         <v>104186160.942416</v>
       </c>
       <c r="D2551" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2552" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37027,7 +37036,7 @@
         <v>149245452.680107</v>
       </c>
       <c r="D2552" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2553" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37041,7 +37050,7 @@
         <v>59222790.883423001</v>
       </c>
       <c r="D2553" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2554" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37055,7 +37064,7 @@
         <v>9683950.2465499993</v>
       </c>
       <c r="D2554" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2555" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37069,7 +37078,7 @@
         <v>20055633.56013</v>
       </c>
       <c r="D2555" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2556" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37083,7 +37092,7 @@
         <v>204992.828106</v>
       </c>
       <c r="D2556" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2557" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37097,7 +37106,7 @@
         <v>940</v>
       </c>
       <c r="D2557" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2558" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37111,7 +37120,7 @@
         <v>4344229.5695000002</v>
       </c>
       <c r="D2558" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2559" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37125,7 +37134,7 @@
         <v>18830.996438999999</v>
       </c>
       <c r="D2559" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2560" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37139,7 +37148,7 @@
         <v>9050003.5348019991</v>
       </c>
       <c r="D2560" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2561" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37153,7 +37162,7 @@
         <v>55698.292747</v>
       </c>
       <c r="D2561" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2562" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37167,7 +37176,7 @@
         <v>4960807.7245319998</v>
       </c>
       <c r="D2562" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2563" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37181,7 +37190,7 @@
         <v>39622982</v>
       </c>
       <c r="D2563" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2564" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37195,7 +37204,7 @@
         <v>12620853.740467001</v>
       </c>
       <c r="D2564" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2565" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37209,7 +37218,7 @@
         <v>18748415.323594</v>
       </c>
       <c r="D2565" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2566" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37223,7 +37232,7 @@
         <v>29963103.160176001</v>
       </c>
       <c r="D2566" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2567" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37237,7 +37246,7 @@
         <v>208752.566769</v>
       </c>
       <c r="D2567" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2568" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37251,7 +37260,7 @@
         <v>603980.16197599994</v>
       </c>
       <c r="D2568" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2569" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37265,7 +37274,7 @@
         <v>1022727.2</v>
       </c>
       <c r="D2569" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2570" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37279,7 +37288,7 @@
         <v>49155465.870159999</v>
       </c>
       <c r="D2570" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2571" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37293,7 +37302,7 @@
         <v>37916696.660172001</v>
       </c>
       <c r="D2571" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2572" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37307,7 +37316,7 @@
         <v>40069831.197063997</v>
       </c>
       <c r="D2572" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2573" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37321,7 +37330,7 @@
         <v>251534.73046699999</v>
       </c>
       <c r="D2573" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2574" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37335,7 +37344,7 @@
         <v>112971.9216</v>
       </c>
       <c r="D2574" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2575" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37349,7 +37358,7 @@
         <v>4135177.1123449998</v>
       </c>
       <c r="D2575" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2576" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37363,7 +37372,7 @@
         <v>15354007</v>
       </c>
       <c r="D2576" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2577" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37377,7 +37386,7 @@
         <v>373345</v>
       </c>
       <c r="D2577" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2578" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37391,7 +37400,7 @@
         <v>1907574.3643479999</v>
       </c>
       <c r="D2578" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2579" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37405,7 +37414,7 @@
         <v>75202.200339000003</v>
       </c>
       <c r="D2579" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2580" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37419,7 +37428,7 @@
         <v>115074.20899299999</v>
       </c>
       <c r="D2580" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2581" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37433,7 +37442,7 @@
         <v>771015.39344200003</v>
       </c>
       <c r="D2581" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2582" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37447,7 +37456,7 @@
         <v>89994.479745999997</v>
       </c>
       <c r="D2582" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2583" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37461,7 +37470,7 @@
         <v>348943.28918999998</v>
       </c>
       <c r="D2583" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2584" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37475,7 +37484,7 @@
         <v>10095695.397617999</v>
       </c>
       <c r="D2584" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2585" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37489,7 +37498,7 @@
         <v>1155949.7889050001</v>
       </c>
       <c r="D2585" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2586" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37503,7 +37512,7 @@
         <v>5214570.7245990001</v>
       </c>
       <c r="D2586" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2587" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37517,7 +37526,7 @@
         <v>9208994.8499999996</v>
       </c>
       <c r="D2587" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2588" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37531,7 +37540,7 @@
         <v>126814.612519</v>
       </c>
       <c r="D2588" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2589" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37545,7 +37554,7 @@
         <v>1366120.6628779999</v>
       </c>
       <c r="D2589" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2590" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37559,7 +37568,7 @@
         <v>159716.53432199999</v>
       </c>
       <c r="D2590" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2591" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37573,7 +37582,7 @@
         <v>18399014</v>
       </c>
       <c r="D2591" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2592" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37587,7 +37596,7 @@
         <v>36394665.069729999</v>
       </c>
       <c r="D2592" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2593" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37601,7 +37610,7 @@
         <v>10094194.356006</v>
       </c>
       <c r="D2593" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2594" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37615,7 +37624,7 @@
         <v>3009305.5749690002</v>
       </c>
       <c r="D2594" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2595" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37629,7 +37638,7 @@
         <v>242275.54062300001</v>
       </c>
       <c r="D2595" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2596" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37643,7 +37652,7 @@
         <v>793823.63551299996</v>
       </c>
       <c r="D2596" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2597" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37657,7 +37666,7 @@
         <v>749176.14</v>
       </c>
       <c r="D2597" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2598" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37671,7 +37680,7 @@
         <v>377471.38903600001</v>
       </c>
       <c r="D2598" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2599" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37685,7 +37694,7 @@
         <v>1037164.681219</v>
       </c>
       <c r="D2599" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2600" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37699,7 +37708,7 @@
         <v>343179</v>
       </c>
       <c r="D2600" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2601" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37713,7 +37722,7 @@
         <v>1700666.46</v>
       </c>
       <c r="D2601" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2602" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -37725,7 +37734,7 @@
         <v>1520448569.7895267</v>
       </c>
       <c r="D2602" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2603" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37739,7 +37748,7 @@
         <v>231356.08630200001</v>
       </c>
       <c r="D2603" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2604" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37753,7 +37762,7 @@
         <v>871977.09296799998</v>
       </c>
       <c r="D2604" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2605" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37767,7 +37776,7 @@
         <v>129558.184545</v>
       </c>
       <c r="D2605" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2606" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37781,7 +37790,7 @@
         <v>92640.334214999995</v>
       </c>
       <c r="D2606" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2607" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37795,7 +37804,7 @@
         <v>4802565.3486759998</v>
       </c>
       <c r="D2607" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2608" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37809,7 +37818,7 @@
         <v>191792.62008399999</v>
       </c>
       <c r="D2608" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2609" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37823,7 +37832,7 @@
         <v>29356.377874999998</v>
       </c>
       <c r="D2609" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2610" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37837,7 +37846,7 @@
         <v>3074.082371</v>
       </c>
       <c r="D2610" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2611" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37851,7 +37860,7 @@
         <v>147925.155994</v>
       </c>
       <c r="D2611" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2612" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37865,7 +37874,7 @@
         <v>203032.16664400001</v>
       </c>
       <c r="D2612" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2613" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37879,7 +37888,7 @@
         <v>185494.26981999999</v>
       </c>
       <c r="D2613" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2614" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37893,7 +37902,7 @@
         <v>667271.07148899999</v>
       </c>
       <c r="D2614" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2615" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37907,7 +37916,7 @@
         <v>419742.65220700001</v>
       </c>
       <c r="D2615" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2616" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37921,7 +37930,7 @@
         <v>192424.05489999999</v>
       </c>
       <c r="D2616" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2617" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37935,7 +37944,7 @@
         <v>63530.381389000002</v>
       </c>
       <c r="D2617" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2618" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37949,7 +37958,7 @@
         <v>311484.82296000002</v>
       </c>
       <c r="D2618" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2619" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37963,7 +37972,7 @@
         <v>110529.02137</v>
       </c>
       <c r="D2619" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2620" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37977,7 +37986,7 @@
         <v>235367.815332</v>
       </c>
       <c r="D2620" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2621" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -37991,7 +38000,7 @@
         <v>153130.56446299999</v>
       </c>
       <c r="D2621" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2622" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38005,7 +38014,7 @@
         <v>926149.78000200004</v>
       </c>
       <c r="D2622" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2623" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38019,7 +38028,7 @@
         <v>383377.35838599998</v>
       </c>
       <c r="D2623" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2624" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38031,7 +38040,7 @@
         <v>10351779.241992</v>
       </c>
       <c r="D2624" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2625" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38045,7 +38054,7 @@
         <v>388521.27912899997</v>
       </c>
       <c r="D2625" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2626" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38059,7 +38068,7 @@
         <v>168761.94940400001</v>
       </c>
       <c r="D2626" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2627" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38073,7 +38082,7 @@
         <v>784782.60105499998</v>
       </c>
       <c r="D2627" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2628" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38087,7 +38096,7 @@
         <v>1955242.1671849999</v>
       </c>
       <c r="D2628" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2629" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38101,7 +38110,7 @@
         <v>638363.80251199997</v>
       </c>
       <c r="D2629" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2630" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38115,7 +38124,7 @@
         <v>111070.19087999999</v>
       </c>
       <c r="D2630" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2631" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38129,7 +38138,7 @@
         <v>310802.94213600003</v>
       </c>
       <c r="D2631" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2632" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38143,7 +38152,7 @@
         <v>2601332.848119</v>
       </c>
       <c r="D2632" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2633" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38157,7 +38166,7 @@
         <v>943094.54501799995</v>
       </c>
       <c r="D2633" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2634" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38171,7 +38180,7 @@
         <v>157809.98869500001</v>
       </c>
       <c r="D2634" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2635" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38185,7 +38194,7 @@
         <v>243829.04500799999</v>
       </c>
       <c r="D2635" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2636" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38199,7 +38208,7 @@
         <v>350144.61584799999</v>
       </c>
       <c r="D2636" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2637" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38213,7 +38222,7 @@
         <v>275694.86329299997</v>
       </c>
       <c r="D2637" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2638" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38227,7 +38236,7 @@
         <v>334378.11689100001</v>
       </c>
       <c r="D2638" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2639" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38241,7 +38250,7 @@
         <v>761728.59712499997</v>
       </c>
       <c r="D2639" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2640" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38255,7 +38264,7 @@
         <v>244314.82639199999</v>
       </c>
       <c r="D2640" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2641" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38269,7 +38278,7 @@
         <v>149349.201119</v>
       </c>
       <c r="D2641" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2642" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38283,7 +38292,7 @@
         <v>103385.177198</v>
       </c>
       <c r="D2642" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2643" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38297,7 +38306,7 @@
         <v>198637.32941000001</v>
       </c>
       <c r="D2643" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2644" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38311,7 +38320,7 @@
         <v>224282.03713499999</v>
       </c>
       <c r="D2644" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2645" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38325,7 +38334,7 @@
         <v>338859.83839799999</v>
       </c>
       <c r="D2645" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2646" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38339,7 +38348,7 @@
         <v>3008701.7165239998</v>
       </c>
       <c r="D2646" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2647" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38353,7 +38362,7 @@
         <v>509822.313272</v>
       </c>
       <c r="D2647" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2648" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38367,7 +38376,7 @@
         <v>95596.183382000003</v>
       </c>
       <c r="D2648" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2649" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38381,7 +38390,7 @@
         <v>157591.81824699999</v>
       </c>
       <c r="D2649" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2650" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38395,7 +38404,7 @@
         <v>374360.95758300001</v>
       </c>
       <c r="D2650" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2651" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38409,7 +38418,7 @@
         <v>376487.42638600001</v>
       </c>
       <c r="D2651" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2652" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38423,7 +38432,7 @@
         <v>288402.38889</v>
       </c>
       <c r="D2652" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2653" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38437,7 +38446,7 @@
         <v>117155.06862400001</v>
       </c>
       <c r="D2653" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2654" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38451,7 +38460,7 @@
         <v>229878.49997400001</v>
       </c>
       <c r="D2654" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2655" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38465,7 +38474,7 @@
         <v>1462849.5976420001</v>
       </c>
       <c r="D2655" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2656" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38479,7 +38488,7 @@
         <v>432028.818188</v>
       </c>
       <c r="D2656" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2657" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38493,7 +38502,7 @@
         <v>159051.439354</v>
       </c>
       <c r="D2657" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2658" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38507,7 +38516,7 @@
         <v>15589.789425999999</v>
       </c>
       <c r="D2658" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2659" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38521,7 +38530,7 @@
         <v>55074.282206999997</v>
       </c>
       <c r="D2659" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2660" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38535,7 +38544,7 @@
         <v>8926</v>
       </c>
       <c r="D2660" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2661" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38549,7 +38558,7 @@
         <v>488078.56138500001</v>
       </c>
       <c r="D2661" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2662" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38563,7 +38572,7 @@
         <v>1110063</v>
       </c>
       <c r="D2662" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2663" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38577,7 +38586,7 @@
         <v>297585.218077</v>
       </c>
       <c r="D2663" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2664" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38591,7 +38600,7 @@
         <v>491241.75318100001</v>
       </c>
       <c r="D2664" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2665" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38605,7 +38614,7 @@
         <v>196009.00149600001</v>
       </c>
       <c r="D2665" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2666" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38619,7 +38628,7 @@
         <v>400058.67151999997</v>
       </c>
       <c r="D2666" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2667" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38633,7 +38642,7 @@
         <v>127222.7686</v>
       </c>
       <c r="D2667" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2668" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38647,7 +38656,7 @@
         <v>227316.47541000001</v>
       </c>
       <c r="D2668" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2669" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38661,7 +38670,7 @@
         <v>336576.480522</v>
       </c>
       <c r="D2669" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2670" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38675,7 +38684,7 @@
         <v>1028249.474867</v>
       </c>
       <c r="D2670" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2671" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38689,7 +38698,7 @@
         <v>375038.160302</v>
       </c>
       <c r="D2671" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2672" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38703,7 +38712,7 @@
         <v>210869.888103</v>
       </c>
       <c r="D2672" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2673" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38717,7 +38726,7 @@
         <v>324045.84261699999</v>
       </c>
       <c r="D2673" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2674" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38731,7 +38740,7 @@
         <v>121223.536911</v>
       </c>
       <c r="D2674" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2675" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38745,7 +38754,7 @@
         <v>958901.10090700001</v>
       </c>
       <c r="D2675" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2676" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38759,7 +38768,7 @@
         <v>147670.36051200001</v>
       </c>
       <c r="D2676" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2677" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38773,7 +38782,7 @@
         <v>332650.806728</v>
       </c>
       <c r="D2677" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2678" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38787,7 +38796,7 @@
         <v>16358.829045</v>
       </c>
       <c r="D2678" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2679" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38801,7 +38810,7 @@
         <v>371063.24540499999</v>
       </c>
       <c r="D2679" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2680" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38815,7 +38824,7 @@
         <v>182938.952066</v>
       </c>
       <c r="D2680" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2681" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38829,7 +38838,7 @@
         <v>141614.76526099999</v>
       </c>
       <c r="D2681" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2682" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38843,7 +38852,7 @@
         <v>156707.93287799999</v>
       </c>
       <c r="D2682" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2683" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38857,7 +38866,7 @@
         <v>265636.22927499999</v>
       </c>
       <c r="D2683" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2684" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38871,7 +38880,7 @@
         <v>371966.66074600001</v>
       </c>
       <c r="D2684" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2685" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38885,7 +38894,7 @@
         <v>76644.913419000004</v>
       </c>
       <c r="D2685" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2686" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38899,7 +38908,7 @@
         <v>202944.44367099999</v>
       </c>
       <c r="D2686" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2687" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38913,7 +38922,7 @@
         <v>133267.371874</v>
       </c>
       <c r="D2687" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2688" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38927,7 +38936,7 @@
         <v>121402.5597</v>
       </c>
       <c r="D2688" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2689" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38941,7 +38950,7 @@
         <v>1672250.8502519999</v>
       </c>
       <c r="D2689" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2690" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38955,7 +38964,7 @@
         <v>198019.02358400001</v>
       </c>
       <c r="D2690" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2691" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38963,13 +38972,13 @@
         <v>161</v>
       </c>
       <c r="B2691" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2691" s="9">
         <v>218373.70637599999</v>
       </c>
       <c r="D2691" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2692" spans="1:4" ht="40" x14ac:dyDescent="0.2">
@@ -38981,7 +38990,7 @@
         <v>29877892.846338995</v>
       </c>
       <c r="D2692" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2693" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -38993,7 +39002,2309 @@
         <v>1560678241.8778577</v>
       </c>
       <c r="D2693" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2694" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2694" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2694" s="9">
+        <v>10294910.26052</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2695" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2695" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2695" s="10">
+        <v>20449298.713052001</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2696" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2696" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2696" s="9">
+        <v>201316.56899199999</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2697" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2697" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2697" s="10">
+        <v>2259363.1676469999</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2698" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2698" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2698" s="9">
+        <v>234253.08972600001</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2699" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2699" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2699" s="10">
+        <v>91327887.382946998</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2700" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2700" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2700" s="9">
+        <v>1853337.451836</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2701" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2701" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2701" s="10">
+        <v>5854951.1630459996</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2702" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2702" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2702" s="9">
+        <v>137461261.513477</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2703" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2703" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2703" s="10">
+        <v>11293286.797289001</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2704" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2704" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2704" s="9">
+        <v>12199192.190716</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2705" s="3">
+        <v>12</v>
+      </c>
+      <c r="B2705" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2705" s="10">
+        <v>913073</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2706" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2706" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2706" s="9">
+        <v>260051120.27596101</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2707" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2707" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2707" s="10">
+        <v>60421698.612438001</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2708" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2708" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2708" s="9">
+        <v>108324.45947</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2709" s="3">
+        <v>16</v>
+      </c>
+      <c r="B2709" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2709" s="10">
+        <v>1021541.501915</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2710" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2710" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2710" s="9">
+        <v>55313799.801151998</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2711" s="3">
+        <v>18</v>
+      </c>
+      <c r="B2711" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2711" s="10">
+        <v>1001188.083002</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2712" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2712" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2712" s="9">
+        <v>40709375.777776003</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2713" s="3">
+        <v>20</v>
+      </c>
+      <c r="B2713" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2713" s="10">
+        <v>4952578</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2714" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2714" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2714" s="9">
+        <v>19125365.645863999</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2715" s="3">
+        <v>22</v>
+      </c>
+      <c r="B2715" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2715" s="10">
+        <v>39808863</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2716" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2716" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2716" s="9">
+        <v>47801270.834639996</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2717" s="3">
+        <v>24</v>
+      </c>
+      <c r="B2717" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2717" s="10">
+        <v>112639128.04866301</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2718" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2718" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2718" s="9">
+        <v>150017115.10731101</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2719" s="3">
+        <v>26</v>
+      </c>
+      <c r="B2719" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2719" s="10">
+        <v>65141681.323374003</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2720" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2720" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2720" s="9">
+        <v>10278532.768576</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2721" s="3">
+        <v>28</v>
+      </c>
+      <c r="B2721" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2721" s="10">
+        <v>20069014.319375999</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2722" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2722" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2722" s="9">
+        <v>204992.828106</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2723" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2723" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2723" s="10">
+        <v>932</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2724" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2724" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2724" s="9">
+        <v>4300008.4792489996</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2725" s="3">
+        <v>32</v>
+      </c>
+      <c r="B2725" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2725" s="10">
+        <v>25606.957590000002</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2726" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2726" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2726" s="9">
+        <v>11246018.124376001</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2727" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2727" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2727" s="10">
+        <v>56333.633523999997</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2728" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2728" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2728" s="9">
+        <v>5173132.1432619998</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2729" s="3">
+        <v>36</v>
+      </c>
+      <c r="B2729" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2729" s="10">
+        <v>45373909</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2730" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2730" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2730" s="9">
+        <v>12919893.887502</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2731" s="3">
+        <v>38</v>
+      </c>
+      <c r="B2731" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2731" s="10">
+        <v>21019014.175795</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2732" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2732" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2732" s="9">
+        <v>30249093.423548002</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2733" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2733" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2733" s="10">
+        <v>199380.07367000001</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2734" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2734" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2734" s="9">
+        <v>646589.11411199998</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2735" s="3">
+        <v>42</v>
+      </c>
+      <c r="B2735" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2735" s="10">
+        <v>1984309.6</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2736" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2736" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2736" s="9">
+        <v>47616046</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2737" s="3">
+        <v>44</v>
+      </c>
+      <c r="B2737" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2737" s="10">
+        <v>39555543.701734997</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2738" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2738" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2738" s="9">
+        <v>40216923.226622999</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2739" s="3">
+        <v>46</v>
+      </c>
+      <c r="B2739" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2739" s="10">
+        <v>259762.20400200001</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2740" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2740" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2740" s="9">
+        <v>115367.25861600001</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2741" s="3">
+        <v>48</v>
+      </c>
+      <c r="B2741" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2741" s="10">
+        <v>3975867.8339399998</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2742" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2742" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2742" s="9">
+        <v>15527327.042413</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2743" s="3">
+        <v>50</v>
+      </c>
+      <c r="B2743" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2743" s="10">
+        <v>425546</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2744" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2744" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2744" s="9">
+        <v>2763898.5355509999</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2745" s="3">
+        <v>52</v>
+      </c>
+      <c r="B2745" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2745" s="10">
+        <v>55690.293772999998</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2746" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2746" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2746" s="9">
+        <v>115074.20899299999</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2747" s="3">
+        <v>54</v>
+      </c>
+      <c r="B2747" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2747" s="10">
+        <v>1038322.711783</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2748" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2748" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2748" s="9">
+        <v>87822.378735000006</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2749" s="3">
+        <v>56</v>
+      </c>
+      <c r="B2749" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2749" s="10">
+        <v>488333.12605700002</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2750" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2750" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2750" s="9">
+        <v>10110538.018796001</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2751" s="3">
+        <v>58</v>
+      </c>
+      <c r="B2751" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2751" s="10">
+        <v>1255112.7842550001</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2752" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2752" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2752" s="9">
+        <v>5310168.0429480001</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2753" s="3">
+        <v>60</v>
+      </c>
+      <c r="B2753" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2753" s="10">
+        <v>9728994.8499999996</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2754" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2754" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2754" s="9">
+        <v>133546.18999000001</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2755" s="3">
+        <v>62</v>
+      </c>
+      <c r="B2755" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2755" s="10">
+        <v>1346312.8101029999</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2756" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2756" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2756" s="9">
+        <v>165287.73551100001</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2757" s="3">
+        <v>64</v>
+      </c>
+      <c r="B2757" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2757" s="10">
+        <v>19046928.969283</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2758" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2758" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2758" s="9">
+        <v>39467022.437711999</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2759" s="3">
+        <v>66</v>
+      </c>
+      <c r="B2759" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2759" s="10">
+        <v>10093921.504988</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2760" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2760" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2760" s="9">
+        <v>3017659.945384</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2761" s="3">
+        <v>68</v>
+      </c>
+      <c r="B2761" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2761" s="10">
+        <v>354838.04143799999</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2762" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2762" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2762" s="9">
+        <v>985096.990445</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2763" s="3">
+        <v>70</v>
+      </c>
+      <c r="B2763" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2763" s="10">
+        <v>783176.72</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2764" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2764" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2764" s="9">
+        <v>374623.31875400001</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2765" s="3">
+        <v>72</v>
+      </c>
+      <c r="B2765" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2765" s="10">
+        <v>1218547.785689</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2766" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2766" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2766" s="9">
+        <v>358835.37168600003</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2767" s="3">
+        <v>74</v>
+      </c>
+      <c r="B2767" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2767" s="10">
+        <v>2029266.46</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2768" s="1"/>
+      <c r="B2768" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2768" s="11">
+        <v>1574223344.7987027</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2769" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2769" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2769" s="9">
+        <v>249241.71531</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2770" s="3">
+        <v>76</v>
+      </c>
+      <c r="B2770" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2770" s="10">
+        <v>933662.05604000005</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2771" s="1">
+        <v>77</v>
+      </c>
+      <c r="B2771" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2771" s="9">
+        <v>137118.57898799999</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2772" s="3">
+        <v>78</v>
+      </c>
+      <c r="B2772" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2772" s="10">
+        <v>29982.810153999999</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2773" s="1">
+        <v>79</v>
+      </c>
+      <c r="B2773" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2773" s="9">
+        <v>6710738.5303880004</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2774" s="3">
+        <v>80</v>
+      </c>
+      <c r="B2774" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2774" s="10">
+        <v>206979.213429</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2775" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2775" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2775" s="9">
+        <v>29500.855344</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2776" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2776" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2776" s="10">
+        <v>3074.082371</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2777" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2777" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2777" s="9">
+        <v>161786.121159</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2778" s="3">
+        <v>84</v>
+      </c>
+      <c r="B2778" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2778" s="10">
+        <v>228285.024225</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2779" s="1">
+        <v>85</v>
+      </c>
+      <c r="B2779" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2779" s="9">
+        <v>189033.63192000001</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2780" s="3">
+        <v>86</v>
+      </c>
+      <c r="B2780" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2780" s="10">
+        <v>736901.92161099997</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2781" s="1">
+        <v>87</v>
+      </c>
+      <c r="B2781" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2781" s="9">
+        <v>441417.73854699999</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2782" s="3">
+        <v>88</v>
+      </c>
+      <c r="B2782" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2782" s="10">
+        <v>197170.58123000001</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2783" s="1">
+        <v>89</v>
+      </c>
+      <c r="B2783" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2783" s="9">
+        <v>64442.555252999999</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2784" s="3">
+        <v>90</v>
+      </c>
+      <c r="B2784" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2784" s="10">
+        <v>320327.79807600001</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2785" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2785" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2785" s="9">
+        <v>116004.289451</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2786" s="3">
+        <v>92</v>
+      </c>
+      <c r="B2786" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2786" s="10">
+        <v>273289.61277100001</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2787" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2787" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2787" s="9">
+        <v>163461.71234500001</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2788" s="3">
+        <v>94</v>
+      </c>
+      <c r="B2788" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2788" s="10">
+        <v>987332.57677599997</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2789" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2789" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2789" s="9">
+        <v>398764.06993900001</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2790" s="23"/>
+      <c r="B2790" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2790" s="11">
+        <v>12578515.475327</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2791" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2791" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2791" s="9">
+        <v>391562.22765399999</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2792" s="3">
+        <v>97</v>
+      </c>
+      <c r="B2792" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2792" s="10">
+        <v>178976.887196</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2793" s="1">
+        <v>98</v>
+      </c>
+      <c r="B2793" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2793" s="9">
+        <v>818516.84225300001</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2794" s="3">
+        <v>99</v>
+      </c>
+      <c r="B2794" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2794" s="10">
+        <v>2322339.579872</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2795" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2795" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2795" s="9">
+        <v>754775.5662</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2796" s="3">
+        <v>101</v>
+      </c>
+      <c r="B2796" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2796" s="10">
+        <v>134270.23274499999</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2797" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2797" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2797" s="9">
+        <v>393494.59912700002</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2798" s="3">
+        <v>103</v>
+      </c>
+      <c r="B2798" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2798" s="10">
+        <v>2982133.46037</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2799" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2799" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2799" s="9">
+        <v>976750.47507199994</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2800" s="3">
+        <v>105</v>
+      </c>
+      <c r="B2800" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2800" s="10">
+        <v>169505.27538400001</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2801" s="1">
+        <v>106</v>
+      </c>
+      <c r="B2801" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2801" s="9">
+        <v>251733.50073900001</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2802" s="3">
+        <v>107</v>
+      </c>
+      <c r="B2802" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2802" s="10">
+        <v>374863.59247500001</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2803" s="1">
+        <v>108</v>
+      </c>
+      <c r="B2803" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2803" s="9">
+        <v>290069.84847099998</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2804" s="3">
+        <v>109</v>
+      </c>
+      <c r="B2804" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2804" s="10">
+        <v>378956.78669400001</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2805" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2805" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2805" s="9">
+        <v>805453.86051200004</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2806" s="3">
+        <v>111</v>
+      </c>
+      <c r="B2806" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2806" s="10">
+        <v>285368.89140000002</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2807" s="1">
+        <v>112</v>
+      </c>
+      <c r="B2807" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2807" s="9">
+        <v>139467.082662</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2808" s="3">
+        <v>113</v>
+      </c>
+      <c r="B2808" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2808" s="10">
+        <v>109844.18346099999</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2809" s="1">
+        <v>114</v>
+      </c>
+      <c r="B2809" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2809" s="9">
+        <v>209356.069074</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2810" s="3">
+        <v>115</v>
+      </c>
+      <c r="B2810" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2810" s="10">
+        <v>226361.12009899999</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2811" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2811" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2811" s="9">
+        <v>360456.05922599998</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2812" s="3">
+        <v>117</v>
+      </c>
+      <c r="B2812" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2812" s="10">
+        <v>3458306.3783780001</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2813" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2813" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2813" s="9">
+        <v>555074.76592300006</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2814" s="3">
+        <v>119</v>
+      </c>
+      <c r="B2814" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2814" s="10">
+        <v>102196.41046899999</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2815" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2815" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2815" s="9">
+        <v>171954.96642000001</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2816" s="3">
+        <v>121</v>
+      </c>
+      <c r="B2816" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2816" s="10">
+        <v>385895.18348299997</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2817" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2817" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2817" s="9">
+        <v>400703.48856299999</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2818" s="3">
+        <v>123</v>
+      </c>
+      <c r="B2818" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2818" s="10">
+        <v>333608.06115999998</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2819" s="1">
+        <v>124</v>
+      </c>
+      <c r="B2819" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2819" s="9">
+        <v>130190.64537</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2820" s="3">
+        <v>125</v>
+      </c>
+      <c r="B2820" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2820" s="10">
+        <v>252676.74172600001</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2821" s="1">
+        <v>126</v>
+      </c>
+      <c r="B2821" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2821" s="9">
+        <v>1513272.6429959999</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2822" s="3">
+        <v>127</v>
+      </c>
+      <c r="B2822" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2822" s="10">
+        <v>451346.023674</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2823" s="1">
+        <v>128</v>
+      </c>
+      <c r="B2823" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2823" s="9">
+        <v>179278.51816199999</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2824" s="3">
+        <v>129</v>
+      </c>
+      <c r="B2824" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2824" s="10">
+        <v>16571.859853999998</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2825" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2825" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2825" s="9">
+        <v>57062.122576000002</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2826" s="3">
+        <v>131</v>
+      </c>
+      <c r="B2826" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2826" s="10">
+        <v>536271.58367800002</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2827" s="1">
+        <v>132</v>
+      </c>
+      <c r="B2827" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2827" s="9">
+        <v>1187941.8905819999</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2828" s="3">
+        <v>133</v>
+      </c>
+      <c r="B2828" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2828" s="10">
+        <v>325087.886574</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2829" s="1">
+        <v>134</v>
+      </c>
+      <c r="B2829" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2829" s="9">
+        <v>499203.87376699998</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2830" s="3">
+        <v>135</v>
+      </c>
+      <c r="B2830" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2830" s="10">
+        <v>208687.891152</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2831" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2831" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2831" s="9">
+        <v>416742.01473200001</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2832" s="3">
+        <v>137</v>
+      </c>
+      <c r="B2832" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2832" s="10">
+        <v>142965.45180099999</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2833" s="1">
+        <v>138</v>
+      </c>
+      <c r="B2833" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2833" s="9">
+        <v>262607.60154499998</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2834" s="3">
+        <v>139</v>
+      </c>
+      <c r="B2834" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2834" s="10">
+        <v>384039.751536</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2835" s="1">
+        <v>140</v>
+      </c>
+      <c r="B2835" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2835" s="9">
+        <v>1326332.7371700001</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2836" s="3">
+        <v>141</v>
+      </c>
+      <c r="B2836" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2836" s="10">
+        <v>398157.64091399999</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2837" s="1">
+        <v>142</v>
+      </c>
+      <c r="B2837" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2837" s="9">
+        <v>230542.700167</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2838" s="3">
+        <v>143</v>
+      </c>
+      <c r="B2838" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2838" s="10">
+        <v>338163.39318800002</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2839" s="1">
+        <v>144</v>
+      </c>
+      <c r="B2839" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2839" s="9">
+        <v>130081.441897</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2840" s="3">
+        <v>145</v>
+      </c>
+      <c r="B2840" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2840" s="10">
+        <v>1099280.7430759999</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2841" s="1">
+        <v>146</v>
+      </c>
+      <c r="B2841" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2841" s="9">
+        <v>156224.18475499999</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2842" s="3">
+        <v>147</v>
+      </c>
+      <c r="B2842" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2842" s="10">
+        <v>339254.34502399998</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2843" s="1">
+        <v>148</v>
+      </c>
+      <c r="B2843" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2843" s="9">
+        <v>17461.918578000001</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2844" s="3">
+        <v>149</v>
+      </c>
+      <c r="B2844" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2844" s="10">
+        <v>396093.87403000001</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2845" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2845" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2845" s="9">
+        <v>228800.18565</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2846" s="3">
+        <v>151</v>
+      </c>
+      <c r="B2846" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2846" s="10">
+        <v>148894.54303500001</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2847" s="1">
+        <v>152</v>
+      </c>
+      <c r="B2847" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2847" s="9">
+        <v>158789.32329599999</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2848" s="3">
+        <v>153</v>
+      </c>
+      <c r="B2848" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2848" s="10">
+        <v>297733.62019500002</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2849" s="1">
+        <v>154</v>
+      </c>
+      <c r="B2849" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2849" s="9">
+        <v>412499.02379299997</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2850" s="3">
+        <v>155</v>
+      </c>
+      <c r="B2850" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2850" s="10">
+        <v>84035.213350000005</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2851" s="1">
+        <v>156</v>
+      </c>
+      <c r="B2851" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2851" s="9">
+        <v>230153.02639799999</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2852" s="3">
+        <v>157</v>
+      </c>
+      <c r="B2852" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2852" s="10">
+        <v>112961.356163</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2853" s="1">
+        <v>158</v>
+      </c>
+      <c r="B2853" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2853" s="9">
+        <v>143265.16681200001</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2854" s="3">
+        <v>159</v>
+      </c>
+      <c r="B2854" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2854" s="10">
+        <v>1712452.5930929999</v>
+      </c>
+      <c r="D2854" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2855" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2855" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2855" s="9">
+        <v>201962.34377100001</v>
+      </c>
+      <c r="D2855" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2856" s="3">
+        <v>161</v>
+      </c>
+      <c r="B2856" s="4" t="s">
         <v>264</v>
+      </c>
+      <c r="C2856" s="10">
+        <v>226809.299967</v>
+      </c>
+      <c r="D2856" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2857" s="24"/>
+      <c r="B2857" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2857" s="11">
+        <v>32915890.569128994</v>
+      </c>
+      <c r="D2857" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2858" s="8"/>
+      <c r="B2858" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2858" s="12">
+        <v>1619717750.8431587</v>
+      </c>
+      <c r="D2858" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -39004,10 +41315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D7EE4-A45D-904B-AAA9-D67F356DFB36}">
-  <dimension ref="A1:E2693"/>
+  <dimension ref="A1:E2858"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2669" zoomScale="193" workbookViewId="0">
-      <selection activeCell="E2693" sqref="E2693"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2835" zoomScale="193" workbookViewId="0">
+      <selection activeCell="E2858" sqref="E2858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84327,7 +86638,7 @@
     <row r="2677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2677" s="13"/>
       <c r="B2677" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2677" s="15">
         <v>1003</v>
@@ -84607,10 +86918,2811 @@
         <v>256</v>
       </c>
     </row>
+    <row r="2694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2694" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2694" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2694" s="15">
+        <v>25712872</v>
+      </c>
+      <c r="D2694" s="15">
+        <v>21612409</v>
+      </c>
+      <c r="E2694" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2695" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2695" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2695" s="16">
+        <v>16500745</v>
+      </c>
+      <c r="D2695" s="16">
+        <v>7990365</v>
+      </c>
+      <c r="E2695" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2696" s="13">
+        <v>3</v>
+      </c>
+      <c r="B2696" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2696" s="15">
+        <v>7881264</v>
+      </c>
+      <c r="D2696" s="15">
+        <v>6327817</v>
+      </c>
+      <c r="E2696" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2697" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2697" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2697" s="16">
+        <v>7489752.7710180003</v>
+      </c>
+      <c r="D2697" s="16">
+        <v>1855765.7339649999</v>
+      </c>
+      <c r="E2697" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2698" s="13">
+        <v>5</v>
+      </c>
+      <c r="B2698" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2698" s="15">
+        <v>8579989</v>
+      </c>
+      <c r="D2698" s="15">
+        <v>3158384</v>
+      </c>
+      <c r="E2698" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2699" s="14">
+        <v>6</v>
+      </c>
+      <c r="B2699" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2699" s="16">
+        <v>3580192</v>
+      </c>
+      <c r="D2699" s="16">
+        <v>1203373</v>
+      </c>
+      <c r="E2699" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2700" s="13">
+        <v>7</v>
+      </c>
+      <c r="B2700" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2700" s="15">
+        <v>10454212</v>
+      </c>
+      <c r="D2700" s="15">
+        <v>4494114</v>
+      </c>
+      <c r="E2700" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2701" s="14">
+        <v>8</v>
+      </c>
+      <c r="B2701" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2701" s="16">
+        <v>5550658</v>
+      </c>
+      <c r="D2701" s="16">
+        <v>4587698</v>
+      </c>
+      <c r="E2701" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2702" s="13">
+        <v>9</v>
+      </c>
+      <c r="B2702" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2702" s="15">
+        <v>5528117</v>
+      </c>
+      <c r="D2702" s="15">
+        <v>3874914</v>
+      </c>
+      <c r="E2702" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2703" s="14">
+        <v>10</v>
+      </c>
+      <c r="B2703" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2703" s="16">
+        <v>2414502.1880740002</v>
+      </c>
+      <c r="D2703" s="16">
+        <v>2347095.3082659999</v>
+      </c>
+      <c r="E2703" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2704" s="13">
+        <v>11</v>
+      </c>
+      <c r="B2704" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2704" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2704" s="15">
+        <v>1026416.811221</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2705" s="14">
+        <v>12</v>
+      </c>
+      <c r="B2705" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2705" s="16">
+        <v>1023136</v>
+      </c>
+      <c r="D2705" s="16">
+        <v>1024617</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2706" s="13">
+        <v>13</v>
+      </c>
+      <c r="B2706" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2706" s="15">
+        <v>3759180</v>
+      </c>
+      <c r="D2706" s="15">
+        <v>3334093</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2707" s="14">
+        <v>14</v>
+      </c>
+      <c r="B2707" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2707" s="16">
+        <v>3149375</v>
+      </c>
+      <c r="D2707" s="16">
+        <v>864948</v>
+      </c>
+      <c r="E2707" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2708" s="13">
+        <v>15</v>
+      </c>
+      <c r="B2708" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2708" s="15">
+        <v>5788975</v>
+      </c>
+      <c r="D2708" s="15">
+        <v>2698440</v>
+      </c>
+      <c r="E2708" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2709" s="14">
+        <v>16</v>
+      </c>
+      <c r="B2709" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2709" s="16">
+        <v>4788162</v>
+      </c>
+      <c r="D2709" s="16">
+        <v>1597963</v>
+      </c>
+      <c r="E2709" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2710" s="13">
+        <v>17</v>
+      </c>
+      <c r="B2710" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2710" s="15">
+        <v>1445657</v>
+      </c>
+      <c r="D2710" s="15">
+        <v>1241742</v>
+      </c>
+      <c r="E2710" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2711" s="14">
+        <v>18</v>
+      </c>
+      <c r="B2711" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2711" s="16">
+        <v>1468472.1468430001</v>
+      </c>
+      <c r="D2711" s="16">
+        <v>863478.77449500002</v>
+      </c>
+      <c r="E2711" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2712" s="13">
+        <v>19</v>
+      </c>
+      <c r="B2712" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2712" s="15">
+        <v>2065401.333846</v>
+      </c>
+      <c r="D2712" s="15">
+        <v>1722496.919667</v>
+      </c>
+      <c r="E2712" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2713" s="14">
+        <v>20</v>
+      </c>
+      <c r="B2713" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2713" s="16">
+        <v>1090148</v>
+      </c>
+      <c r="D2713" s="16">
+        <v>238134</v>
+      </c>
+      <c r="E2713" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2714" s="13">
+        <v>21</v>
+      </c>
+      <c r="B2714" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2714" s="15">
+        <v>3942433.2198390001</v>
+      </c>
+      <c r="D2714" s="15">
+        <v>1547524.3802219999</v>
+      </c>
+      <c r="E2714" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2715" s="14">
+        <v>22</v>
+      </c>
+      <c r="B2715" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2715" s="16">
+        <v>5814777.5633619996</v>
+      </c>
+      <c r="D2715" s="16">
+        <v>2946520.584791</v>
+      </c>
+      <c r="E2715" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2716" s="13">
+        <v>23</v>
+      </c>
+      <c r="B2716" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2716" s="15">
+        <v>1202480.122212</v>
+      </c>
+      <c r="D2716" s="15">
+        <v>1255083.6194730001</v>
+      </c>
+      <c r="E2716" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2717" s="14">
+        <v>24</v>
+      </c>
+      <c r="B2717" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2717" s="16">
+        <v>294188</v>
+      </c>
+      <c r="D2717" s="16">
+        <v>337362</v>
+      </c>
+      <c r="E2717" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2718" s="13">
+        <v>25</v>
+      </c>
+      <c r="B2718" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2718" s="15">
+        <v>4365573.1325390004</v>
+      </c>
+      <c r="D2718" s="15">
+        <v>1013560.093093</v>
+      </c>
+      <c r="E2718" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2719" s="14">
+        <v>26</v>
+      </c>
+      <c r="B2719" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2719" s="16">
+        <v>839042</v>
+      </c>
+      <c r="D2719" s="16">
+        <v>409997</v>
+      </c>
+      <c r="E2719" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2720" s="13">
+        <v>27</v>
+      </c>
+      <c r="B2720" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2720" s="15">
+        <v>858787</v>
+      </c>
+      <c r="D2720" s="15">
+        <v>324848</v>
+      </c>
+      <c r="E2720" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2721" s="14">
+        <v>28</v>
+      </c>
+      <c r="B2721" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2721" s="16">
+        <v>521154</v>
+      </c>
+      <c r="D2721" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2721" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2722" s="13">
+        <v>29</v>
+      </c>
+      <c r="B2722" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2722" s="15">
+        <v>811039</v>
+      </c>
+      <c r="D2722" s="15">
+        <v>480853</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2723" s="14">
+        <v>30</v>
+      </c>
+      <c r="B2723" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2723" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2723" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2723" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2724" s="13">
+        <v>31</v>
+      </c>
+      <c r="B2724" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2724" s="15">
+        <v>98220</v>
+      </c>
+      <c r="D2724" s="15">
+        <v>256865</v>
+      </c>
+      <c r="E2724" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2725" s="14">
+        <v>32</v>
+      </c>
+      <c r="B2725" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2725" s="16">
+        <v>6299</v>
+      </c>
+      <c r="D2725" s="16">
+        <v>301</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2726" s="13">
+        <v>33</v>
+      </c>
+      <c r="B2726" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2726" s="15">
+        <v>12438803.496691</v>
+      </c>
+      <c r="D2726" s="15">
+        <v>11049376.043159001</v>
+      </c>
+      <c r="E2726" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2727" s="14">
+        <v>34</v>
+      </c>
+      <c r="B2727" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2727" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2727" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2727" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2728" s="13">
+        <v>35</v>
+      </c>
+      <c r="B2728" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2728" s="15">
+        <v>943047</v>
+      </c>
+      <c r="D2728" s="15">
+        <v>124305</v>
+      </c>
+      <c r="E2728" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2729" s="14">
+        <v>36</v>
+      </c>
+      <c r="B2729" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2729" s="16">
+        <v>41624.841975000003</v>
+      </c>
+      <c r="D2729" s="16">
+        <v>250163.203645</v>
+      </c>
+      <c r="E2729" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2730" s="13">
+        <v>37</v>
+      </c>
+      <c r="B2730" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2730" s="15">
+        <v>334990</v>
+      </c>
+      <c r="D2730" s="15">
+        <v>143503</v>
+      </c>
+      <c r="E2730" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2731" s="14">
+        <v>38</v>
+      </c>
+      <c r="B2731" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2731" s="16">
+        <v>46597</v>
+      </c>
+      <c r="D2731" s="16">
+        <v>5254894</v>
+      </c>
+      <c r="E2731" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2732" s="13">
+        <v>39</v>
+      </c>
+      <c r="B2732" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2732" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2732" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2732" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2733" s="14">
+        <v>40</v>
+      </c>
+      <c r="B2733" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2733" s="16">
+        <v>680831</v>
+      </c>
+      <c r="D2733" s="16">
+        <v>86230</v>
+      </c>
+      <c r="E2733" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2734" s="13">
+        <v>41</v>
+      </c>
+      <c r="B2734" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2734" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2734" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2734" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2735" s="14">
+        <v>42</v>
+      </c>
+      <c r="B2735" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2735" s="16">
+        <v>673685</v>
+      </c>
+      <c r="D2735" s="16">
+        <v>460497</v>
+      </c>
+      <c r="E2735" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2736" s="13">
+        <v>43</v>
+      </c>
+      <c r="B2736" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2736" s="15">
+        <v>31020.617206999999</v>
+      </c>
+      <c r="D2736" s="15">
+        <v>14417.87789</v>
+      </c>
+      <c r="E2736" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2737" s="14">
+        <v>44</v>
+      </c>
+      <c r="B2737" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2737" s="16">
+        <v>2115.0180059999998</v>
+      </c>
+      <c r="D2737" s="16">
+        <v>403.56790000000001</v>
+      </c>
+      <c r="E2737" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2738" s="13">
+        <v>45</v>
+      </c>
+      <c r="B2738" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2738" s="15">
+        <v>170194</v>
+      </c>
+      <c r="D2738" s="15">
+        <v>161638</v>
+      </c>
+      <c r="E2738" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2739" s="14">
+        <v>46</v>
+      </c>
+      <c r="B2739" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2739" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2739" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2739" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2740" s="13">
+        <v>47</v>
+      </c>
+      <c r="B2740" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2740" s="15">
+        <v>282163</v>
+      </c>
+      <c r="D2740" s="15">
+        <v>33078</v>
+      </c>
+      <c r="E2740" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2741" s="14">
+        <v>48</v>
+      </c>
+      <c r="B2741" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2741" s="16">
+        <v>12860</v>
+      </c>
+      <c r="D2741" s="16">
+        <v>32395</v>
+      </c>
+      <c r="E2741" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2742" s="13">
+        <v>49</v>
+      </c>
+      <c r="B2742" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2742" s="15">
+        <v>245572</v>
+      </c>
+      <c r="D2742" s="15">
+        <v>107490</v>
+      </c>
+      <c r="E2742" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2743" s="14">
+        <v>50</v>
+      </c>
+      <c r="B2743" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2743" s="16">
+        <v>220798</v>
+      </c>
+      <c r="D2743" s="16">
+        <v>123051</v>
+      </c>
+      <c r="E2743" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2744" s="13">
+        <v>51</v>
+      </c>
+      <c r="B2744" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2744" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2744" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2744" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2745" s="14">
+        <v>52</v>
+      </c>
+      <c r="B2745" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2745" s="16">
+        <v>330018.3</v>
+      </c>
+      <c r="D2745" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2745" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2746" s="13">
+        <v>53</v>
+      </c>
+      <c r="B2746" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2746" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2746" s="15">
+        <v>9519.9662239999998</v>
+      </c>
+      <c r="E2746" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2747" s="14">
+        <v>54</v>
+      </c>
+      <c r="B2747" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2747" s="16">
+        <v>153243</v>
+      </c>
+      <c r="D2747" s="16">
+        <v>26288</v>
+      </c>
+      <c r="E2747" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2748" s="13">
+        <v>55</v>
+      </c>
+      <c r="B2748" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2748" s="15">
+        <v>1245190</v>
+      </c>
+      <c r="D2748" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2748" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2749" s="14">
+        <v>56</v>
+      </c>
+      <c r="B2749" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2749" s="16">
+        <v>57623.047671</v>
+      </c>
+      <c r="D2749" s="16">
+        <v>6261.6525250000004</v>
+      </c>
+      <c r="E2749" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2750" s="13">
+        <v>57</v>
+      </c>
+      <c r="B2750" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2750" s="15">
+        <v>99287.587427000006</v>
+      </c>
+      <c r="D2750" s="15">
+        <v>66925.916696999993</v>
+      </c>
+      <c r="E2750" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2751" s="14">
+        <v>58</v>
+      </c>
+      <c r="B2751" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2751" s="16">
+        <v>106274</v>
+      </c>
+      <c r="D2751" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2751" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2752" s="13">
+        <v>59</v>
+      </c>
+      <c r="B2752" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2752" s="15">
+        <v>4702.9204529999997</v>
+      </c>
+      <c r="D2752" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2752" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2753" s="14">
+        <v>60</v>
+      </c>
+      <c r="B2753" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2753" s="16">
+        <v>104319</v>
+      </c>
+      <c r="D2753" s="16">
+        <v>43814</v>
+      </c>
+      <c r="E2753" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2754" s="13">
+        <v>61</v>
+      </c>
+      <c r="B2754" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2754" s="15">
+        <v>41562.586797999997</v>
+      </c>
+      <c r="D2754" s="15">
+        <v>112.97548</v>
+      </c>
+      <c r="E2754" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2755" s="14">
+        <v>62</v>
+      </c>
+      <c r="B2755" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2755" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2755" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2755" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2756" s="13">
+        <v>63</v>
+      </c>
+      <c r="B2756" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2756" s="15">
+        <v>166045</v>
+      </c>
+      <c r="D2756" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2756" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2757" s="14">
+        <v>64</v>
+      </c>
+      <c r="B2757" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2757" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2757" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2757" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2758" s="13">
+        <v>65</v>
+      </c>
+      <c r="B2758" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2758" s="15">
+        <v>19.306097999999999</v>
+      </c>
+      <c r="D2758" s="15">
+        <v>61.129989999999999</v>
+      </c>
+      <c r="E2758" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2759" s="14">
+        <v>66</v>
+      </c>
+      <c r="B2759" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2759" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2759" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2759" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2760" s="13">
+        <v>67</v>
+      </c>
+      <c r="B2760" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2760" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2760" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2760" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2761" s="14">
+        <v>68</v>
+      </c>
+      <c r="B2761" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2761" s="16">
+        <v>3138</v>
+      </c>
+      <c r="D2761" s="16">
+        <v>23984</v>
+      </c>
+      <c r="E2761" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2762" s="13">
+        <v>69</v>
+      </c>
+      <c r="B2762" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2762" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2762" s="15">
+        <v>10056</v>
+      </c>
+      <c r="E2762" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2763" s="14">
+        <v>70</v>
+      </c>
+      <c r="B2763" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2763" s="16">
+        <v>6426</v>
+      </c>
+      <c r="D2763" s="16">
+        <v>400</v>
+      </c>
+      <c r="E2763" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2764" s="13">
+        <v>71</v>
+      </c>
+      <c r="B2764" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2764" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2764" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2764" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2765" s="14">
+        <v>72</v>
+      </c>
+      <c r="B2765" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2765" s="16">
+        <v>1380</v>
+      </c>
+      <c r="D2765" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2765" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2766" s="13">
+        <v>73</v>
+      </c>
+      <c r="B2766" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2766" s="15">
+        <v>6670</v>
+      </c>
+      <c r="D2766" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2766" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2767" s="14">
+        <v>74</v>
+      </c>
+      <c r="B2767" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2767" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2767" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2767" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2768" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2768" s="21"/>
+      <c r="C2768" s="17">
+        <v>155475003.20005903</v>
+      </c>
+      <c r="D2768" s="17">
+        <v>98666044.558703005</v>
+      </c>
+      <c r="E2768" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2769" s="13">
+        <v>75</v>
+      </c>
+      <c r="B2769" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2769" s="15">
+        <v>1256.798771</v>
+      </c>
+      <c r="D2769" s="15">
+        <v>42.864579999999997</v>
+      </c>
+      <c r="E2769" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2770" s="14">
+        <v>76</v>
+      </c>
+      <c r="B2770" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2770" s="16">
+        <v>1813728</v>
+      </c>
+      <c r="D2770" s="16">
+        <v>37786</v>
+      </c>
+      <c r="E2770" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2771" s="13">
+        <v>77</v>
+      </c>
+      <c r="B2771" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2771" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2771" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2771" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2772" s="14">
+        <v>78</v>
+      </c>
+      <c r="B2772" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2772" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2772" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2772" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2773" s="13">
+        <v>79</v>
+      </c>
+      <c r="B2773" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2773" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2773" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2773" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2774" s="14">
+        <v>80</v>
+      </c>
+      <c r="B2774" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2774" s="16">
+        <v>83831</v>
+      </c>
+      <c r="D2774" s="16">
+        <v>54814</v>
+      </c>
+      <c r="E2774" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2775" s="13">
+        <v>81</v>
+      </c>
+      <c r="B2775" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2775" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2775" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2775" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2776" s="14">
+        <v>82</v>
+      </c>
+      <c r="B2776" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2776" s="16">
+        <v>5</v>
+      </c>
+      <c r="D2776" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2776" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2777" s="13">
+        <v>83</v>
+      </c>
+      <c r="B2777" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2777" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2777" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2777" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2778" s="14">
+        <v>84</v>
+      </c>
+      <c r="B2778" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2778" s="16">
+        <v>7646</v>
+      </c>
+      <c r="D2778" s="16">
+        <v>1961</v>
+      </c>
+      <c r="E2778" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2779" s="13">
+        <v>85</v>
+      </c>
+      <c r="B2779" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2779" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2779" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2779" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2780" s="14">
+        <v>86</v>
+      </c>
+      <c r="B2780" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2780" s="16">
+        <v>59592.044278000001</v>
+      </c>
+      <c r="D2780" s="16">
+        <v>22923.473006</v>
+      </c>
+      <c r="E2780" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2781" s="13">
+        <v>87</v>
+      </c>
+      <c r="B2781" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2781" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2781" s="15">
+        <v>930</v>
+      </c>
+      <c r="E2781" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2782" s="14">
+        <v>88</v>
+      </c>
+      <c r="B2782" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2782" s="16">
+        <v>229</v>
+      </c>
+      <c r="D2782" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2782" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2783" s="13">
+        <v>89</v>
+      </c>
+      <c r="B2783" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2783" s="15">
+        <v>3506.7459079999999</v>
+      </c>
+      <c r="D2783" s="15">
+        <v>1875.279153</v>
+      </c>
+      <c r="E2783" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2784" s="14">
+        <v>90</v>
+      </c>
+      <c r="B2784" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2784" s="16">
+        <v>15375.054701999999</v>
+      </c>
+      <c r="D2784" s="16">
+        <v>844.35748999999998</v>
+      </c>
+      <c r="E2784" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2785" s="13">
+        <v>91</v>
+      </c>
+      <c r="B2785" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2785" s="15">
+        <v>1045.9184499999999</v>
+      </c>
+      <c r="D2785" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2785" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2786" s="14">
+        <v>92</v>
+      </c>
+      <c r="B2786" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2786" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2786" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2786" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2787" s="13">
+        <v>93</v>
+      </c>
+      <c r="B2787" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2787" s="15">
+        <v>1996</v>
+      </c>
+      <c r="D2787" s="15">
+        <v>67104</v>
+      </c>
+      <c r="E2787" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2788" s="14">
+        <v>94</v>
+      </c>
+      <c r="B2788" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2788" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2788" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2788" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2789" s="13">
+        <v>95</v>
+      </c>
+      <c r="B2789" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2789" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2789" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2789" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2790" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2790" s="22"/>
+      <c r="C2790" s="17">
+        <v>1988211.562109</v>
+      </c>
+      <c r="D2790" s="17">
+        <v>188280.97422899998</v>
+      </c>
+      <c r="E2790" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2791" s="13">
+        <v>96</v>
+      </c>
+      <c r="B2791" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2791" s="15">
+        <v>171562</v>
+      </c>
+      <c r="D2791" s="15">
+        <v>241411</v>
+      </c>
+      <c r="E2791" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2792" s="14">
+        <v>97</v>
+      </c>
+      <c r="B2792" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2792" s="16">
+        <v>50734</v>
+      </c>
+      <c r="D2792" s="16">
+        <v>84576</v>
+      </c>
+      <c r="E2792" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2793" s="13">
+        <v>98</v>
+      </c>
+      <c r="B2793" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2793" s="15">
+        <v>326998.56376500003</v>
+      </c>
+      <c r="D2793" s="15">
+        <v>65858.437049</v>
+      </c>
+      <c r="E2793" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2794" s="14">
+        <v>99</v>
+      </c>
+      <c r="B2794" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2794" s="16">
+        <v>188200</v>
+      </c>
+      <c r="D2794" s="16">
+        <v>63630</v>
+      </c>
+      <c r="E2794" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2795" s="13">
+        <v>100</v>
+      </c>
+      <c r="B2795" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2795" s="15">
+        <v>28331</v>
+      </c>
+      <c r="D2795" s="15">
+        <v>27855</v>
+      </c>
+      <c r="E2795" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2796" s="14">
+        <v>101</v>
+      </c>
+      <c r="B2796" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2796" s="16">
+        <v>86291</v>
+      </c>
+      <c r="D2796" s="16">
+        <v>108311</v>
+      </c>
+      <c r="E2796" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2797" s="13">
+        <v>102</v>
+      </c>
+      <c r="B2797" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2797" s="15">
+        <v>26372</v>
+      </c>
+      <c r="D2797" s="15">
+        <v>32481</v>
+      </c>
+      <c r="E2797" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2798" s="14">
+        <v>103</v>
+      </c>
+      <c r="B2798" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2798" s="16">
+        <v>9</v>
+      </c>
+      <c r="D2798" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2798" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2799" s="13">
+        <v>104</v>
+      </c>
+      <c r="B2799" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2799" s="15">
+        <v>113477</v>
+      </c>
+      <c r="D2799" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2799" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2800" s="14">
+        <v>105</v>
+      </c>
+      <c r="B2800" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2800" s="16">
+        <v>315104.03993299999</v>
+      </c>
+      <c r="D2800" s="16">
+        <v>46616.386064999999</v>
+      </c>
+      <c r="E2800" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2801" s="13">
+        <v>106</v>
+      </c>
+      <c r="B2801" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2801" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2801" s="15">
+        <v>39079</v>
+      </c>
+      <c r="E2801" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2802" s="14">
+        <v>107</v>
+      </c>
+      <c r="B2802" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2802" s="16">
+        <v>234</v>
+      </c>
+      <c r="D2802" s="16">
+        <v>2192</v>
+      </c>
+      <c r="E2802" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2803" s="13">
+        <v>108</v>
+      </c>
+      <c r="B2803" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2803" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2803" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2803" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2804" s="14">
+        <v>109</v>
+      </c>
+      <c r="B2804" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2804" s="16">
+        <v>14513.763032999999</v>
+      </c>
+      <c r="D2804" s="16">
+        <v>19601.679435999999</v>
+      </c>
+      <c r="E2804" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2805" s="13">
+        <v>110</v>
+      </c>
+      <c r="B2805" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2805" s="15">
+        <v>891</v>
+      </c>
+      <c r="D2805" s="15">
+        <v>7776</v>
+      </c>
+      <c r="E2805" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2806" s="14">
+        <v>111</v>
+      </c>
+      <c r="B2806" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2806" s="16">
+        <v>8360</v>
+      </c>
+      <c r="D2806" s="16">
+        <v>11274</v>
+      </c>
+      <c r="E2806" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2807" s="13">
+        <v>112</v>
+      </c>
+      <c r="B2807" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2807" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2807" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2807" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2808" s="14">
+        <v>113</v>
+      </c>
+      <c r="B2808" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2808" s="16">
+        <v>841</v>
+      </c>
+      <c r="D2808" s="16">
+        <v>16113</v>
+      </c>
+      <c r="E2808" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2809" s="13">
+        <v>114</v>
+      </c>
+      <c r="B2809" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2809" s="15">
+        <v>1426.8696660000001</v>
+      </c>
+      <c r="D2809" s="15">
+        <v>4159.510123</v>
+      </c>
+      <c r="E2809" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2810" s="14">
+        <v>115</v>
+      </c>
+      <c r="B2810" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2810" s="16">
+        <v>546</v>
+      </c>
+      <c r="D2810" s="16">
+        <v>1970</v>
+      </c>
+      <c r="E2810" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2811" s="13">
+        <v>116</v>
+      </c>
+      <c r="B2811" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2811" s="15">
+        <v>16749</v>
+      </c>
+      <c r="D2811" s="15">
+        <v>13439</v>
+      </c>
+      <c r="E2811" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2812" s="14">
+        <v>117</v>
+      </c>
+      <c r="B2812" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2812" s="16">
+        <v>14111.974303000001</v>
+      </c>
+      <c r="D2812" s="16">
+        <v>827.80932199999995</v>
+      </c>
+      <c r="E2812" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2813" s="13">
+        <v>118</v>
+      </c>
+      <c r="B2813" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2813" s="15">
+        <v>17543.927754</v>
+      </c>
+      <c r="D2813" s="15">
+        <v>104.76119199999999</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2814" s="14">
+        <v>119</v>
+      </c>
+      <c r="B2814" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2814" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2814" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2814" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2815" s="13">
+        <v>120</v>
+      </c>
+      <c r="B2815" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2815" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2815" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2815" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2816" s="14">
+        <v>121</v>
+      </c>
+      <c r="B2816" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2816" s="16">
+        <v>1298</v>
+      </c>
+      <c r="D2816" s="16">
+        <v>23</v>
+      </c>
+      <c r="E2816" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2817" s="13">
+        <v>122</v>
+      </c>
+      <c r="B2817" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2817" s="15">
+        <v>9504.9339959999998</v>
+      </c>
+      <c r="D2817" s="15">
+        <v>108.636909</v>
+      </c>
+      <c r="E2817" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2818" s="14">
+        <v>123</v>
+      </c>
+      <c r="B2818" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2818" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2818" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2818" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2819" s="13">
+        <v>124</v>
+      </c>
+      <c r="B2819" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2819" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2819" s="15">
+        <v>2770.8</v>
+      </c>
+      <c r="E2819" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2820" s="14">
+        <v>125</v>
+      </c>
+      <c r="B2820" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2820" s="16">
+        <v>14485</v>
+      </c>
+      <c r="D2820" s="16">
+        <v>1216</v>
+      </c>
+      <c r="E2820" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2821" s="13">
+        <v>126</v>
+      </c>
+      <c r="B2821" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2821" s="15">
+        <v>428.478521</v>
+      </c>
+      <c r="D2821" s="15">
+        <v>4921.4730319999999</v>
+      </c>
+      <c r="E2821" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2822" s="14">
+        <v>127</v>
+      </c>
+      <c r="B2822" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2822" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2822" s="16">
+        <v>78</v>
+      </c>
+      <c r="E2822" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2823" s="13">
+        <v>128</v>
+      </c>
+      <c r="B2823" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2823" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2823" s="15">
+        <v>6989</v>
+      </c>
+      <c r="E2823" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2824" s="14">
+        <v>129</v>
+      </c>
+      <c r="B2824" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2824" s="16">
+        <v>254</v>
+      </c>
+      <c r="D2824" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2824" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2825" s="13">
+        <v>130</v>
+      </c>
+      <c r="B2825" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2825" s="15">
+        <v>82581</v>
+      </c>
+      <c r="D2825" s="15">
+        <v>13892</v>
+      </c>
+      <c r="E2825" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2826" s="14">
+        <v>131</v>
+      </c>
+      <c r="B2826" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2826" s="16">
+        <v>5079.7984200000001</v>
+      </c>
+      <c r="D2826" s="16">
+        <v>398.240049</v>
+      </c>
+      <c r="E2826" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2827" s="13">
+        <v>132</v>
+      </c>
+      <c r="B2827" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2827" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2827" s="15">
+        <v>58.339080000000003</v>
+      </c>
+      <c r="E2827" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2828" s="14">
+        <v>133</v>
+      </c>
+      <c r="B2828" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2828" s="16">
+        <v>15371.788458999999</v>
+      </c>
+      <c r="D2828" s="16">
+        <v>110.23690499999999</v>
+      </c>
+      <c r="E2828" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2829" s="13">
+        <v>134</v>
+      </c>
+      <c r="B2829" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2829" s="15">
+        <v>1531020</v>
+      </c>
+      <c r="D2829" s="15">
+        <v>24</v>
+      </c>
+      <c r="E2829" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2830" s="14">
+        <v>135</v>
+      </c>
+      <c r="B2830" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2830" s="16">
+        <v>872</v>
+      </c>
+      <c r="D2830" s="16">
+        <v>1220</v>
+      </c>
+      <c r="E2830" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2831" s="13">
+        <v>136</v>
+      </c>
+      <c r="B2831" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2831" s="15">
+        <v>3899.8931510000002</v>
+      </c>
+      <c r="D2831" s="15">
+        <v>416.40947599999998</v>
+      </c>
+      <c r="E2831" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2832" s="14">
+        <v>137</v>
+      </c>
+      <c r="B2832" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2832" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2832" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2832" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2833" s="13">
+        <v>138</v>
+      </c>
+      <c r="B2833" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2833" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2833" s="15">
+        <v>790</v>
+      </c>
+      <c r="E2833" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2834" s="14">
+        <v>139</v>
+      </c>
+      <c r="B2834" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2834" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2834" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2834" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2835" s="13">
+        <v>140</v>
+      </c>
+      <c r="B2835" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2835" s="15">
+        <v>4946</v>
+      </c>
+      <c r="D2835" s="15">
+        <v>7145</v>
+      </c>
+      <c r="E2835" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2836" s="14">
+        <v>141</v>
+      </c>
+      <c r="B2836" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2836" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2836" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2836" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2837" s="13">
+        <v>142</v>
+      </c>
+      <c r="B2837" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2837" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2837" s="15">
+        <v>9103</v>
+      </c>
+      <c r="E2837" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2838" s="14">
+        <v>143</v>
+      </c>
+      <c r="B2838" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2838" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2838" s="16">
+        <v>195</v>
+      </c>
+      <c r="E2838" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2839" s="13">
+        <v>144</v>
+      </c>
+      <c r="B2839" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2839" s="15">
+        <v>47213.918831000003</v>
+      </c>
+      <c r="D2839" s="15">
+        <v>29409.020101999999</v>
+      </c>
+      <c r="E2839" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2840" s="14">
+        <v>145</v>
+      </c>
+      <c r="B2840" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2840" s="16">
+        <v>2648.05</v>
+      </c>
+      <c r="D2840" s="16">
+        <v>2652.92</v>
+      </c>
+      <c r="E2840" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2841" s="13">
+        <v>146</v>
+      </c>
+      <c r="B2841" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2841" s="15">
+        <v>224.54582600000001</v>
+      </c>
+      <c r="D2841" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2841" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2842" s="14">
+        <v>147</v>
+      </c>
+      <c r="B2842" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2842" s="16">
+        <v>997.93222200000002</v>
+      </c>
+      <c r="D2842" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2842" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2843" s="13">
+        <v>148</v>
+      </c>
+      <c r="B2843" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2843" s="15">
+        <v>19960</v>
+      </c>
+      <c r="D2843" s="15">
+        <v>146</v>
+      </c>
+      <c r="E2843" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2844" s="14">
+        <v>149</v>
+      </c>
+      <c r="B2844" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2844" s="16">
+        <v>35</v>
+      </c>
+      <c r="D2844" s="16">
+        <v>26717</v>
+      </c>
+      <c r="E2844" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2845" s="13">
+        <v>150</v>
+      </c>
+      <c r="B2845" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2845" s="15">
+        <v>1885.5700280000001</v>
+      </c>
+      <c r="D2845" s="15">
+        <v>4284.9208509999999</v>
+      </c>
+      <c r="E2845" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2846" s="14">
+        <v>151</v>
+      </c>
+      <c r="B2846" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2846" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2846" s="16">
+        <v>3111</v>
+      </c>
+      <c r="E2846" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2847" s="13">
+        <v>152</v>
+      </c>
+      <c r="B2847" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2847" s="15">
+        <v>17965.835215999999</v>
+      </c>
+      <c r="D2847" s="15">
+        <v>16703.301065</v>
+      </c>
+      <c r="E2847" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2848" s="14">
+        <v>153</v>
+      </c>
+      <c r="B2848" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2848" s="16">
+        <v>1098.0867599999999</v>
+      </c>
+      <c r="D2848" s="16">
+        <v>204.88394700000001</v>
+      </c>
+      <c r="E2848" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2849" s="13">
+        <v>154</v>
+      </c>
+      <c r="B2849" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2849" s="15">
+        <v>6677</v>
+      </c>
+      <c r="D2849" s="15">
+        <v>1247</v>
+      </c>
+      <c r="E2849" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2850" s="14">
+        <v>155</v>
+      </c>
+      <c r="B2850" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2850" s="16">
+        <v>9294</v>
+      </c>
+      <c r="D2850" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2850" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2851" s="13">
+        <v>156</v>
+      </c>
+      <c r="B2851" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2851" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2851" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2851" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2852" s="14">
+        <v>157</v>
+      </c>
+      <c r="B2852" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2852" s="16">
+        <v>7596</v>
+      </c>
+      <c r="D2852" s="16">
+        <v>3573</v>
+      </c>
+      <c r="E2852" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2853" s="13">
+        <v>158</v>
+      </c>
+      <c r="B2853" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2853" s="15">
+        <v>1292</v>
+      </c>
+      <c r="D2853" s="15">
+        <v>4836</v>
+      </c>
+      <c r="E2853" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2854" s="14">
+        <v>159</v>
+      </c>
+      <c r="B2854" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2854" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2854" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2854" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2855" s="13">
+        <v>160</v>
+      </c>
+      <c r="B2855" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2855" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2855" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2855" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2856" s="14">
+        <v>161</v>
+      </c>
+      <c r="B2856" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2856" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2856" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2856" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2857" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2857" s="20"/>
+      <c r="C2857" s="18">
+        <v>3168924.9698839998</v>
+      </c>
+      <c r="D2857" s="18">
+        <v>929619.76460300013</v>
+      </c>
+      <c r="E2857" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2858" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2858" s="20"/>
+      <c r="C2858" s="18">
+        <v>160632139.73205203</v>
+      </c>
+      <c r="D2858" s="18">
+        <v>99783945.297535002</v>
+      </c>
+      <c r="E2858" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A2858:B2858"/>
     <mergeCell ref="A2692:B2692"/>
     <mergeCell ref="A2693:B2693"/>
+    <mergeCell ref="A2768:B2768"/>
+    <mergeCell ref="A2790:B2790"/>
+    <mergeCell ref="A2857:B2857"/>
     <mergeCell ref="A2602:B2602"/>
     <mergeCell ref="A2624:B2624"/>
   </mergeCells>
